--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7070"/>
+    <workbookView windowWidth="18650" windowHeight="7070" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="saas" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="backsaas" sheetId="4" r:id="rId4"/>
+    <sheet name="yiqidata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>desc</t>
   </si>
@@ -212,6 +213,75 @@
   </si>
   <si>
     <t>{"email":"hangang@bitnei.cn","mobile":"13311123333","name":"hangang","title":"","organization":"test","password":"abc123","conformPassword":""}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_01</t>
+  </si>
+  <si>
+    <t>/ras/dataset/create</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_01","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_01"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_02</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_02","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_02"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_03</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_03","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_03"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_04</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_04","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_04"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_05</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_05","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_05"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_06</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_06","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_06"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_07</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_07","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_07"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_08</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_08","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_08"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_09</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_09","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_09"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_10</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_10","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_10"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>stat_alarm_1_11</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_1_11","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_11"],"starSchemas":[]}</t>
   </si>
 </sst>
 </file>
@@ -219,18 +289,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -250,9 +326,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,126 +459,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -393,19 +469,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,145 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +660,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,6 +713,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -628,35 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,162 +765,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1247,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1198,7 +1277,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1212,7 +1291,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1226,7 +1305,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1240,7 +1319,7 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1254,7 +1333,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -1268,7 +1347,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -1282,7 +1361,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1342,10 +1421,10 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
@@ -1356,7 +1435,7 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
@@ -1429,7 +1508,7 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
@@ -1477,10 +1556,10 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
@@ -1499,7 +1578,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1528,7 +1607,7 @@
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" t="s">
@@ -1542,7 +1621,7 @@
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
@@ -1556,7 +1635,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -1570,7 +1649,7 @@
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
@@ -1584,7 +1663,7 @@
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="s">
@@ -1619,4 +1698,195 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="31.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7070" activeTab="4"/>
+    <workbookView windowWidth="18650" windowHeight="7140" tabRatio="639" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="saas" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="backsaas" sheetId="4" r:id="rId4"/>
     <sheet name="yiqidata" sheetId="5" r:id="rId5"/>
+    <sheet name="yiqireport" sheetId="6" r:id="rId6"/>
+    <sheet name="stat_alarm_0" sheetId="7" r:id="rId7"/>
+    <sheet name="stat_alarm_4" sheetId="8" r:id="rId8"/>
+    <sheet name="stat_alarm_18" sheetId="9" r:id="rId9"/>
+    <sheet name="data" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="307">
   <si>
     <t>desc</t>
   </si>
@@ -215,73 +220,730 @@
     <t>{"email":"hangang@bitnei.cn","mobile":"13311123333","name":"hangang","title":"","organization":"test","password":"abc123","conformPassword":""}</t>
   </si>
   <si>
-    <t>stat_alarm_1_01</t>
+    <t>bigbigbig_copy01</t>
   </si>
   <si>
     <t>/ras/dataset/create</t>
   </si>
   <si>
-    <t>{"dataSetName":"stat_alarm_1_01","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_01"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_02</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_02","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_02"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_03</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_03","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_03"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_04</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_04","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_04"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_05</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_05","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_05"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_06</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_06","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_06"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_07</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_07","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_07"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_08</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_08","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_08"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_09</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_09","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_09"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_10</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_10","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_10"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>stat_alarm_1_11</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_1_11","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_1_11"],"starSchemas":[]}</t>
+    <t>{"dataSetName":"yiqibigbigbig_copy01","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy1"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy02</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy02","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy2"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy03</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy03","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy3"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy04</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy04","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy4"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy05</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy05","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy5"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy06</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy06","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy6"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy07</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy07","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy7"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy08</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy08","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy8"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy09</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy09","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy9"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy10</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy10","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy10"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy11</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy11","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy11"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy12</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy12","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy12"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy13</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy13","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy13"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy14</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy14","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy14"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy15</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy15","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy15"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy16</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy16","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy16"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy17</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy17","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy17"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy18</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy18","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy18"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy19</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy19","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy19"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy20</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy20","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy20"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy21</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy21","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy21"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy22</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy22","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy22"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy23</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy23","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy23"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy24</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy24","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy24"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy25</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy25","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy25"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy26</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy26","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy26"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy27</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy27","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy27"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy28</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy28","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy28"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy29</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy29","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy29"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy30</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy30","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy30"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy31</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy31","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy31"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy32</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy32","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy32"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy33</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy33","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy33"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy34</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy34","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy34"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy35</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy35","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy35"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy36</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy36","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy36"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy37</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy37","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy37"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy38</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy38","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy38"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy39</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy39","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy39"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy40</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy40","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy40"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy41</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy41","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy41"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy42</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy42","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy42"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy43</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy43","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy43"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy44</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy44","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy44"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy45</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy45","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy45"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy46</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy46","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy46"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy47</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy47","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy47"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy48</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy48","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy48"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy49</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy49","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy49"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy50</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy50","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy50"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy51</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy51","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy51"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy52</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy52","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy52"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy53</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy53","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy53"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>bigbigbig_copy54</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqibigbigbig_copy54","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy54"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_01</t>
+  </si>
+  <si>
+    <t>/ras/card</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-soc分段","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"soc","fieldAlias":"soc","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"soc"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_02</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-工作日or周末","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"day_type"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_03</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-季节","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"season"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_04</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-省份","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"province"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_05</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-城市","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"city"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_06</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-车辆状态","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"category"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_07</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-充电类型","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"charge_type"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_08</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-报警时的里程","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"mileage"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_09</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-速度","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"speed"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_10</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-功率","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"power"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_11</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-车型","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"model_name"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_12</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-用途","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"dict_name"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_13</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-车辆级别","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"veh_level"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_14</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-车辆类型","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"veh_type"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_15</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-储能装置总能量","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"power_amount"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_16</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-额定电压","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"rating_volt"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_17</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-标称容量","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"rating_volumn"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_18</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-储能装置类型","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"battery_type"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_19</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-电池生产企业","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"cell_enterprise"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_20</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-电池包厂商","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"package_enterprise"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_21</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-是否运营","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"is_biz"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_22</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-运行时长","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"run_time_hour"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_23</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-登录时长","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"active_time_month"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_24</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-30分钟最高车速","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"speed_30_minute"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_25</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-整备质量","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"curb_weight"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_26</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-标称百公里耗电量","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"power_40km","fieldAlias":"power_40km","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"power_40km"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_27</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-续驶里程","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"drive_range"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11_28</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-月份","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"month","fieldAlias":"month","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"month"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_02</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-环境温度-报警等级","description":"","dataSetId":"DATASET5a439ad64d1546b0a9bd05a3eade1e92","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5a439ad64d1546b0a9bd05a3eade1e92","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_02","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_03</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-电池最高温度-报警等级","description":"","dataSetId":"DATASET5b6333b51c664fa48690cdc14742cff9","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5b6333b51c664fa48690cdc14742cff9","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_03","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_04</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-电池最低温度-报警等级","description":"","dataSetId":"DATASET6064a3acc9334c6b82d2a2a56996b62b","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET6064a3acc9334c6b82d2a2a56996b62b","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_04","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_05</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-电池总电压-报警等级","description":"","dataSetId":"DATASET001d5b865fd648aea7a61a8f15ba5928","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET001d5b865fd648aea7a61a8f15ba5928","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_05","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_06</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-电池最高电压-报警等级","description":"","dataSetId":"DATASET069f6fe403cb455382e8363c5bc1f809","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET069f6fe403cb455382e8363c5bc1f809","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_06","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_07</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-电池最低电压-报警等级","description":"","dataSetId":"DATASET1dab31219dbb4075813da31e2072b2e7","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET1dab31219dbb4075813da31e2072b2e7","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_07","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_08</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-总电流-报警等级","description":"","dataSetId":"DATASET3ac58b95cf74457cae30cdbb31c64211","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET3ac58b95cf74457cae30cdbb31c64211","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_08","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_09</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-soc-报警等级","description":"","dataSetId":"DATASETb41e11d53b92462f96224d4369d2a825","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETb41e11d53b92462f96224d4369d2a825","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_09","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_10</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-电池温差-报警等级","description":"","dataSetId":"DATASET5b710a031bf645bba1c0df5d8b7addb9","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5b710a031bf645bba1c0df5d8b7addb9","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_10","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_0_11</t>
+  </si>
+  <si>
+    <t>{"cardName":"温度差异报警-单体总数-报警等级","description":"","dataSetId":"DATASET71090d1f3a9147349177bf857ae946ac","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET71090d1f3a9147349177bf857ae946ac","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_01</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-电池压差-报警等级","description":"","dataSetId":"DATASET2960537abca4433b921c395ab1f3144c","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET2960537abca4433b921c395ab1f3144c","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_01","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_02</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-环境温度-报警等级","description":"","dataSetId":"DATASET69d6ab0a4f5d4793b43e5cc000932090","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET69d6ab0a4f5d4793b43e5cc000932090","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_02","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_03</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-电池最高温度-报警等级","description":"","dataSetId":"DATASETbfe9e57737cc439ca42da95bed7333e0","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETbfe9e57737cc439ca42da95bed7333e0","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_03","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_04</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-电池最低温度-报警等级","description":"","dataSetId":"DATASET5459d285b3384d5ab0db1c640aa4046d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5459d285b3384d5ab0db1c640aa4046d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_04","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_05</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-电池总电压-报警等级","description":"","dataSetId":"DATASET7c4f8ee20ce743b7b404e25ee18c4bdb","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET7c4f8ee20ce743b7b404e25ee18c4bdb","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_05","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_06</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-电池最高电压-报警等级","description":"","dataSetId":"DATASET921367b65e754551bec57c9783150397","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET921367b65e754551bec57c9783150397","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_06","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_07</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-电池最低电压-报警等级","description":"","dataSetId":"DATASET5c3bb77fe435401b8ecc8391e6b7c393","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5c3bb77fe435401b8ecc8391e6b7c393","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_07","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_08</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-总电流-报警等级","description":"","dataSetId":"DATASETb0963739adcb49eca22d88d11a37a489","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETb0963739adcb49eca22d88d11a37a489","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_08","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_09</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-soc-报警等级","description":"","dataSetId":"DATASET1cf612309ec24d739f18ca6cee860b91","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET1cf612309ec24d739f18ca6cee860b91","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_09","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_10</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-电池温差-报警等级","description":"","dataSetId":"DATASET0e2b396a53d9428b93dd555d85a9ab2a","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET0e2b396a53d9428b93dd555d85a9ab2a","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_10","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_4_11</t>
+  </si>
+  <si>
+    <t>{"cardName":"SOC低报警-单体总数-报警等级","description":"","dataSetId":"DATASET9f333d68e23546f3b9db2075f036bdc7","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET9f333d68e23546f3b9db2075f036bdc7","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_01</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-电池压差-报警等级","description":"","dataSetId":"DATASET5d9bae4e6e9142d2bc2400c226f83d2d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5d9bae4e6e9142d2bc2400c226f83d2d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_01","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_02</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-环境温度-报警等级","description":"","dataSetId":"DATASET65331d4697d54f9b93b9c87388d0cedd","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET65331d4697d54f9b93b9c87388d0cedd","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_02","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_03</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-电池最高温度-报警等级","description":"","dataSetId":"DATASETd7e4d9e2327a476db7b5c15d58f81f82","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETd7e4d9e2327a476db7b5c15d58f81f82","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_03","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_04</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-电池最低温度-报警等级","description":"","dataSetId":"DATASET87eb26aeb3d04402b4c58ba92c43c97c","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET87eb26aeb3d04402b4c58ba92c43c97c","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_04","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_05</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-电池总电压-报警等级","description":"","dataSetId":"DATASET864af9fff6454e42aa5db3323c664e3d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET864af9fff6454e42aa5db3323c664e3d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_05","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_06</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-电池最高电压-报警等级","description":"","dataSetId":"DATASET5de94bd358c1427a9115ffe4f22f858a","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5de94bd358c1427a9115ffe4f22f858a","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_06","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_07</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-电池最低电压-报警等级","description":"","dataSetId":"DATASET763c20af039d4fd3989c8735c88e7518","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET763c20af039d4fd3989c8735c88e7518","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_07","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_08</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-总电流-报警等级","description":"","dataSetId":"DATASET1385d01a85b34cd5b0d415b4da4ea9b5","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET1385d01a85b34cd5b0d415b4da4ea9b5","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_08","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_09</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-soc-报警等级","description":"","dataSetId":"DATASET0af7cba633cd4469a5d2096e1479b371","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET0af7cba633cd4469a5d2096e1479b371","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_09","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_10</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-电池温差-报警等级","description":"","dataSetId":"DATASETcd5034f874574065a9b40faa7abc797d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETcd5034f874574065a9b40faa7abc797d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_10","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>stat_alarm_18_11</t>
+  </si>
+  <si>
+    <t>{"cardName":"电池过充-单体总数-报警等级","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_01","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_01"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_02","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_02"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_03","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_03"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_04","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_04"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_05","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_05"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_06","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_06"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_07","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_07"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_08","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_08"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_09","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_09"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_10","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_10"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"yiqistat_alarm_18_11","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_11"],"starSchemas":[]}</t>
   </si>
 </sst>
 </file>
@@ -289,10 +951,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -325,33 +987,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,6 +1009,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -376,8 +1032,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +1042,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +1077,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -413,9 +1092,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,38 +1102,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,7 +1131,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +1167,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +1191,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,25 +1245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,19 +1275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,91 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,26 +1322,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -694,30 +1336,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,153 +1378,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,6 +2048,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1703,18 +2556,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="73.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1885,6 +2738,1597 @@
         <v>200</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="12.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="60.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="13.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="60.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="13.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="60.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="13.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="60.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7140" tabRatio="639" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="18650" windowHeight="7140" tabRatio="639" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="saas" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,15 @@
     <sheet name="stat_alarm_0" sheetId="7" r:id="rId7"/>
     <sheet name="stat_alarm_4" sheetId="8" r:id="rId8"/>
     <sheet name="stat_alarm_18" sheetId="9" r:id="rId9"/>
-    <sheet name="data" sheetId="10" r:id="rId10"/>
+    <sheet name="apicode" sheetId="11" r:id="rId10"/>
+    <sheet name="fieldAlias" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="240">
   <si>
     <t>desc</t>
   </si>
@@ -220,334 +221,82 @@
     <t>{"email":"hangang@bitnei.cn","mobile":"13311123333","name":"hangang","title":"","organization":"test","password":"abc123","conformPassword":""}</t>
   </si>
   <si>
-    <t>bigbigbig_copy01</t>
+    <t>stat_alarm</t>
   </si>
   <si>
     <t>/ras/dataset/create</t>
   </si>
   <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy01","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy1"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy02</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy02","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy2"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy03</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy03","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy3"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy04</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy04","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy4"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy05</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy05","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy5"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy06</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy06","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy6"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy07</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy07","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy7"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy08</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy08","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy8"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy09</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy09","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy9"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy10</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy10","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy10"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy11</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy11","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy11"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy12</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy12","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy12"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy13</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy13","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy13"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy14</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy14","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy14"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy15</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy15","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy15"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy16</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy16","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy16"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy17</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy17","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy17"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy18</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy18","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy18"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy19</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy19","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy19"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy20</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy20","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy20"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy21</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy21","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy21"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy22</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy22","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy22"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy23</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy23","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy23"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy24</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy24","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy24"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy25</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy25","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy25"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy26</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy26","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy26"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy27</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy27","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy27"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy28</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy28","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy28"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy29</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy29","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy29"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy30</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy30","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy30"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy31</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy31","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy31"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy32</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy32","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy32"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy33</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy33","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy33"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy34</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy34","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy34"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy35</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy35","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy35"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy36</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy36","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy36"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy37</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy37","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy37"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy38</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy38","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy38"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy39</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy39","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy39"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy40</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy40","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy40"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy41</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy41","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy41"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy42</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy42","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy42"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy43</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy43","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy43"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy44</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy44","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy44"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy45</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy45","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy45"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy46</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy46","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy46"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy47</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy47","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy47"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy48</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy48","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy48"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy49</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy49","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy49"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy50</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy50","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy50"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy51</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy51","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy51"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy52</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy52","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy52"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy53</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy53","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy53"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>bigbigbig_copy54</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqibigbigbig_copy54","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","dataSourceName":"1万条数据"}],"selectedTables":["DATASOURCE5fb834f13bd748d092d54d160e8b98a1.bigbigbig_copy54"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>{"dataSetName":"stat_alarm_active_time","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_active_time_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_active_time_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time_level"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_env_temp","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_env_temp_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_env_temp_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp_level"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_mileage","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_mileage_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_mileage_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage_level"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_power","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_power_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_power_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power_level"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_run_time","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_run_time_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_run_time_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time_level"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_soc","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_soc_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_soc_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc_level"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_speed","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_speed_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_speed_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed_level"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_summery","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_summery_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_code"],"starSchemas":[]}</t>
+  </si>
+  <si>
+    <t>{"dataSetName":"stat_alarm_summery_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_level"],"starSchemas":[]}</t>
   </si>
   <si>
     <t>stat_alarm_18_11_01</t>
@@ -913,37 +662,88 @@
     <t>{"cardName":"电池过充-单体总数-报警等级","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
   </si>
   <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_01","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_01"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_02","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_02"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_03","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_03"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_04","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_04"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_05","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_05"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_06","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_06"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_07","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_07"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_08","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_08"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_09","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_09"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_10","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_10"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"yiqistat_alarm_18_11","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEf7286c2422e9413890e7cf41fe130def","dataSourceName":"yiqi报表"}],"selectedTables":["DATASOURCEf7286c2422e9413890e7cf41fe130def.stat_alarm_18_11"],"starSchemas":[]}</t>
+    <t xml:space="preserve">10000 SUCCESS </t>
+  </si>
+  <si>
+    <t>/external-api/common/api/raw/api_test?</t>
+  </si>
+  <si>
+    <t>city=%E7%9F%B3%E5%AE%B6%E5%BA%84%E5%B8%82&amp;province=%E6%B2%B3%E5%8C%97%E7%9C%81</t>
+  </si>
+  <si>
+    <t>/ras/dataset</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETa35882e2e5f64e1290e553e87b8cb0c0","dataSetName":"stat_alarm_active_time","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_active_time","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_active_time","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_active_time","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_active_time","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET9f0dd873f2904d80a3c44f53ea383fcc","dataSetName":"stat_alarm_active_time_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_active_time_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_active_time_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_active_time_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_active_time_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETba16e612278b419185aee1352a326af1","dataSetName":"stat_alarm_active_time_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_active_time_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_active_time_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_active_time_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_active_time_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET179466a909104831978d4ea6479129f9","dataSetName":"stat_alarm_env_temp","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_env_temp","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_env_temp","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_env_temp","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_env_temp","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET5a8f16b0d5774df2b0a524ffb0ed6204","dataSetName":"stat_alarm_env_temp_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_env_temp_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_env_temp_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_env_temp_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_env_temp_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET9374c77a26ca4245aa4e3d29e11bd605","dataSetName":"stat_alarm_env_temp_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_env_temp_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_env_temp_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_env_temp_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_env_temp_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_env_temp_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETad91de1ef2624e5490c4057fb47dd1c5","dataSetName":"stat_alarm_mileage","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_mileage","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_mileage","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_mileage","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_mileage","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET308a7444b163406f84ddb86aa8737a9c","dataSetName":"stat_alarm_mileage_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_mileage_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_mileage_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_mileage_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_mileage_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETa3a1a400470f4c20b90bbd2d4dac6300","dataSetName":"stat_alarm_mileage_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_mileage_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_mileage_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_mileage_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_mileage_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_mileage_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET126cd51dbd164e8eaa31d3289d19bc1d","dataSetName":"stat_alarm_power","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_power","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_power","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_power","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_power","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET83292fd9b5db4d309341571fb681149c","dataSetName":"stat_alarm_power_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_power_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_power_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_power_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_power_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETffcd824f6ecc40959b2cee53ba44d3d0","dataSetName":"stat_alarm_power_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_power_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_power_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_power_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_power_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_power_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETceee2a99cd0649aba3494268098b18b8","dataSetName":"stat_alarm_run_time","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_run_time","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_run_time","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_run_time","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_run_time","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET871ef5c03d7246c88166ddb03bed347d","dataSetName":"stat_alarm_run_time_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_run_time_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_run_time_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_run_time_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_run_time_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET63d43b886764435c887eede8b52c75c2","dataSetName":"stat_alarm_run_time_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_run_time_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_run_time_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_run_time_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_run_time_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_run_time_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET834f6d7537054604aa01fc0643dd9599","dataSetName":"stat_alarm_soc","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_soc","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_soc","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_soc","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_soc","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETbfb571a87871480d9da66f14bfd99101","dataSetName":"stat_alarm_soc_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_soc_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_soc_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_soc_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_soc_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET4b6b5f478a8846ea9cd2210b4738312b","dataSetName":"stat_alarm_soc_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_soc_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_soc_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_soc_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_soc_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_soc_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETbc588cbc34774f8a946514a7a1daee52","dataSetName":"stat_alarm_speed","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_speed","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_speed","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_speed","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_speed","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET1f895babee1841d588697a60f675bb9b","dataSetName":"stat_alarm_speed_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_speed_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_speed_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_speed_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_speed_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET0fa71d9f233844a493470c3fdf92e65e","dataSetName":"stat_alarm_speed_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_speed_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_speed_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_speed_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_speed_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_speed_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASETcbf830aa82b444dca9daf0a8a50d224b","dataSetName":"stat_alarm_summery","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_summery","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_summery","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_summery","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_summery","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET9a98faf694634c7b99747a74ac1685dd","dataSetName":"stat_alarm_summery_code","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_code"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_summery_code","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_summery_code","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_code","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_summery_code","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_summery_code","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>{"dataSetID":"DATASET9fc76153ebe14ac7a3d0111282a464b9","dataSetName":"stat_alarm_summery_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_summery_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_summery_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_summery_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_summery_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
   </si>
 </sst>
 </file>
@@ -987,66 +787,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1062,6 +802,43 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1069,6 +846,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1084,25 +886,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,6 +913,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1131,13 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +973,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1003,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1063,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,109 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,6 +1122,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1336,45 +1145,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,17 +1167,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,153 +1183,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2051,18 +1851,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="20.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="41.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="52.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2081,13 +1880,66 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="/external-api/common/api/raw/api_test?"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="103.363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2095,13 +1947,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2109,13 +1961,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2123,13 +1975,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2137,13 +1989,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2151,13 +2003,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2165,13 +2017,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2179,13 +2031,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2193,13 +2045,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2207,13 +2059,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2221,15 +2073,197 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25">
         <v>200</v>
       </c>
     </row>
@@ -2244,8 +2278,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2556,10 +2590,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2600,13 +2634,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2614,13 +2648,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2628,13 +2662,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2642,13 +2676,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2656,13 +2690,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2670,13 +2704,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2684,13 +2718,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2698,13 +2732,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2712,13 +2746,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2726,13 +2760,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -2740,13 +2774,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -2754,13 +2788,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -2768,13 +2802,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2782,13 +2816,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -2796,13 +2830,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -2810,13 +2844,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -2824,13 +2858,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -2838,13 +2872,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2852,13 +2886,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -2866,13 +2900,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -2880,13 +2914,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -2894,13 +2928,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -2908,441 +2942,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3356,15 +2965,15 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="12.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="60.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="84.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3383,13 +2992,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3397,13 +3006,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3411,13 +3020,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3425,13 +3034,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3439,13 +3048,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3453,13 +3062,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -3467,13 +3076,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -3481,13 +3090,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -3495,13 +3104,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -3509,13 +3118,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -3523,13 +3132,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -3537,13 +3146,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -3551,13 +3160,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -3565,13 +3174,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -3579,13 +3188,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -3593,13 +3202,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -3607,13 +3216,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -3621,13 +3230,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -3635,13 +3244,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -3649,13 +3258,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -3663,13 +3272,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -3677,13 +3286,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -3691,13 +3300,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -3705,13 +3314,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -3719,13 +3328,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="D26">
         <v>200</v>
@@ -3733,13 +3342,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -3747,13 +3356,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="D28">
         <v>200</v>
@@ -3761,13 +3370,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -3785,7 +3394,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="$A2:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3811,13 +3420,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3825,13 +3434,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3839,13 +3448,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3853,13 +3462,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3867,13 +3476,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3881,13 +3490,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -3895,13 +3504,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -3909,13 +3518,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -3923,13 +3532,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -3937,13 +3546,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -3987,13 +3596,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -4001,13 +3610,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -4015,13 +3624,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -4029,13 +3638,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -4043,13 +3652,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -4057,13 +3666,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -4071,13 +3680,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -4085,13 +3694,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -4099,13 +3708,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -4113,13 +3722,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -4127,13 +3736,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -4151,7 +3760,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -4177,13 +3786,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -4191,13 +3800,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -4205,13 +3814,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -4219,13 +3828,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -4233,13 +3842,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -4247,13 +3856,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -4261,13 +3870,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -4275,13 +3884,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -4289,13 +3898,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -4303,13 +3912,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -4317,13 +3926,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="D12">
         <v>200</v>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7140" tabRatio="639" activeTab="1"/>
+    <workbookView windowWidth="18650" windowHeight="7140" tabRatio="639" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="saas" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,15 @@
     <sheet name="yiqidata" sheetId="5" r:id="rId5"/>
     <sheet name="yiqireport" sheetId="6" r:id="rId6"/>
     <sheet name="stat_alarm_0" sheetId="7" r:id="rId7"/>
-    <sheet name="stat_alarm_4" sheetId="8" r:id="rId8"/>
-    <sheet name="stat_alarm_18" sheetId="9" r:id="rId9"/>
-    <sheet name="apicode" sheetId="11" r:id="rId10"/>
-    <sheet name="fieldAlias" sheetId="12" r:id="rId11"/>
+    <sheet name="apicode" sheetId="11" r:id="rId8"/>
+    <sheet name="fieldAlias" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="199">
   <si>
     <t>desc</t>
   </si>
@@ -92,7 +90,7 @@
     <t>{"admin":false,"email":"hangang@bitnei.cn","mobile":"13312223333","nickName":"hangang","title":""}</t>
   </si>
   <si>
-    <t>{"status":400,"errorMsg":"NORMAL","data":"用户hangang@bitnei.cn已经存在","error":true}</t>
+    <t>{"status":400,"errorMsg":"str:用户hangang@bitnei.cn已经存在","data":null,"error":true}</t>
   </si>
   <si>
     <t>查询结果正常</t>
@@ -179,7 +177,7 @@
     <t>{"email":"","endTime":"","mobile":"","origin":"","startTime":"","status":"","tenant":"新源科技"}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"9c178ab462874ed28e92d245310e719f","organization":"新源科技","tenant":"bitnei-cn","contactName":"张海龙","contactEmail":"zhanghailong@bitnei.cn","connectMobile":"18110024813","origin":"REGISTER_FREE","userNum":3,"createTime":"2019-07-12 15:18:48","status":"ACTIVE","title":null,"superId":"782783112a42461298fbea5e0b5942c3","createBy":"zhanghailong@bitnei.cn"}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"9c178ab462874ed28e92d245310e719f","organization":"新源科技","tenant":"bitnei-cn","contactName":"张海龙","contactEmail":"zhanghailong@bitnei.cn","connectMobile":"18110024813","origin":"REGISTER_FREE","createTime":"2019-07-12 15:18:48","status":"ACTIVE","title":null,"superId":"782783112a42461298fbea5e0b5942c3","createBy":"zhanghailong@bitnei.cn"}],"error":false}</t>
   </si>
   <si>
     <t>按手机号码查询租户</t>
@@ -194,7 +192,7 @@
     <t>{"startTime":"2019-07-13 04:55:07","endTime":"2019-07-14 04:55:07","email":"","mobile":"","origin":"","status":"","tenant":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"39246a3068db4b9f898e09930f1c1b1e","organization":"lgxy","tenant":"bitnei-cn241053","contactName":"tzy","contactEmail":"tangzhiyuan@bitnei.cn","connectMobile":"13333333333","origin":"REGISTER_FREE","userNum":1,"createTime":"2019-07-13 09:42:08","status":"ACTIVE","title":null,"superId":"161722287b0647e9bc3660f03431cc57","createBy":"tangzhiyuan@bitnei.cn"}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"39246a3068db4b9f898e09930f1c1b1e","organization":"lgxy","tenant":"bitnei-cn241053","contactName":"tzy","contactEmail":"tangzhiyuan@bitnei.cn","connectMobile":"13333333333","origin":"REGISTER_FREE","createTime":"2019-07-13 09:42:08","status":"ACTIVE","title":null,"superId":"161722287b0647e9bc3660f03431cc57","createBy":"tangzhiyuan@bitnei.cn"}],"error":false}</t>
   </si>
   <si>
     <t>按租户名称查询租户</t>
@@ -530,145 +528,22 @@
     <t>{"cardName":"温度差异报警-单体总数-报警等级","description":"","dataSetId":"DATASET71090d1f3a9147349177bf857ae946ac","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET71090d1f3a9147349177bf857ae946ac","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_0_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
   </si>
   <si>
-    <t>stat_alarm_4_01</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-电池压差-报警等级","description":"","dataSetId":"DATASET2960537abca4433b921c395ab1f3144c","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET2960537abca4433b921c395ab1f3144c","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_01","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_02</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-环境温度-报警等级","description":"","dataSetId":"DATASET69d6ab0a4f5d4793b43e5cc000932090","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET69d6ab0a4f5d4793b43e5cc000932090","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_02","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_03</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-电池最高温度-报警等级","description":"","dataSetId":"DATASETbfe9e57737cc439ca42da95bed7333e0","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETbfe9e57737cc439ca42da95bed7333e0","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_03","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_04</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-电池最低温度-报警等级","description":"","dataSetId":"DATASET5459d285b3384d5ab0db1c640aa4046d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5459d285b3384d5ab0db1c640aa4046d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_04","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_05</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-电池总电压-报警等级","description":"","dataSetId":"DATASET7c4f8ee20ce743b7b404e25ee18c4bdb","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET7c4f8ee20ce743b7b404e25ee18c4bdb","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_05","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_06</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-电池最高电压-报警等级","description":"","dataSetId":"DATASET921367b65e754551bec57c9783150397","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET921367b65e754551bec57c9783150397","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_06","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_07</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-电池最低电压-报警等级","description":"","dataSetId":"DATASET5c3bb77fe435401b8ecc8391e6b7c393","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5c3bb77fe435401b8ecc8391e6b7c393","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_07","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_08</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-总电流-报警等级","description":"","dataSetId":"DATASETb0963739adcb49eca22d88d11a37a489","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETb0963739adcb49eca22d88d11a37a489","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_08","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_09</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-soc-报警等级","description":"","dataSetId":"DATASET1cf612309ec24d739f18ca6cee860b91","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET1cf612309ec24d739f18ca6cee860b91","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_09","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_10</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-电池温差-报警等级","description":"","dataSetId":"DATASET0e2b396a53d9428b93dd555d85a9ab2a","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET0e2b396a53d9428b93dd555d85a9ab2a","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_10","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_4_11</t>
-  </si>
-  <si>
-    <t>{"cardName":"SOC低报警-单体总数-报警等级","description":"","dataSetId":"DATASET9f333d68e23546f3b9db2075f036bdc7","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET9f333d68e23546f3b9db2075f036bdc7","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_4_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_01</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-电池压差-报警等级","description":"","dataSetId":"DATASET5d9bae4e6e9142d2bc2400c226f83d2d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5d9bae4e6e9142d2bc2400c226f83d2d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_01","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_02</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-环境温度-报警等级","description":"","dataSetId":"DATASET65331d4697d54f9b93b9c87388d0cedd","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET65331d4697d54f9b93b9c87388d0cedd","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_02","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_03</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-电池最高温度-报警等级","description":"","dataSetId":"DATASETd7e4d9e2327a476db7b5c15d58f81f82","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETd7e4d9e2327a476db7b5c15d58f81f82","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_03","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_04</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-电池最低温度-报警等级","description":"","dataSetId":"DATASET87eb26aeb3d04402b4c58ba92c43c97c","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET87eb26aeb3d04402b4c58ba92c43c97c","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_04","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_05</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-电池总电压-报警等级","description":"","dataSetId":"DATASET864af9fff6454e42aa5db3323c664e3d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET864af9fff6454e42aa5db3323c664e3d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_05","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_06</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-电池最高电压-报警等级","description":"","dataSetId":"DATASET5de94bd358c1427a9115ffe4f22f858a","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET5de94bd358c1427a9115ffe4f22f858a","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_06","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_07</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-电池最低电压-报警等级","description":"","dataSetId":"DATASET763c20af039d4fd3989c8735c88e7518","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET763c20af039d4fd3989c8735c88e7518","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_07","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_08</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-总电流-报警等级","description":"","dataSetId":"DATASET1385d01a85b34cd5b0d415b4da4ea9b5","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET1385d01a85b34cd5b0d415b4da4ea9b5","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_08","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_09</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-soc-报警等级","description":"","dataSetId":"DATASET0af7cba633cd4469a5d2096e1479b371","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASET0af7cba633cd4469a5d2096e1479b371","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_09","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_10</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-电池温差-报警等级","description":"","dataSetId":"DATASETcd5034f874574065a9b40faa7abc797d","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETcd5034f874574065a9b40faa7abc797d","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_10","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t>stat_alarm_18_11</t>
-  </si>
-  <si>
-    <t>{"cardName":"电池过充-单体总数-报警等级","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"alarm_level"}],"filters":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"diff_cell_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"day_type","defValue":null,"operator":null,"policy":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"season","defValue":null,"operator":null,"policy":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"province","defValue":null,"operator":null,"policy":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"city","defValue":null,"operator":null,"policy":null},{"fieldName":"district","fieldAlias":"district","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"district","defValue":null,"operator":null,"policy":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"category","defValue":null,"operator":null,"policy":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"charge_type","defValue":null,"operator":null,"policy":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"mileage","defValue":null,"operator":null,"policy":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed","defValue":null,"operator":null,"policy":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power","defValue":null,"operator":null,"policy":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"model_name","defValue":null,"operator":null,"policy":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"dict_name","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_level","defValue":null,"operator":null,"policy":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"veh_type","defValue":null,"operator":null,"policy":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_amount","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"battery_type","defValue":null,"operator":null,"policy":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"is_biz","defValue":null,"operator":null,"policy":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"power_100km","defValue":null,"operator":null,"policy":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","filterAlias":"drive_range","defValue":null,"operator":null,"policy":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000 SUCCESS </t>
+    <t xml:space="preserve">SUCCESS </t>
   </si>
   <si>
     <t>/external-api/common/api/raw/api_test?</t>
   </si>
   <si>
     <t>city=%E7%9F%B3%E5%AE%B6%E5%BA%84%E5%B8%82&amp;province=%E6%B2%B3%E5%8C%97%E7%9C%81</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>/external-api/vehicle-charge/charge/herui/vehicle/portrait?</t>
+  </si>
+  <si>
+    <t>carNO=%E7%B2%A4S18639D</t>
   </si>
   <si>
     <t>/ras/dataset</t>
@@ -753,8 +628,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -787,15 +662,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,7 +723,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,20 +746,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,22 +782,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -870,53 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,13 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,19 +818,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +848,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,49 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,12 +926,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1075,13 +938,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,25 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,65 +997,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1208,6 +1024,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1227,148 +1102,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1710,7 +1585,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1848,437 +1723,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="20.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="41.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="52.1818181818182" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="/external-api/common/api/raw/api_test?"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="103.363636363636" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2464,8 +1914,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -2965,7 +2415,7 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3567,17 +3017,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="60.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="20.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="41.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="52.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3598,157 +3048,34 @@
       <c r="A2" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
+      <c r="B2" t="s">
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="/external-api/common/api/raw/api_test?"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3757,17 +3084,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="60.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="103.363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3786,13 +3113,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3800,13 +3127,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3814,13 +3141,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3828,13 +3155,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3842,13 +3169,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3856,13 +3183,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -3870,13 +3197,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -3884,13 +3211,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -3898,13 +3225,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -3912,13 +3239,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -3926,15 +3253,197 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25">
         <v>200</v>
       </c>
     </row>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7140" tabRatio="639" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="saas" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="stat_alarm_0" sheetId="7" r:id="rId7"/>
     <sheet name="apicode" sheetId="11" r:id="rId8"/>
     <sheet name="fieldAlias" sheetId="12" r:id="rId9"/>
+    <sheet name="apipost" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="253">
   <si>
     <t>desc</t>
   </si>
@@ -168,6 +169,153 @@
     <t>?email=hangang@bitnei.cn&amp;force=false</t>
   </si>
   <si>
+    <t>分组列表搜索</t>
+  </si>
+  <si>
+    <t>/user-center/group/list</t>
+  </si>
+  <si>
+    <t>?name=test</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"40577066f90f411c9811824d2f8edf1f","name":"test","description":"","createBy":"zhanghailong@bitnei.cn","createTime":"1970-01-01 16:39:50","lastUpdateTime":"2019-11-11 16:39:49","tenant":"bitnei-cn"}],"error":false}</t>
+  </si>
+  <si>
+    <t>API管理用户获取TOKEN接口查询</t>
+  </si>
+  <si>
+    <t>/api-center/api/getAuthorizedApi</t>
+  </si>
+  <si>
+    <t>?apiName=%E7%94%A8%E6%88%B7%E8%8E%B7%E5%8F%96TOKEN%E6%8E%A5%E5%8F%A3&amp;pageNumber=1&amp;pageSize=12</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNumber":1,"pageSize":12,"totalCount":7,"start":0,"list":[{"id":"1","name":"用户获取TOKEN接口","description":"获取token","strategy":"{\"typeName\":\"ApiThrottleStrategy\",\"apiId\":\"1\",\"tenantId\":\"9c178ab462874ed28e92d245310e719f\",\"frequency\":0,\"maturityDate\":\"2019-12-21\",\"restrictIps\":[],\"expire\":false}","apiThrottleStrategy":{"typeName":"ApiThrottleStrategy","apiId":"1","tenantId":"9c178ab462874ed28e92d245310e719f","frequency":0,"maturityDate":"2019-12-21","restrictIps":[],"expire":false},"type":"2","logo":"iVBORw0KGgoAAAANSUhEUgAAAEYAAABGCAYAAABxLuKEAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJ\nbWFnZVJlYWR5ccllPAAAAyFpVFh0WE1MOmNvbS5hZG9iZS54bXAAAAAAADw/eHBhY2tldCBiZWdp\nbj0i77u/IiBpZD0iVzVNME1wQ2VoaUh6cmVTek5UY3prYzlkIj8+IDx4OnhtcG1ldGEgeG1sbnM6\neD0iYWRvYmU6bnM6bWV0YS8iIHg6eG1wdGs9IkFkb2JlIFhNUCBDb3JlIDUuNS1jMDE0IDc5LjE1\nMTQ4MSwgMjAxMy8wMy8xMy0xMjowOToxNSAgICAgICAgIj4gPHJkZjpSREYgeG1sbnM6cmRmPSJo\ndHRwOi8vd3d3LnczLm9yZy8xOTk5LzAyLzIyLXJkZi1zeW50YXgtbnMjIj4gPHJkZjpEZXNjcmlw\ndGlvbiByZGY6YWJvdXQ9IiIgeG1sbnM6eG1wPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAv\nIiB4bWxuczp4bXBNTT0iaHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wL21tLyIgeG1sbnM6c3RS\nZWY9Imh0dHA6Ly9ucy5hZG9iZS5jb20veGFwLzEuMC9zVHlwZS9SZXNvdXJjZVJlZiMiIHhtcDpD\ncmVhdG9yVG9vbD0iQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKSIgeG1wTU06SW5zdGFuY2VJ\nRD0ieG1wLmlpZDo3RTA4RjZGREVDM0UxMUU2QjlDQUIyNUIzMDIwN0MwRiIgeG1wTU06RG9jdW1l\nbnRJRD0ieG1wLmRpZDo3RTA4RjZGRUVDM0UxMUU2QjlDQUIyNUIzMDIwN0MwRiI+IDx4bXBNTTpE\nZXJpdmVkRnJvbSBzdFJlZjppbnN0YW5jZUlEPSJ4bXAuaWlkOjdFMDhGNkZCRUMzRTExRTZCOUNB\nQjI1QjMwMjA3QzBGIiBzdFJlZjpkb2N1bWVudElEPSJ4bXAuZGlkOjdFMDhGNkZDRUMzRTExRTZC\nOUNBQjI1QjMwMjA3QzBGIi8+IDwvcmRmOkRlc2NyaXB0aW9uPiA8L3JkZjpSREY+IDwveDp4bXBt\nZXRhPiA8P3hwYWNrZXQgZW5kPSJyIj8+YQLNsQAAAq1JREFUeNrsmT1oFEEYhnflarXQQghaaCT+\nYNQEBBtFgz+kMNqKnhxBiYWlGFBzwSb+dWoUVFSwEcSAJkbRiIVgRBEsTVALO9NELRSE9Rn4hGW9\n3Bl3j927ez94GEKWudtnXmY+bvwgCDzV3zVHCiRGYiRGYiRGYiRGYiRGYiRGJTESIzESIzESIzES\nIzES06CVq/TApWND0fsVH4JNOza48SOsgxEowCm4ALvhFSyBHzAFrTAKB+Ek3IRt8BaWwgS0wzDk\n4TSch/3wCFbDNHyHlTZXD/TCLdgOb6AZ3kMbPINdcMU+8zDch7WrNi8qlntvv9K9UlTM3neD/u01\nPYEbs7ran4/eqPgMYuIlxhIy0xcolZiLocQshp/wxRLzEA7Z6l2HnSUSM2IpOQvnYB88tpR8hW/u\nvUJzHS+RGDfXehiDPTBon+kS9sC+S3+sxETS4xLjWWKyGhg/icTMevPNbZ3O9KaJFJfwSZgLry21\nw7bnXIUu6Iu9+ZYRlNoe8+vpvBn/13TmgJOzzP5st7HTxm4bh6omxp1MaUj51HavwNpnb48Z65jy\ntjxZEOQXDqS2hyAn9iRJnEolK9/a7ffnOtPoYwpJ9DFQrEpi3DjblUZkZjbpxE+l/y2kuJ6kA+5A\nC4yD20U/WK/kTpL58ALc5nkXNsJlS+AJOGKJ+TOXe2Y5vLS5Jm2uCTuVXIKaQqfSNTuVihVXMUYf\n0/Cdr6fOV52vOt/Mdr7lutc4VdOdLw3aCtavvvaYhDrfRLrXeux8W9L+BS/tzjdT3W6iiXEyYnS7\nvV5Gf/ONnZiomFBi/H+UU5+JiZ4+SPFDL9y4nW+F65OarardEjwfHQ9qW0yXn9ip1EilK1qJkRiJ\nkRiJkRiJkRiJkRiJUUmMxEiMxEiMxEiMxEhM3ddvAQYATJSOLBcyLw8AAAAASUVORK5CYII="}]},"error":false}</t>
+  </si>
+  <si>
+    <t>单车画像查询</t>
+  </si>
+  <si>
+    <t>/vehicle-info/portrait/getVehiclePortrait/LNBSCC3H4HF327175</t>
+  </si>
+  <si>
+    <t>?modelName=BJ7000C5E7-BEV</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"portraitChargeMonth":{"vin":"LNBSCC3H4HF327175","modelName":"BJ7000C5E7-BEV","chargeTimes":68,"chargeQuick":17,"chargeSlow":51,"halfPriceTimes":46,"avgStartSoc":36.46,"avgEndSoc":71.53,"avgChargeTime":"1小时36分钟"},"portraitReduceMonth":{"vin":"LNBSCC3H4HF327175","modelName":"BJ7000C5E7-BEV","reducePercent":7.3,"reduceScore":78.1,"leftMonth":61.1,"actualDriveRange":253.3,"power100km":16.8,"createDate":"2019-06-25"},"portraitStaticMonth":{"vin":"LNBSCC3H4HF327175","modelName":"BJ7000C5E7-BEV","brand":"北汽新能源","level":"A","powerType":"BEV","driveRange":"300.0","cityDept":"北京市","dictName":"出租乘用车","dashboardMileage":"115884.0","createDate":"2019-06-27","detailModel":"EU260"},"portraitRunMonth":{"vin":"LNBSCC3H4HF327175","modelName":"BJ7000C5E7-BEV","runDays":27,"runTimes":145,"soc20Times":23,"runMileage":6512.0,"peakTimes":40,"maxSpeed":105.2,"createDate":"2019-06-26"},"modelCapacityCurveList":[{"boxKey":"BJ7000C5E7-BEV","mil":0.0,"vol":"127.8"},{"boxKey":"BJ7000C5E7-BEV","mil":5000.0,"vol":"127.5"},{"boxKey":"BJ7000C5E7-BEV","mil":10000.0,"vol":"127.2"},{"boxKey":"BJ7000C5E7-BEV","mil":15000.0,"vol":"126.9"},{"boxKey":"BJ7000C5E7-BEV","mil":20000.0,"vol":"126.6"},{"boxKey":"BJ7000C5E7-BEV","mil":25000.0,"vol":"126.3"},{"boxKey":"BJ7000C5E7-BEV","mil":30000.0,"vol":"126.0"},{"boxKey":"BJ7000C5E7-BEV","mil":35000.0,"vol":"125.7"},{"boxKey":"BJ7000C5E7-BEV","mil":40000.0,"vol":"125.4"},{"boxKey":"BJ7000C5E7-BEV","mil":45000.0,"vol":"125.0"},{"boxKey":"BJ7000C5E7-BEV","mil":50000.0,"vol":"124.7"},{"boxKey":"BJ7000C5E7-BEV","mil":55000.0,"vol":"124.4"},{"boxKey":"BJ7000C5E7-BEV","mil":60000.0,"vol":"124.1"},{"boxKey":"BJ7000C5E7-BEV","mil":65000.0,"vol":"123.8"},{"boxKey":"BJ7000C5E7-BEV","mil":70000.0,"vol":"123.5"},{"boxKey":"BJ7000C5E7-BEV","mil":75000.0,"vol":"123.2"},{"boxKey":"BJ7000C5E7-BEV","mil":80000.0,"vol":"122.9"},{"boxKey":"BJ7000C5E7-BEV","mil":85000.0,"vol":"122.6"},{"boxKey":"BJ7000C5E7-BEV","mil":90000.0,"vol":"122.3"},{"boxKey":"BJ7000C5E7-BEV","mil":95000.0,"vol":"122.0"},{"boxKey":"BJ7000C5E7-BEV","mil":100000.0,"vol":"121.7"},{"boxKey":"BJ7000C5E7-BEV","mil":105000.0,"vol":"121.4"},{"boxKey":"BJ7000C5E7-BEV","mil":110000.0,"vol":"121.1"},{"boxKey":"BJ7000C5E7-BEV","mil":115000.0,"vol":"120.7"},{"boxKey":"BJ7000C5E7-BEV","mil":120000.0,"vol":"120.4"},{"boxKey":"BJ7000C5E7-BEV","mil":125000.0,"vol":"120.1"},{"boxKey":"BJ7000C5E7-BEV","mil":130000.0,"vol":"119.8"},{"boxKey":"BJ7000C5E7-BEV","mil":135000.0,"vol":"119.5"},{"boxKey":"BJ7000C5E7-BEV","mil":140000.0,"vol":"119.2"},{"boxKey":"BJ7000C5E7-BEV","mil":145000.0,"vol":"118.9"},{"boxKey":"BJ7000C5E7-BEV","mil":150000.0,"vol":"118.6"},{"boxKey":"BJ7000C5E7-BEV","mil":155000.0,"vol":"118.3"},{"boxKey":"BJ7000C5E7-BEV","mil":160000.0,"vol":"118.0"},{"boxKey":"BJ7000C5E7-BEV","mil":165000.0,"vol":"117.7"},{"boxKey":"BJ7000C5E7-BEV","mil":170000.0,"vol":"117.4"},{"boxKey":"BJ7000C5E7-BEV","mil":175000.0,"vol":"117.1"},{"boxKey":"BJ7000C5E7-BEV","mil":180000.0,"vol":"116.8"},{"boxKey":"BJ7000C5E7-BEV","mil":185000.0,"vol":"116.4"},{"boxKey":"BJ7000C5E7-BEV","mil":190000.0,"vol":"116.1"},{"boxKey":"BJ7000C5E7-BEV","mil":195000.0,"vol":"115.8"},{"boxKey":"BJ7000C5E7-BEV","mil":200000.0,"vol":"115.5"},{"boxKey":"BJ7000C5E7-BEV","mil":205000.0,"vol":"115.2"},{"boxKey":"BJ7000C5E7-BEV","mil":210000.0,"vol":"114.9"},{"boxKey":"BJ7000C5E7-BEV","mil":215000.0,"vol":"114.6"},{"boxKey":"BJ7000C5E7-BEV","mil":220000.0,"vol":"114.3"},{"boxKey":"BJ7000C5E7-BEV","mil":225000.0,"vol":"114.0"},{"boxKey":"BJ7000C5E7-BEV","mil":230000.0,"vol":"113.7"},{"boxKey":"BJ7000C5E7-BEV","mil":235000.0,"vol":"113.4"},{"boxKey":"BJ7000C5E7-BEV","mil":240000.0,"vol":"113.1"},{"boxKey":"BJ7000C5E7-BEV","mil":245000.0,"vol":"112.8"},{"boxKey":"BJ7000C5E7-BEV","mil":250000.0,"vol":"112.5"},{"boxKey":"BJ7000C5E7-BEV","mil":255000.0,"vol":"112.1"},{"boxKey":"BJ7000C5E7-BEV","mil":260000.0,"vol":"111.8"},{"boxKey":"BJ7000C5E7-BEV","mil":265000.0,"vol":"111.5"},{"boxKey":"BJ7000C5E7-BEV","mil":270000.0,"vol":"111.2"},{"boxKey":"BJ7000C5E7-BEV","mil":275000.0,"vol":"110.9"},{"boxKey":"BJ7000C5E7-BEV","mil":280000.0,"vol":"110.6"},{"boxKey":"BJ7000C5E7-BEV","mil":285000.0,"vol":"110.3"},{"boxKey":"BJ7000C5E7-BEV","mil":290000.0,"vol":"110.0"},{"boxKey":"BJ7000C5E7-BEV","mil":295000.0,"vol":"109.7"},{"boxKey":"BJ7000C5E7-BEV","mil":300000.0,"vol":"109.4"},{"boxKey":"BJ7000C5E7-BEV","mil":305000.0,"vol":"109.1"},{"boxKey":"BJ7000C5E7-BEV","mil":310000.0,"vol":"108.8"},{"boxKey":"BJ7000C5E7-BEV","mil":315000.0,"vol":"108.5"},{"boxKey":"BJ7000C5E7-BEV","mil":320000.0,"vol":"108.2"},{"boxKey":"BJ7000C5E7-BEV","mil":325000.0,"vol":"107.8"},{"boxKey":"BJ7000C5E7-BEV","mil":330000.0,"vol":"107.5"},{"boxKey":"BJ7000C5E7-BEV","mil":335000.0,"vol":"107.2"},{"boxKey":"BJ7000C5E7-BEV","mil":340000.0,"vol":"106.9"},{"boxKey":"BJ7000C5E7-BEV","mil":345000.0,"vol":"106.6"},{"boxKey":"BJ7000C5E7-BEV","mil":350000.0,"vol":"106.3"},{"boxKey":"BJ7000C5E7-BEV","mil":355000.0,"vol":"106.0"},{"boxKey":"BJ7000C5E7-BEV","mil":360000.0,"vol":"105.7"},{"boxKey":"BJ7000C5E7-BEV","mil":365000.0,"vol":"105.4"},{"boxKey":"BJ7000C5E7-BEV","mil":370000.0,"vol":"105.1"},{"boxKey":"BJ7000C5E7-BEV","mil":375000.0,"vol":"104.8"},{"boxKey":"BJ7000C5E7-BEV","mil":380000.0,"vol":"104.5"},{"boxKey":"BJ7000C5E7-BEV","mil":385000.0,"vol":"104.2"},{"boxKey":"BJ7000C5E7-BEV","mil":390000.0,"vol":"103.9"},{"boxKey":"BJ7000C5E7-BEV","mil":395000.0,"vol":"103.5"},{"boxKey":"BJ7000C5E7-BEV","mil":400000.0,"vol":"103.2"},{"boxKey":"BJ7000C5E7-BEV","mil":405000.0,"vol":"102.9"},{"boxKey":"BJ7000C5E7-BEV","mil":410000.0,"vol":"102.6"},{"boxKey":"BJ7000C5E7-BEV","mil":415000.0,"vol":"102.3"}],"vehicleCapacityCurveList":[{"boxKey":"LNBSCC3H4HF327175","mil":0.0,"vol":"124.3"},{"boxKey":"LNBSCC3H4HF327175","mil":5000.0,"vol":"123.9"},{"boxKey":"LNBSCC3H4HF327175","mil":10000.0,"vol":"123.6"},{"boxKey":"LNBSCC3H4HF327175","mil":15000.0,"vol":"123.3"},{"boxKey":"LNBSCC3H4HF327175","mil":20000.0,"vol":"122.9"},{"boxKey":"LNBSCC3H4HF327175","mil":25000.0,"vol":"122.6"},{"boxKey":"LNBSCC3H4HF327175","mil":30000.0,"vol":"122.2"},{"boxKey":"LNBSCC3H4HF327175","mil":35000.0,"vol":"121.9"},{"boxKey":"LNBSCC3H4HF327175","mil":40000.0,"vol":"121.6"},{"boxKey":"LNBSCC3H4HF327175","mil":45000.0,"vol":"121.2"},{"boxKey":"LNBSCC3H4HF327175","mil":50000.0,"vol":"120.9"},{"boxKey":"LNBSCC3H4HF327175","mil":55000.0,"vol":"120.5"},{"boxKey":"LNBSCC3H4HF327175","mil":60000.0,"vol":"120.2"},{"boxKey":"LNBSCC3H4HF327175","mil":65000.0,"vol":"119.9"},{"boxKey":"LNBSCC3H4HF327175","mil":70000.0,"vol":"119.5"},{"boxKey":"LNBSCC3H4HF327175","mil":75000.0,"vol":"119.2"},{"boxKey":"LNBSCC3H4HF327175","mil":80000.0,"vol":"118.8"},{"boxKey":"LNBSCC3H4HF327175","mil":85000.0,"vol":"118.5"},{"boxKey":"LNBSCC3H4HF327175","mil":90000.0,"vol":"118.2"},{"boxKey":"LNBSCC3H4HF327175","mil":95000.0,"vol":"117.8"},{"boxKey":"LNBSCC3H4HF327175","mil":100000.0,"vol":"117.5"},{"boxKey":"LNBSCC3H4HF327175","mil":105000.0,"vol":"117.1"},{"boxKey":"LNBSCC3H4HF327175","mil":110000.0,"vol":"116.8"},{"boxKey":"LNBSCC3H4HF327175","mil":115000.0,"vol":"116.5"},{"boxKey":"LNBSCC3H4HF327175","mil":120000.0,"vol":"116.1"},{"boxKey":"LNBSCC3H4HF327175","mil":125000.0,"vol":"115.8"},{"boxKey":"LNBSCC3H4HF327175","mil":130000.0,"vol":"115.4"},{"boxKey":"LNBSCC3H4HF327175","mil":135000.0,"vol":"115.1"},{"boxKey":"LNBSCC3H4HF327175","mil":140000.0,"vol":"114.8"},{"boxKey":"LNBSCC3H4HF327175","mil":145000.0,"vol":"114.4"},{"boxKey":"LNBSCC3H4HF327175","mil":150000.0,"vol":"114.1"},{"boxKey":"LNBSCC3H4HF327175","mil":155000.0,"vol":"113.7"},{"boxKey":"LNBSCC3H4HF327175","mil":160000.0,"vol":"113.4"},{"boxKey":"LNBSCC3H4HF327175","mil":165000.0,"vol":"113.1"},{"boxKey":"LNBSCC3H4HF327175","mil":170000.0,"vol":"112.7"},{"boxKey":"LNBSCC3H4HF327175","mil":175000.0,"vol":"112.4"},{"boxKey":"LNBSCC3H4HF327175","mil":180000.0,"vol":"112.0"},{"boxKey":"LNBSCC3H4HF327175","mil":185000.0,"vol":"111.7"},{"boxKey":"LNBSCC3H4HF327175","mil":190000.0,"vol":"111.4"},{"boxKey":"LNBSCC3H4HF327175","mil":195000.0,"vol":"111.0"},{"boxKey":"LNBSCC3H4HF327175","mil":200000.0,"vol":"110.7"},{"boxKey":"LNBSCC3H4HF327175","mil":205000.0,"vol":"110.3"},{"boxKey":"LNBSCC3H4HF327175","mil":210000.0,"vol":"110.0"},{"boxKey":"LNBSCC3H4HF327175","mil":215000.0,"vol":"109.6"},{"boxKey":"LNBSCC3H4HF327175","mil":220000.0,"vol":"109.3"},{"boxKey":"LNBSCC3H4HF327175","mil":225000.0,"vol":"109.0"},{"boxKey":"LNBSCC3H4HF327175","mil":230000.0,"vol":"108.6"},{"boxKey":"LNBSCC3H4HF327175","mil":235000.0,"vol":"108.3"},{"boxKey":"LNBSCC3H4HF327175","mil":240000.0,"vol":"107.9"},{"boxKey":"LNBSCC3H4HF327175","mil":245000.0,"vol":"107.6"},{"boxKey":"LNBSCC3H4HF327175","mil":250000.0,"vol":"107.3"},{"boxKey":"LNBSCC3H4HF327175","mil":255000.0,"vol":"106.9"},{"boxKey":"LNBSCC3H4HF327175","mil":260000.0,"vol":"106.6"},{"boxKey":"LNBSCC3H4HF327175","mil":265000.0,"vol":"106.2"},{"boxKey":"LNBSCC3H4HF327175","mil":270000.0,"vol":"105.9"},{"boxKey":"LNBSCC3H4HF327175","mil":275000.0,"vol":"105.6"},{"boxKey":"LNBSCC3H4HF327175","mil":280000.0,"vol":"105.2"},{"boxKey":"LNBSCC3H4HF327175","mil":285000.0,"vol":"104.9"},{"boxKey":"LNBSCC3H4HF327175","mil":290000.0,"vol":"104.5"},{"boxKey":"LNBSCC3H4HF327175","mil":295000.0,"vol":"104.2"},{"boxKey":"LNBSCC3H4HF327175","mil":300000.0,"vol":"103.9"},{"boxKey":"LNBSCC3H4HF327175","mil":305000.0,"vol":"103.5"},{"boxKey":"LNBSCC3H4HF327175","mil":310000.0,"vol":"103.2"},{"boxKey":"LNBSCC3H4HF327175","mil":315000.0,"vol":"102.8"},{"boxKey":"LNBSCC3H4HF327175","mil":320000.0,"vol":"102.5"},{"boxKey":"LNBSCC3H4HF327175","mil":325000.0,"vol":"102.2"},{"boxKey":"LNBSCC3H4HF327175","mil":330000.0,"vol":"101.8"},{"boxKey":"LNBSCC3H4HF327175","mil":335000.0,"vol":"101.5"},{"boxKey":"LNBSCC3H4HF327175","mil":340000.0,"vol":"101.1"},{"boxKey":"LNBSCC3H4HF327175","mil":345000.0,"vol":"100.8"},{"boxKey":"LNBSCC3H4HF327175","mil":350000.0,"vol":"100.5"},{"boxKey":"LNBSCC3H4HF327175","mil":355000.0,"vol":"100.1"},{"boxKey":"LNBSCC3H4HF327175","mil":360000.0,"vol":"99.8"},{"boxKey":"LNBSCC3H4HF327175","mil":365000.0,"vol":"99.4"}]},"error":false}</t>
+  </si>
+  <si>
+    <t>车型画像查询</t>
+  </si>
+  <si>
+    <t>/vehicle-info/portrait/getModelPortrait</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"modelPortrait":{"model_name":"BJ7000C5E7-BEV","avg_charge_times_month":22.0,"quick_percent_month":72,"avg_start_soc":34,"avg_end_soc":76,"avg_charge_time_length":"0h54min","half_price_times":79,"city_percent":"昆明市:31_北京市:27_其他:42","cars_nu":3430,"dict_percent":"公务乘用车:72_出租乘用车:26_其他:2","active_percent":100,"avg_run_mileage_month":4812.5,"start_soc_20_less_percent":1,"holiday_percent":32,"avg_run_days_month":21.0,"avg_run_times_month":132.0,"run_100km_more_percent":8,"run_20km_less_percent":47,"workday_percent":68,"material":"三元","produce_date":"2017","cell_enterprise":"CATL","power_amount":"","veh_level":"紧凑型车","power_type":"BEV","drive_range_ev":"300","brand":"北京","power_100km":"16.4","reduce_percent":"2.33","actual_drive_range":"230","prediction_life_time":"46.21","avg_alarm_level1_2_3_nu_month":"三级:1_二级:1_一级:1","avg_bat_fault_nu_month":null,"avg_bat_fault_nu_month_num":"3","alarm_name_percent":"制动系统报警:22_SOC低报警:67","avg_alarm_nu_month":null},"modelCapacityCurveList":[{"boxKey":"BJ7000C5E7-BEV","mil":0.0,"vol":"127.8"},{"boxKey":"BJ7000C5E7-BEV","mil":5000.0,"vol":"127.5"},{"boxKey":"BJ7000C5E7-BEV","mil":10000.0,"vol":"127.2"},{"boxKey":"BJ7000C5E7-BEV","mil":15000.0,"vol":"126.9"},{"boxKey":"BJ7000C5E7-BEV","mil":20000.0,"vol":"126.6"},{"boxKey":"BJ7000C5E7-BEV","mil":25000.0,"vol":"126.3"},{"boxKey":"BJ7000C5E7-BEV","mil":30000.0,"vol":"126.0"},{"boxKey":"BJ7000C5E7-BEV","mil":35000.0,"vol":"125.7"},{"boxKey":"BJ7000C5E7-BEV","mil":40000.0,"vol":"125.4"},{"boxKey":"BJ7000C5E7-BEV","mil":45000.0,"vol":"125.0"},{"boxKey":"BJ7000C5E7-BEV","mil":50000.0,"vol":"124.7"},{"boxKey":"BJ7000C5E7-BEV","mil":55000.0,"vol":"124.4"},{"boxKey":"BJ7000C5E7-BEV","mil":60000.0,"vol":"124.1"},{"boxKey":"BJ7000C5E7-BEV","mil":65000.0,"vol":"123.8"},{"boxKey":"BJ7000C5E7-BEV","mil":70000.0,"vol":"123.5"},{"boxKey":"BJ7000C5E7-BEV","mil":75000.0,"vol":"123.2"},{"boxKey":"BJ7000C5E7-BEV","mil":80000.0,"vol":"122.9"},{"boxKey":"BJ7000C5E7-BEV","mil":85000.0,"vol":"122.6"},{"boxKey":"BJ7000C5E7-BEV","mil":90000.0,"vol":"122.3"},{"boxKey":"BJ7000C5E7-BEV","mil":95000.0,"vol":"122.0"},{"boxKey":"BJ7000C5E7-BEV","mil":100000.0,"vol":"121.7"},{"boxKey":"BJ7000C5E7-BEV","mil":105000.0,"vol":"121.4"},{"boxKey":"BJ7000C5E7-BEV","mil":110000.0,"vol":"121.1"},{"boxKey":"BJ7000C5E7-BEV","mil":115000.0,"vol":"120.7"},{"boxKey":"BJ7000C5E7-BEV","mil":120000.0,"vol":"120.4"},{"boxKey":"BJ7000C5E7-BEV","mil":125000.0,"vol":"120.1"},{"boxKey":"BJ7000C5E7-BEV","mil":130000.0,"vol":"119.8"},{"boxKey":"BJ7000C5E7-BEV","mil":135000.0,"vol":"119.5"},{"boxKey":"BJ7000C5E7-BEV","mil":140000.0,"vol":"119.2"},{"boxKey":"BJ7000C5E7-BEV","mil":145000.0,"vol":"118.9"},{"boxKey":"BJ7000C5E7-BEV","mil":150000.0,"vol":"118.6"},{"boxKey":"BJ7000C5E7-BEV","mil":155000.0,"vol":"118.3"},{"boxKey":"BJ7000C5E7-BEV","mil":160000.0,"vol":"118.0"},{"boxKey":"BJ7000C5E7-BEV","mil":165000.0,"vol":"117.7"},{"boxKey":"BJ7000C5E7-BEV","mil":170000.0,"vol":"117.4"},{"boxKey":"BJ7000C5E7-BEV","mil":175000.0,"vol":"117.1"},{"boxKey":"BJ7000C5E7-BEV","mil":180000.0,"vol":"116.8"},{"boxKey":"BJ7000C5E7-BEV","mil":185000.0,"vol":"116.4"},{"boxKey":"BJ7000C5E7-BEV","mil":190000.0,"vol":"116.1"},{"boxKey":"BJ7000C5E7-BEV","mil":195000.0,"vol":"115.8"},{"boxKey":"BJ7000C5E7-BEV","mil":200000.0,"vol":"115.5"},{"boxKey":"BJ7000C5E7-BEV","mil":205000.0,"vol":"115.2"},{"boxKey":"BJ7000C5E7-BEV","mil":210000.0,"vol":"114.9"},{"boxKey":"BJ7000C5E7-BEV","mil":215000.0,"vol":"114.6"},{"boxKey":"BJ7000C5E7-BEV","mil":220000.0,"vol":"114.3"},{"boxKey":"BJ7000C5E7-BEV","mil":225000.0,"vol":"114.0"},{"boxKey":"BJ7000C5E7-BEV","mil":230000.0,"vol":"113.7"},{"boxKey":"BJ7000C5E7-BEV","mil":235000.0,"vol":"113.4"},{"boxKey":"BJ7000C5E7-BEV","mil":240000.0,"vol":"113.1"},{"boxKey":"BJ7000C5E7-BEV","mil":245000.0,"vol":"112.8"},{"boxKey":"BJ7000C5E7-BEV","mil":250000.0,"vol":"112.5"},{"boxKey":"BJ7000C5E7-BEV","mil":255000.0,"vol":"112.1"},{"boxKey":"BJ7000C5E7-BEV","mil":260000.0,"vol":"111.8"},{"boxKey":"BJ7000C5E7-BEV","mil":265000.0,"vol":"111.5"},{"boxKey":"BJ7000C5E7-BEV","mil":270000.0,"vol":"111.2"},{"boxKey":"BJ7000C5E7-BEV","mil":275000.0,"vol":"110.9"},{"boxKey":"BJ7000C5E7-BEV","mil":280000.0,"vol":"110.6"},{"boxKey":"BJ7000C5E7-BEV","mil":285000.0,"vol":"110.3"},{"boxKey":"BJ7000C5E7-BEV","mil":290000.0,"vol":"110.0"},{"boxKey":"BJ7000C5E7-BEV","mil":295000.0,"vol":"109.7"},{"boxKey":"BJ7000C5E7-BEV","mil":300000.0,"vol":"109.4"},{"boxKey":"BJ7000C5E7-BEV","mil":305000.0,"vol":"109.1"},{"boxKey":"BJ7000C5E7-BEV","mil":310000.0,"vol":"108.8"},{"boxKey":"BJ7000C5E7-BEV","mil":315000.0,"vol":"108.5"},{"boxKey":"BJ7000C5E7-BEV","mil":320000.0,"vol":"108.2"},{"boxKey":"BJ7000C5E7-BEV","mil":325000.0,"vol":"107.8"},{"boxKey":"BJ7000C5E7-BEV","mil":330000.0,"vol":"107.5"},{"boxKey":"BJ7000C5E7-BEV","mil":335000.0,"vol":"107.2"},{"boxKey":"BJ7000C5E7-BEV","mil":340000.0,"vol":"106.9"},{"boxKey":"BJ7000C5E7-BEV","mil":345000.0,"vol":"106.6"},{"boxKey":"BJ7000C5E7-BEV","mil":350000.0,"vol":"106.3"},{"boxKey":"BJ7000C5E7-BEV","mil":355000.0,"vol":"106.0"},{"boxKey":"BJ7000C5E7-BEV","mil":360000.0,"vol":"105.7"},{"boxKey":"BJ7000C5E7-BEV","mil":365000.0,"vol":"105.4"},{"boxKey":"BJ7000C5E7-BEV","mil":370000.0,"vol":"105.1"},{"boxKey":"BJ7000C5E7-BEV","mil":375000.0,"vol":"104.8"},{"boxKey":"BJ7000C5E7-BEV","mil":380000.0,"vol":"104.5"},{"boxKey":"BJ7000C5E7-BEV","mil":385000.0,"vol":"104.2"},{"boxKey":"BJ7000C5E7-BEV","mil":390000.0,"vol":"103.9"},{"boxKey":"BJ7000C5E7-BEV","mil":395000.0,"vol":"103.5"},{"boxKey":"BJ7000C5E7-BEV","mil":400000.0,"vol":"103.2"},{"boxKey":"BJ7000C5E7-BEV","mil":405000.0,"vol":"102.9"},{"boxKey":"BJ7000C5E7-BEV","mil":410000.0,"vol":"102.6"},{"boxKey":"BJ7000C5E7-BEV","mil":415000.0,"vol":"102.3"}]},"error":false}</t>
+  </si>
+  <si>
+    <t>单车画像列表查询</t>
+  </si>
+  <si>
+    <t>/vehicle-info/portrait/list</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"brand":"北汽新能源","capital":"B"},{"brand":"东风汽车","capital":"D"},{"brand":"吉利汽车","capital":"J"},{"brand":"猎豹汽车","capital":"L"},{"brand":"腾势汽车","capital":"T"}],"error":false}</t>
+  </si>
+  <si>
+    <t>单车画像列表厂商查询</t>
+  </si>
+  <si>
+    <t>/vehicle-info/portrait/getVehicleModel</t>
+  </si>
+  <si>
+    <t>?brand=%E5%8C%97%E6%B1%BD%E6%96%B0%E8%83%BD%E6%BA%90</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"commonName":"EU260"}],"error":false}</t>
+  </si>
+  <si>
+    <t>单车画像列表厂商车型查询</t>
+  </si>
+  <si>
+    <t>/vehicle-info/portrait/getLicensePlate</t>
+  </si>
+  <si>
+    <t>?commonName=EU260</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"licensePlate":"京BZ8342","vin":"LNBSCC3H4HF327175","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZC078","vin":"LNBSCC3H3HF328981","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"贵BU2969","vin":"LNBSCC3HXHF328878","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"贵BU2980","vin":"LNBSCC3H8HF329009","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZ8256","vin":"LNBSCC3HXHF327066","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"贵BU2929","vin":"LNBSCC3H6HF328974","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZC001","vin":"LNBSCC3H6HF329008","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZ8437","vin":"LNBSCC3H0HF327190","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"贵BU2916","vin":"LNBSCC3H5HF328898","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZ8418","vin":"LNBSCC3H6HF327050","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"闽DD16056","vin":"LNBSCC3H6JF332593","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZD938","vin":"LNBSCC3H0HF329036","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZ8366","vin":"LNBSCC3H9HF327107","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZK575","vin":"LNBSCC3H1HF328932","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"贵BU2222","vin":"LNBSCC3HXHF328900","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZ8393","vin":"LNBSCC3H9HF327141","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"京BZ8364","vin":"LNBSCC3H2HF327188","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"闽DD11973","vin":"LNBSCC3HXJF333410","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"闽DD16726","vin":"LNBSCC3H4JF332642","vehModelName":"BJ7000C5E7-BEV"},{"licensePlate":"闽DD05883","vin":"LNBSCC3H5JF332276","vehModelName":"BJ7000C5E7-BEV"}],"error":false}</t>
+  </si>
+  <si>
+    <t>数据集按名称查询</t>
+  </si>
+  <si>
+    <t>/ras/dataset</t>
+  </si>
+  <si>
+    <t>?datasourcetype=&amp;datasourceid=&amp;datasetname=stat_alarm_18_01&amp;orderby=UPDATE_TIME%20DESC&amp;pageSize=10&amp;pageNum=1</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"dataSetID":"DATASETd9c69ed37ddb434bb63fd6bb9a21cb35","dataSetName":"stat_alarm_18_01","dataSourceList":[{"dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceType":"mysql","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_18_01"],"createdBy":"zhanghailong@bitnei.cn","createdTime":"2019-10-09 11:09:56","updatedTime":"2019-12-04 10:42:54","cardNum":10,"action":"write","starSchemas":[],"fhCube":{"datasourceId":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","schema":{"catalog":"yiqi","name":"stat_alarm_18_01","fields":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"v"},"sorted":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":""},"sorted":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"省份"},"sorted":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"市"},"sorted":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"km"},"sorted":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"Km/h"},"sorted":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"KW"},"sorted":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"KwH"},"sorted":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"V"},"sorted":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"Ah"},"sorted":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"小时"},"sorted":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"月"},"sorted":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"km/h"},"sorted":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"kg"},"sorted":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"month","fieldAlias":"month","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":{"unit":"总数"},"sorted":{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":null,"sorted":null,"policy":"ASC"}}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}],"pageNum":1,"pageSize":10,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+  </si>
+  <si>
+    <t>数据源按名称查询</t>
+  </si>
+  <si>
+    <t>/ras/datasource</t>
+  </si>
+  <si>
+    <t>?datasourcename=yiqi%E6%8A%A5%E8%A1%A8&amp;pageNum=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"id":"DATASOURCEf7286c2422e9413890e7cf41fe130def","name":"yiqi报表","dataSourceType":"mysql","databaseName":"yiqi","createBy":"yaomeng@bitnei.cn","databasePort":"3306","hostname":"10.10.21.67","username":"analysis","password":"analysis","dataSets":[{"dataSetId":"DATASETe2062694afdc4e9d88dcc0758e0a0c7c","dataSetName":"stat_alarm_4_04"},{"dataSetId":"DATASET89dfea946f8b495cbd6269bcfacc5596","dataSetName":"stat_alarm_4_11"},{"dataSetId":"DATASET5b98f2c5723845389fa976199bbf5c80","dataSetName":"stat_alarm_4_06"},{"dataSetId":"DATASET3b5ff25b6f24439a84db276bacfdadca","dataSetName":"stat_alarm_4_09"},{"dataSetId":"DATASET1e0f9452db064f15a4bfee525b998c66","dataSetName":"yiqistat_alarm_18_04"},{"dataSetId":"DATASET13be67c2705f4df9b251e9c2588dcf6b","dataSetName":"yiqistat_alarm_18_02"},{"dataSetId":"DATASET1e17a68e0c294ad196ccfecfac6e4613","dataSetName":"yiqistat_alarm_0_02"},{"dataSetId":"DATASET80ac6aaa43fd40f8ade7827dd7e41192","dataSetName":"yiqistat_alarm_0_01"},{"dataSetId":"DATASET2f5ed5c245cf455e941988fdcfb822ba","dataSetName":"yiqistat_alarm_0_09"},{"dataSetId":"DATASET29855c2063684157935dcc4c0e7db236","dataSetName":"yiqistat_alarm_0_05"},{"dataSetId":"DATASET1b0015d59f5d4428bb32debdab8185d0","dataSetName":"yiqistat_alarm_18_03"},{"dataSetId":"DATASET318a9e06ca6e4cb5aab1b51a02c13f81","dataSetName":"yiqistat_alarm_18_11"},{"dataSetId":"DATASETa073e247ac6340ae9c195d1d9875a397","dataSetName":"yiqistat_alarm_0_11"},{"dataSetId":"DATASET9e6b9c45e0ba488d854846461def889b","dataSetName":"stat_alarm_4_03"},{"dataSetId":"DATASET0cc60773b226497389a014add4bfe405","dataSetName":"yiqistat_alarm_0_07"},{"dataSetId":"DATASET3952559d758d4ef29420568b0e46af69","dataSetName":"yiqistat_alarm_18_05"},{"dataSetId":"DATASET909226085d064645870dbbc0f15bb76c","dataSetName":"yiqistat_alarm_0_08"},{"dataSetId":"DATASET8ec6fca34a1a4e58b4cc3a3a0792e767","dataSetName":"yiqistat_alarm_0_06"},{"dataSetId":"DATASET599214dc7a9e4253aeaf3aa93e0813b4","dataSetName":"yiqistat_alarm_18_10"},{"dataSetId":"DATASETaef6cb52f2d940689baf9573427d4abb","dataSetName":"stat_alarm_code_charge"},{"dataSetId":"DATASET7517b7cd256e460b8ee5a686747e26e3","dataSetName":"yiqistat_alarm_18_07"},{"dataSetId":"DATASETdd968e8cc46748ba9a221705e408d1f2","dataSetName":"stat_alarm_4_05"},{"dataSetId":"DATASETd96fa16744fd4c76880282b68f7e41dd","dataSetName":"stat_alarm_4_08"},{"dataSetId":"DATASET5f584a8c06ee4d10a595b1a125121e87","dataSetName":"stat_alarm_4_10"},{"dataSetId":"DATASET69cb1f1acb6d40ffae59ae82e4c8eec4","dataSetName":"yiqistat_alarm_0_03"},{"dataSetId":"DATASETae15cb05d9694bd48b519093fc2b7faf","dataSetName":"yiqistat_alarm_18_08"},{"dataSetId":"DATASETbb04be831df648719506fb510ad833dc","dataSetName":"yiqistat_alarm_0_04"},{"dataSetId":"DATASET55a03710ee6b469f9c0cfc38c0ef5af3","dataSetName":"stat_alarm_4_07"},{"dataSetId":"DATASET8aa19d1cdc1c4b78955e61ddeccd1a48","dataSetName":"yiqistat_alarm_18_06"},{"dataSetId":"DATASETa5cc1a4f749348bd9b4f78b5f0b12d64","dataSetName":"stat_alarm_4_02"}],"updateTime":"2019-10-12 11:57:49","createTime":"2019-10-12 11:57:49","action":"write"}],"pageNum":1,"pageSize":1,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+  </si>
+  <si>
+    <t>仪表盘按名称查询</t>
+  </si>
+  <si>
+    <t>/ras/dashboard/abstract</t>
+  </si>
+  <si>
+    <t>?dashboardname=1128%E4%BB%AA%E8%A1%A8%E7%9B%98%E7%AD%9B%E9%80%89&amp;pageNum=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"dashboardID":"DASHBOARDbb3bb62d36af45119e881d1622829e4d","dashboardName":"1128仪表盘筛选","updateTime":"2019-12-13 10:18:38","createTime":"2019-11-22 11:02:55","createBy":"zhanghailong@bitnei.cn","action":"WRITE","type":"FH","pages":1}],"pageNum":1,"pageSize":10,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+  </si>
+  <si>
+    <t>报表按名称查询</t>
+  </si>
+  <si>
+    <t>/ras/card</t>
+  </si>
+  <si>
+    <t>?dataSetId=&amp;pageNum=1&amp;pageSize=10&amp;querytype=&amp;cardName=test1210%E7%94%B5%E6%B1%A0%E7%B1%BB%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"cardId":"CARDead55b5a8c3a4348939e11203aba8f00","dataSetId":"DATASET03a52a045c674530867164a4ecb06f1d","cardName":"test1210电池类型","displayName":null,"avatarUrl":null,"action":"write","description":"","renderMode":"bar","dataBrief":[],"queryType":"FH","updateTime":"2019-12-10 13:28:18","createTime":"2019-12-10 11:56:45","createBy":"zhanghailong@bitnei.cn","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":{"unit":"all"},"sorted":{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":null,"sorted":null,"policy":"ASC"},"measureAlias":"total","aggs":"SUM"}],"dimensions":[{"fieldName":"battery_type","fieldAlias":"电池类型","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"电池"},"sorted":{"fieldName":"battery_type_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"dimensionAlias":"电池类型"}],"filters":[{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"月"},"sorted":{"fieldName":"active_time_month_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"active_time_month","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"battery_type","fieldAlias":"电池类型","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"电池"},"sorted":{"fieldName":"battery_type_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"电池类型","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"ca"},"sorted":null,"filterAlias":"category","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"CELL"},"sorted":null,"filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"电池类型"},"sorted":null,"filterAlias":"charge_type","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"城市"},"sorted":null,"filterAlias":"city","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"kg"},"sorted":{"fieldName":"curb_weight_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"curb_weight","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"日期类型"},"sorted":null,"filterAlias":"day_type","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"dict"},"sorted":null,"filterAlias":"dict_name","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"dr"},"sorted":{"fieldName":"drive_range_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"drive_range","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"is_biz","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"km"},"sorted":{"fieldName":"mileage_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"mileage","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"m"},"sorted":null,"filterAlias":"model_name","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"month","fieldAlias":"month","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"月份"},"sorted":null,"filterAlias":"month","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"package_enterprise","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"KW"},"sorted":{"fieldName":"power_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"power","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"power_100km","fieldAlias":"power_100km","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"KwH"},"sorted":{"fieldName":"power_100km_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"power_100km","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"KwH"},"sorted":{"fieldName":"power_amount_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"power_amount","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"省份"},"sorted":null,"filterAlias":"province","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"V"},"sorted":{"fieldName":"rating_volt_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"rating_volt","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"Ah"},"sorted":{"fieldName":"rating_volumn_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"rating_volumn","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"小时"},"sorted":{"fieldName":"run_time_hour_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"run_time_hour","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"季节"},"sorted":{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"policy":"DESC"},"filterAlias":"season","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"Km/h"},"sorted":{"fieldName":"speed_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"speed","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"km/h"},"sorted":{"fieldName":"speed_30_minute_index","fieldAlias":"Num","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"speed_30_minute","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"ve"},"sorted":null,"filterAlias":"veh_level","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"v类型"},"sorted":null,"filterAlias":"veh_type","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"speed_index","fieldAlias":"speed_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"speed_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"speed_30_minute_index","fieldAlias":"speed_30_minute_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"speed_30_minute_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"run_time_hour_index","fieldAlias":"run_time_hour_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"run_time_hour_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"rating_volumn_index","fieldAlias":"rating_volumn_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"rating_volumn_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"rating_volt_index","fieldAlias":"rating_volt_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"rating_volt_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"power_index","fieldAlias":"power_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"power_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"power_amount_index","fieldAlias":"power_amount_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"power_amount_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"power_100km_index","fieldAlias":"power_100km_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"power_100km_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"mileage_index","fieldAlias":"mileage_index","fieldType":"Num","fieldNativeType":"INT","props":{"unit":"m_d"},"sorted":null,"filterAlias":"mileage_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"drive_range_index","fieldAlias":"drive_range_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"drive_range_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"curb_weight_index","fieldAlias":"curb_weight_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"curb_weight_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"battery_type_index","fieldAlias":"battery_type_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"battery_type_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"active_time_month_index","fieldAlias":"active_time_month_index","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"active_time_month_index","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":{"unit":"all"},"sorted":{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"total","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"env_temp","fieldAlias":"env_temp","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":{"fieldName":"env_temp","fieldAlias":"env_temp","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"policy":"ASC"},"filterAlias":"env_temp","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldType":"Num","fieldNativeType":"INT","props":{"unit":"级别"},"sorted":null,"filterAlias":"报警等级","defValue":null,"operator":null,"policy":null,"cascadeFilter":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":0,"yRotate":0,"unitX":"","unitY":"","titleY":"","labelRotate":0,"align":"","verticalAlign":"","position":"","distance":0,"maxZoom":0},"default":{"unitX":"电池","unitY":"all"}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"converse":false,"converseModel":{"measures":[],"rows":[],"columns":[]},"cardName":null,"limit":1000,"export":false,"calRate":false,"datasetId":"DATASET03a52a045c674530867164a4ecb06f1d","datasourceId":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","catalog":"yiqi","schema":"stat_alarm_0_02","distinct":false,"calAggregate":false}}],"pageNum":1,"pageSize":1,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+  </si>
+  <si>
+    <t>新增数据集页面跳转</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"total":10,"list":[{"id":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","name":"yiqi","dataSourceType":"mysql","databaseName":"yiqi","createBy":"hangang@bitnei.cn","databasePort":"3306","hostname":"10.10.21.67","username":"analysis","password":"analysis","dataSets":[{"dataSetId":"DATASETf619a97a4c6844ef8554cda6aae2fe11","dataSetName":"1114"},{"dataSetId":"DATASETbfc2a1ded81a4f0c89b3442a07490ed3","dataSetName":"afdsaf"},{"dataSetId":"DATASET10e4ab9872fb42b6bfcfc0cd4ae49fb0","dataSetName":"111"},{"dataSetId":"DATASETf67b2d2ecb8e446ba53ae19b7dc1f2b5","dataSetName":"stat_alarm_1_08"},{"dataSetId":"DATASET139fd1584be44e0ebf679585069645a2","dataSetName":"stat_alarm_3_01"},{"dataSetId":"DATASETd9c69ed37ddb434bb63fd6bb9a21cb35","dataSetName":"stat_alarm_18_01"},{"dataSetId":"DATASET4894994cc6fe4b68a2ae4094115a6890","dataSetName":"hg004"},{"dataSetId":"DATASETb35bdce7238f4fddb338302ff7c50285","dataSetName":"stat_alarm_1_01"},{"dataSetId":"DATASETbf221f10b1d646e3bc6337dbf2edbde1","dataSetName":"1012t"},{"dataSetId":"DATASETe1067bf6b212495ab1edb14f27d99887","dataSetName":"stat_alarm_1_03"},{"dataSetId":"DATASET723fae6f8d454691837542032c963f36","dataSetName":"tat_alarm_4_02"},{"dataSetId":"DATASET48490ca482bc4051a5772d5df3679758","dataSetName":"stat_alarm_1_07"},{"dataSetId":"DATASETb5e4948c95164daaa065374068adb90f","dataSetName":"一汽数据集"},{"dataSetId":"DATASET287779cdc48d4282ae6aa3e59fd06fda","dataSetName":"test_123_dataset"},{"dataSetId":"DATASET371f868dcd0547a0b9544b9c35d61110","dataSetName":"stat_alarm_0_08"},{"dataSetId":"DATASETadcc11335bb84a71a5706ad6064e6ebf","dataSetName":"hgstat_alarm_0_01"},{"dataSetId":"DATASET122e60954740482aa1dc50df794156b1","dataSetName":"tat_alarm_4_05"},{"dataSetId":"DATASETcdf7338c185244b3a840afa285c5fa53","dataSetName":"11088"},{"dataSetId":"DATASET066a73a5d6f746d19a3d1e5b066f0250","dataSetName":"stat_alarm_0_05"},{"dataSetId":"DATASET047711c77a3340d085bba9b429fd1b4e","dataSetName":"总体报警级别分布"},{"dataSetId":"DATASET8e1602e2de7547268751e3e352a30239","dataSetName":"stat_alarm_0_11"},{"dataSetId":"DATASET9dd5ecb5da124f8ea5258464ce3ff897","dataSetName":"stat_alarm_0_04"},{"dataSetId":"DATASET07a36fcf18c048e1ab20b1408f0e2b69","dataSetName":"tat_alarm_4_10"},{"dataSetId":"DATASET6747d574ad8c4dd7a467b4070f5c5960","dataSetName":"stat_alarm_0_09"},{"dataSetId":"DATASET1853456a18524b4fbe99cd3899307074","dataSetName":"stat_alarm_0_01"},{"dataSetId":"DATASET47c8414ecb7c4b3b8158d3bbd7d133fe","dataSetName":"test1108"},{"dataSetId":"DATASETb04c055b3ff64fb2849511c2db9a17a2","dataSetName":"数据集ypp"},{"dataSetId":"DATASET53997b548e1a4a009251819ded9ac124","dataSetName":"test23"},{"dataSetId":"DATASET2e7eba32c07a47449478f104fadf71ed","dataSetName":"stat_alarm_1_10"},{"dataSetId":"DATASET2cdb1755ee5c41efb870499d3e61011d","dataSetName":"0929"},{"dataSetId":"DATASETcafe2d309c9643f4a0a5dc963483b9e5","dataSetName":"stat_alarm_1_05"},{"dataSetId":"DATASET0823adc34c164272a884fe57d67d22e7","dataSetName":"stat_alarm_battery_power"},{"dataSetId":"DATASETcb5ba7069db14224810e92675a099c0a","dataSetName":"11111111347"},{"dataSetId":"DATASET926b64610d2f4ade9aebc83051818b7d","dataSetName":"3千万"},{"dataSetId":"DATASET14bf5b7b30604f5d98e5c1e5715b08bb","dataSetName":"1210test"},{"dataSetId":"DATASETdd9d363975324d50b816244ecc1c00b3","dataSetName":"stat_alarm_2_01"},{"dataSetId":"DATASET68f1a108f04f42859b06c9a64163542f","dataSetName":"stat_alarm_0_061"},{"dataSetId":"DATASET0077e2efd2684bad8f8692ccdd3ebc5c","dataSetName":"10_03"},{"dataSetId":"DATASET0a04215dd05d4fcba41944141dcf90be","dataSetName":"stat_alarm_1_09"},{"dataSetId":"DATASET00ec5c34bb3048edb4fb06d575166b62","dataSetName":"测试_性能"},{"dataSetId":"DATASETf2f288d68aba4c37bec9ac62ef73f44a","dataSetName":"1011测试"},{"dataSetId":"DATASETb054c04f07e34842ad240ec553c2f64e","dataSetName":"stat_alarm_1_02"},{"dataSetId":"DATASET5e4d84b814f548aea83d943715b42468","dataSetName":"37911"},{"dataSetId":"DATASET29e66b9191bb4a1da94f7be790a163f5","dataSetName":"tat_alarm_4_09"},{"dataSetId":"DATASET29dab496c4214393969b32f146c731a5","dataSetName":"hg401"},{"dataSetId":"DATASET7a75eba21dc447a38932363209a50f84","dataSetName":"108数据集"},{"dataSetId":"DATASETe32d1c3b3dd84d668f4809c45f7147ab","dataSetName":"tat_alarm_4_11"},{"dataSetId":"DATASET3a2c50ed8fcd465daba35967cb850742","dataSetName":"stat_alarm_1_04"},{"dataSetId":"DATASET986cc59fbec946d2a16c17dc9a09807d","dataSetName":"tat_alarm_4_08"},{"dataSetId":"DATASETc1aa8dea87a74542bac93b86be0b22ad","dataSetName":"stat_alarm_1_11"},{"dataSetId":"DATASET667c5d05fbc84f13ad34c5ccfb30f08b","dataSetName":"大量数据性能"},{"dataSetId":"DATASET022e8b005315466aadc6c19e6d134187","dataSetName":"tat_alarm_4_01"},{"dataSetId":"DATASETb7236c943d9b45ffbfe558361e5e8696","dataSetName":"t-1106-t"},{"dataSetId":"DATASET5aedbca678ac49e891462e5abf11d05d","dataSetName":"tat_alarm_4_06"},{"dataSetId":"DATASETf4e88430837b47d3abad8fe5222ae8bb","dataSetName":"test1206003"},{"dataSetId":"DATASET56e00884da3e447e858f10c82dfea30a","dataSetName":"数据集模型单位"},{"dataSetId":"DATASETfd5bc11ec9e442ae894135376c0a7536","dataSetName":"tat_alarm_4_07"},{"dataSetId":"DATASET3990cde974ed4b8caaadf31b89a374b8","dataSetName":"tat_alarm_4_04"},{"dataSetId":"DATASETbe09dbfc62b84820bd40e4bc7c3ddc2c","dataSetName":"stat_alarm_0_10"},{"dataSetId":"DATASETa8beb0bc8cfb45c5a10a54241dbbd5f7","dataSetName":"yiqi_test_0925"},{"dataSetId":"DATASET03a52a045c674530867164a4ecb06f1d","dataSetName":"stat_alarm_0_02"}],"updateTime":"2019-10-31 16:35:09","createTime":"2019-09-23 17:48:53","action":"write"},{"id":"DATASOURCE48933d543e4943bbbf7fec0f922ebfa9","name":"yiqi_self_test","dataSourceType":"mysql","databaseName":"bit_test_liu","createBy":"liutianao@bitnei.cn","databasePort":"3306","hostname":"10.10.26.29","username":"liutianao","password":"liutianao","dataSets":[{"dataSetId":"DATASET21c22bfd99c04bcdba89075e583d34d4","dataSetName":"yiqi_self_test"}],"updateTime":"2019-09-25 10:12:17","createTime":"2019-09-25 10:12:18","action":"write"},{"id":"DATASOURCE4ecf322f6fbb4d07bcc56e8768dbca7f","name":"test1","dataSourceType":"mysql","databaseName":"bi","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.8","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASET0e812c0c5fcf4b8a9a119f099808220d","dataSetName":"1234"},{"dataSetId":"DATASETec13c5c19ac34363b8d911f161417321","dataSetName":"少时诵诗书1"},{"dataSetId":"DATASET2b6e4bda219c49bfa09e0c2101cdb0ed","dataSetName":"dataset_1112"}],"updateTime":"2019-09-23 10:50:05","createTime":"2019-09-23 10:50:06","action":"write"},{"id":"DATASOURCE5094f85a4d6e433387acab4182e1466a","name":"test_postgre","dataSourceType":"postgreSQL","databaseName":"test","createBy":"zhanghailong@bitnei.cn","databasePort":"5432","hostname":"10.10.21.8","username":"postgres","password":"bianqi123456","dataSets":[{"dataSetId":"DATASETe0eaa0dcc91744b7a9ba3b779a26061b","dataSetName":"test_postgresql"}],"updateTime":"2019-12-13 10:38:46","createTime":"2019-12-13 09:36:21","action":"write"},{"id":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","name":"1万条数据","dataSourceType":"mysql","databaseName":"bit_test_liu","createBy":"liutianao@bitnei.cn","databasePort":"3306","hostname":"10.10.26.29","username":"liutianao","password":"liutianao","dataSets":[{"dataSetId":"DATASET037982d9ef7a43e697a520b898d46330","dataSetName":"yiqibigbigbig_copy36"},{"dataSetId":"DATASETfaf2ca207c174aeb91480a3aac3b09b7","dataSetName":"yiqibigbigbig_copy39"},{"dataSetId":"DATASETefd3d6f6639e466f81aedcad7f2eceb7","dataSetName":"yiqibigbigbig_copy40"},{"dataSetId":"DATASETfdf00aa7698848948c98dec59ad5dfe9","dataSetName":"yiqibigbigbig_copy35"},{"dataSetId":"DATASET7306a6afbee944f3bb64582afd159d49","dataSetName":"yiqibigbigbig_copy03"},{"dataSetId":"DATASET61261637423048b0a3b10fa1b58f0548","dataSetName":"yiqibigbigbig_copy06"},{"dataSetId":"DATASET338eba2e400049feaafd013154e6fce2","dataSetName":"40万1"},{"dataSetId":"DATASET127f354eedf84dd6979efce58bfe32ee","dataSetName":"yiqibigbigbig_copy25"},{"dataSetId":"DATASETac6b06d0d83b453d88954f3c104daf53","dataSetName":"yiqibigbigbig_copy32"},{"dataSetId":"DATASETbe8fcfdb7c6841cb96a8521eb80813ff","dataSetName":"yiqibigbigbig_copy27"},{"dataSetId":"DATASET987bfe08eded42cc98a8a5680bdbd0f4","dataSetName":"yiqibigbigbig_copy18"},{"dataSetId":"DATASETc2524433f2b04920a4d9d3aa244d196c","dataSetName":"yiqibigbigbig_copy37"},{"dataSetId":"DATASET9b074a58d79e4720a86a2c3ef19639f0","dataSetName":"yiqibigbigbig_copy07"},{"dataSetId":"DATASETc6e4cada283f4856bae0f8a13857cd04","dataSetName":"yiqibigbigbig_copy10"},{"dataSetId":"DATASET680e1c719a974228ad2ec1e22d846015","dataSetName":"yiqibigbigbig_copy04"},{"dataSetId":"DATASETa6fbdd081d6c40a894a41398965665b5","dataSetName":"yiqibigbigbig_copy33"},{"dataSetId":"DATASETfbd6e750857c4230a27ac3cf4faa7abe","dataSetName":"yiqibigbigbig_copy26"},{"dataSetId":"DATASET22d3bc91c86f4d30ac021d6c322007a0","dataSetName":"yiqibigbigbig_copy31"},{"dataSetId":"DATASET957703dde5c0439ba7c82fd608f70d93","dataSetName":"yiqibigbigbig_copy23"},{"dataSetId":"DATASETa9ac065871d94322b0d6fa4f40f4f4d3","dataSetName":"yiqibigbigbig_copy08"},{"dataSetId":"DATASETe1d563a3916a4694a515af792957c9f2","dataSetName":"yiqibigbigbig_copy05"},{"dataSetId":"DATASET3c9cdbe056934910aee32c68481fddb6","dataSetName":"yiqibigbigbig_copy21"},{"dataSetId":"DATASET05fb0fd2849f40f8a1edece97acca459","dataSetName":"40w2"},{"dataSetId":"DATASET185d4549698d4cf0aca6ec581fee68f7","dataSetName":"yiqibigbigbig_copy54"},{"dataSetId":"DATASET7e496a58812f4c899c04b074b3be6be2","dataSetName":"yiqibigbigbig_copy53"},{"dataSetId":"DATASETc4bb820ed5cb4f40a6f2c808f598c8a1","dataSetName":"yiqibigbigbig_copy41"},{"dataSetId":"DATASET92ca0e35278742fc9a82926f0c5f0752","dataSetName":"yiqibigbigbig_copy02"},{"dataSetId":"DATASETf64a3209847347538a78bd4978d0b5ea","dataSetName":"100万数据集"},{"dataSetId":"DATASET8885e0f755d545d9ac18ff914c1fd48d","dataSetName":"yiqibigbigbig_copy30"},{"dataSetId":"DATASET67b9353ddac04d708e36655173e932ee","dataSetName":"yiqibigbigbig_copy38"},{"dataSetId":"DATASET351ace10e2f74b16aa2603875a0ec6c2","dataSetName":"yiqibigbigbig_copy45"},{"dataSetId":"DATASET54bc8199be1b4179822bdb84a27b813f","dataSetName":"yiqibigbigbig_copy15"},{"dataSetId":"DATASET95833bfab804455fafd634b5c4d9afa6","dataSetName":"yiqibigbigbig_copy17"},{"dataSetId":"DATASETfd8873c56a8f455795b810819a0d5b2a","dataSetName":"yiqibigbigbig_copy50"},{"dataSetId":"DATASETddc47467fcad45d9bda1394ceaab0557","dataSetName":"yiqibigbigbig_copy14"},{"dataSetId":"DATASETee248d39eb0d46cdaa2684ad0932bdf6","dataSetName":"yiqibigbigbig_copy20"},{"dataSetId":"DATASETf51baf0272304e159db1dd0260ccbd6e","dataSetName":"yiqibigbigbig_copy13"},{"dataSetId":"DATASET8a121a9e5d7742c8bf3f283d60e79f51","dataSetName":"yiqibigbigbig_copy12"},{"dataSetId":"DATASET697290961a364dbb91a6f8f34969d530","dataSetName":"yiqibigbigbig_copy34"},{"dataSetId":"DATASETc899cab7f4124d1ba18f74833a57b6b5","dataSetName":"yiqibigbigbig_copy52"},{"dataSetId":"DATASET274e2674b4ee4a91b970c5c761d21fc6","dataSetName":"yiqibigbigbig_copy29"},{"dataSetId":"DATASETf20354cc08a341e3815809265ac70890","dataSetName":"yiqibigbigbig_copy42"},{"dataSetId":"DATASETb52700f9d75f479dafe480b138650634","dataSetName":"yiqibigbigbig_copy43"},{"dataSetId":"DATASET9fc71a51d6ba4f5cabc245916b5f647e","dataSetName":"yiqibigbigbig_copy24"},{"dataSetId":"DATASETde02e192f48a4bff94c7ea38d814b265","dataSetName":"yiqibigbigbig_copy51"},{"dataSetId":"DATASETd2b443f070474e13ab085e328fbf8312","dataSetName":"yiqibigbigbig_copy28"},{"dataSetId":"DATASETc4695fa2ff164c8a9afdaeb2861aa9e1","dataSetName":"yiqibigbigbig_copy11"},{"dataSetId":"DATASET35bdddc292264152a8849fd1b59351ef","dataSetName":"yiqibigbigbig_copy16"},{"dataSetId":"DATASET0e8edd8a867e4f9d8a2d2e357f4266a2","dataSetName":"yiqibigbigbig_copy44"},{"dataSetId":"DATASET5e0ee03579a644d9810a4973446c2cf8","dataSetName":"yiqibigbigbig_copy19"},{"dataSetId":"DATASETa713eb64b30c47d2bc9db8667d116ee7","dataSetName":"yiqibigbigbig_copy09"},{"dataSetId":"DATASET21520ad4f39d4114ae64475e9aa3a067","dataSetName":"yiqibigbigbig_copy22"},{"dataSetId":"DATASET8e97cad2e45a4f8fb923f6e904755201","dataSetName":"yiqibigbigbig_copy01"},{"dataSetId":"DATASET3e5b1a59d3d843dc9c8093b72d181ef1","dataSetName":"这张表里目前有40万条数据"}],"updateTime":"2019-10-12 11:23:59","createTime":"2019-10-12 11:24:00","action":"write"},{"id":"DATASOURCEcac770f3d20546baa64370069139ab82","name":"heatmap","dataSourceType":"mysql","databaseName":"analysis","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.67","username":"analysis","password":"analysis","dataSets":[{"dataSetId":"DATASET620212e4b63441a2b9887bee2b585a9c","dataSetName":"热力图"}],"updateTime":"2019-09-18 13:50:46","createTime":"2019-09-18 13:50:46","action":"write"},{"id":"DATASOURCEe2670211678541f5ace007fe088e9c8b","name":"impala_test","dataSourceType":"impala","databaseName":"nei_dws","createBy":"zhanghailong@bitnei.cn","databasePort":"21050","hostname":"10.10.21.18","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASETd6f9afa52dba41489a86e1b1b0b75b7a","dataSetName":"split_fact_table"}],"updateTime":"2019-09-10 09:14:38","createTime":"2019-09-10 09:14:38","action":"write"},{"id":"DATASOURCEf3dfedf07fd5462e99f455c41bb98607","name":"test","dataSourceType":"mysql","databaseName":"changan","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.8","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASETc83dd1c55b034643ada6afe1a365b802","dataSetName":"test1"},{"dataSetId":"DATASET60410d882e1c4a18b12cf8e218427982","dataSetName":"数据集测试"},{"dataSetId":"DATASETcbfc4f2202cc440db79ad1439d9142bc","dataSetName":"123456"}],"updateTime":"2019-09-11 09:27:57","createTime":"2019-09-11 09:27:58","action":"write"},{"id":"DATASOURCEf55124074107475aa365bb378eb697a8","name":"123","dataSourceType":"mysql","databaseName":"bi_test","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.8","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASET1f798639cc3842f394df6605e471218f","dataSetName":"test12"},{"dataSetId":"DATASET55cd868c8a3242019586ddccb8bd19d1","dataSetName":"test123"},{"dataSetId":"DATASET808fea24acb845c9a406553f30404216","dataSetName":"123"}],"updateTime":"2019-09-06 14:15:39","createTime":"2019-09-06 14:15:40","action":"write"},{"id":"DATASOURCEf7286c2422e9413890e7cf41fe130def","name":"yiqi报表","dataSourceType":"mysql","databaseName":"yiqi","createBy":"yaomeng@bitnei.cn","databasePort":"3306","hostname":"10.10.21.67","username":"analysis","password":"analysis","dataSets":[{"dataSetId":"DATASETe2062694afdc4e9d88dcc0758e0a0c7c","dataSetName":"stat_alarm_4_04"},{"dataSetId":"DATASET89dfea946f8b495cbd6269bcfacc5596","dataSetName":"stat_alarm_4_11"},{"dataSetId":"DATASET5b98f2c5723845389fa976199bbf5c80","dataSetName":"stat_alarm_4_06"},{"dataSetId":"DATASET3b5ff25b6f24439a84db276bacfdadca","dataSetName":"stat_alarm_4_09"},{"dataSetId":"DATASET1e0f9452db064f15a4bfee525b998c66","dataSetName":"yiqistat_alarm_18_04"},{"dataSetId":"DATASET13be67c2705f4df9b251e9c2588dcf6b","dataSetName":"yiqistat_alarm_18_02"},{"dataSetId":"DATASET1e17a68e0c294ad196ccfecfac6e4613","dataSetName":"yiqistat_alarm_0_02"},{"dataSetId":"DATASET80ac6aaa43fd40f8ade7827dd7e41192","dataSetName":"yiqistat_alarm_0_01"},{"dataSetId":"DATASET2f5ed5c245cf455e941988fdcfb822ba","dataSetName":"yiqistat_alarm_0_09"},{"dataSetId":"DATASET29855c2063684157935dcc4c0e7db236","dataSetName":"yiqistat_alarm_0_05"},{"dataSetId":"DATASET1b0015d59f5d4428bb32debdab8185d0","dataSetName":"yiqistat_alarm_18_03"},{"dataSetId":"DATASET318a9e06ca6e4cb5aab1b51a02c13f81","dataSetName":"yiqistat_alarm_18_11"},{"dataSetId":"DATASETa073e247ac6340ae9c195d1d9875a397","dataSetName":"yiqistat_alarm_0_11"},{"dataSetId":"DATASET9e6b9c45e0ba488d854846461def889b","dataSetName":"stat_alarm_4_03"},{"dataSetId":"DATASET0cc60773b226497389a014add4bfe405","dataSetName":"yiqistat_alarm_0_07"},{"dataSetId":"DATASET3952559d758d4ef29420568b0e46af69","dataSetName":"yiqistat_alarm_18_05"},{"dataSetId":"DATASET909226085d064645870dbbc0f15bb76c","dataSetName":"yiqistat_alarm_0_08"},{"dataSetId":"DATASET8ec6fca34a1a4e58b4cc3a3a0792e767","dataSetName":"yiqistat_alarm_0_06"},{"dataSetId":"DATASET599214dc7a9e4253aeaf3aa93e0813b4","dataSetName":"yiqistat_alarm_18_10"},{"dataSetId":"DATASETaef6cb52f2d940689baf9573427d4abb","dataSetName":"stat_alarm_code_charge"},{"dataSetId":"DATASET7517b7cd256e460b8ee5a686747e26e3","dataSetName":"yiqistat_alarm_18_07"},{"dataSetId":"DATASETdd968e8cc46748ba9a221705e408d1f2","dataSetName":"stat_alarm_4_05"},{"dataSetId":"DATASETd96fa16744fd4c76880282b68f7e41dd","dataSetName":"stat_alarm_4_08"},{"dataSetId":"DATASET5f584a8c06ee4d10a595b1a125121e87","dataSetName":"stat_alarm_4_10"},{"dataSetId":"DATASET69cb1f1acb6d40ffae59ae82e4c8eec4","dataSetName":"yiqistat_alarm_0_03"},{"dataSetId":"DATASETae15cb05d9694bd48b519093fc2b7faf","dataSetName":"yiqistat_alarm_18_08"},{"dataSetId":"DATASETbb04be831df648719506fb510ad833dc","dataSetName":"yiqistat_alarm_0_04"},{"dataSetId":"DATASET55a03710ee6b469f9c0cfc38c0ef5af3","dataSetName":"stat_alarm_4_07"},{"dataSetId":"DATASET8aa19d1cdc1c4b78955e61ddeccd1a48","dataSetName":"yiqistat_alarm_18_06"},{"dataSetId":"DATASETa5cc1a4f749348bd9b4f78b5f0b12d64","dataSetName":"stat_alarm_4_02"}],"updateTime":"2019-10-12 11:57:49","createTime":"2019-10-12 11:57:49","action":"write"}],"pageNum":1,"pageSize":10,"size":10,"startRow":0,"endRow":9,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+  </si>
+  <si>
+    <t>新增报表获取仪表盘名称</t>
+  </si>
+  <si>
+    <t>/ras/dashboard/names</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"error":false}</t>
+  </si>
+  <si>
+    <t>新增报表获取数据集</t>
+  </si>
+  <si>
+    <t>/ras/dataset/abstract</t>
+  </si>
+  <si>
     <t>按企业名称查询租户</t>
   </si>
   <si>
@@ -300,9 +448,6 @@
     <t>stat_alarm_18_11_01</t>
   </si>
   <si>
-    <t>/ras/card</t>
-  </si>
-  <si>
     <t>{"cardName":"电池过充-单体总数-soc分段","description":"","dataSetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","renderMode":"bar","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","measureAlias":"total","aggs":"SUM","props":{"guidArr":[]}}],"dimensions":[{"fieldName":"soc","fieldAlias":"soc","fieldType":"Str","fieldNativeType":"VARCHAR","dimensionAlias":"soc"}],"filters":[],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"datasetId":"DATASETacbdd26807e340c8bbadfdb36f170a42","datasourceId":"DATASOURCE1446f9208382447486ab2e7b0dd2b089","catalog":"yiqi","schema":"stat_alarm_18_11","limit":1000,"distinct":false},"dataBrief":[],"queryType":"FH","type":"FH"}</t>
   </si>
   <si>
@@ -546,9 +691,6 @@
     <t>carNO=%E7%B2%A4S18639D</t>
   </si>
   <si>
-    <t>/ras/dataset</t>
-  </si>
-  <si>
     <t>{"dataSetID":"DATASETa35882e2e5f64e1290e553e87b8cb0c0","dataSetName":"stat_alarm_active_time","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_active_time","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_active_time","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_active_time","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_active_time","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_active_time","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
   </si>
   <si>
@@ -619,6 +761,27 @@
   </si>
   <si>
     <t>{"dataSetID":"DATASET9fc76153ebe14ac7a3d0111282a464b9","dataSetName":"stat_alarm_summery_level","dataSourceList":[{"dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceType":"mysql","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_level"],"createdBy":"zhanghr@yuanian.com","createdTime":"2019-11-06 14:10:11","updatedTime":"2019-11-06 14:35:57","cardNum":0,"action":"write","starSchemas":[{"factTable":"stat_alarm_summery_level","allJoins":null,"allMeasures":[{"factTable":"stat_alarm_summery_level","fieldName":"active_time_month","dataType":"Numeric","measureDisplayName":"SUM Active time month","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"alarm_level","dataType":"Numeric","measureDisplayName":"SUM Alarm level","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"category","dataType":"Numeric","measureDisplayName":"SUM Category","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"curb_weight","dataType":"Numeric","measureDisplayName":"SUM Curb weight","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"diff_cell_volt","dataType":"Decimal","measureDisplayName":"SUM Diff cell volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"drive_range","dataType":"Numeric","measureDisplayName":"SUM Drive range","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"mileage","dataType":"Numeric","measureDisplayName":"SUM Mileage","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"power","dataType":"Numeric","measureDisplayName":"SUM Power","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"power_100km","dataType":"Numeric","measureDisplayName":"SUM Power 100km","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"power_amount","dataType":"Numeric","measureDisplayName":"SUM Power amount","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"rating_volt","dataType":"Numeric","measureDisplayName":"SUM Rating volt","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"rating_volumn","dataType":"Numeric","measureDisplayName":"SUM Rating volumn","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"run_time_hour","dataType":"Numeric","measureDisplayName":"SUM Run time hour","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"speed","dataType":"Numeric","measureDisplayName":"SUM Speed","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"speed_30_minute","dataType":"Numeric","measureDisplayName":"SUM Speed 30 minute","format":"NONE","aggregationType":"SUM"},{"factTable":"stat_alarm_summery_level","fieldName":"total","dataType":"Numeric","measureDisplayName":"SUM Total","format":"NONE","aggregationType":"SUM"}],"allDimensions":[{"dimensionName":"Stat alarm 0 01","dimensionType":"StandardDimension","tableName":"stat_alarm_summery_level","allHierachies":[{"hierachyName":"Battery type","allLevels":[{"levelName":"Battery type","fieldName":"battery_type","dataType":"String"}]},{"hierachyName":"Cell enterprise","allLevels":[{"levelName":"Cell enterprise","fieldName":"cell_enterprise","dataType":"String"}]},{"hierachyName":"Charge type","allLevels":[{"levelName":"Charge type","fieldName":"charge_type","dataType":"String"}]},{"hierachyName":"City","allLevels":[{"levelName":"City","fieldName":"city","dataType":"String"}]},{"hierachyName":"Day type","allLevels":[{"levelName":"Day type","fieldName":"day_type","dataType":"String"}]},{"hierachyName":"Dict name","allLevels":[{"levelName":"Dict name","fieldName":"dict_name","dataType":"String"}]},{"hierachyName":"Is biz","allLevels":[{"levelName":"Is biz","fieldName":"is_biz","dataType":"String"}]},{"hierachyName":"Model name","allLevels":[{"levelName":"Model name","fieldName":"model_name","dataType":"String"}]},{"hierachyName":"Month","allLevels":[{"levelName":"Month","fieldName":"month","dataType":"String"}]},{"hierachyName":"Package enterprise","allLevels":[{"levelName":"Package enterprise","fieldName":"package_enterprise","dataType":"String"}]},{"hierachyName":"Province","allLevels":[{"levelName":"Province","fieldName":"province","dataType":"String"}]},{"hierachyName":"Season","allLevels":[{"levelName":"Season","fieldName":"season","dataType":"String"}]},{"hierachyName":"Veh level","allLevels":[{"levelName":"Veh level","fieldName":"veh_level","dataType":"String"}]},{"hierachyName":"Veh type","allLevels":[{"levelName":"Veh type","fieldName":"veh_type","dataType":"String"}]}]}]}],"fhCube":{"datasourceId":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","schema":{"catalog":"yiqi","name":"stat_alarm_summery_level","fields":[{"fieldName":"alarm_level","fieldAlias":"报警等级","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"day_type","fieldAlias":"工作日/周末","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"season","fieldAlias":"季节","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"province","fieldAlias":"省","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"city","fieldAlias":"市","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"category","fieldAlias":"车辆状态","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"charge_type","fieldAlias":"充电类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"model_name","fieldAlias":"车型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"dict_name","fieldAlias":"用途","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_level","fieldAlias":"车辆级别","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"veh_type","fieldAlias":"车辆类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"power_amount","fieldAlias":"储能装置总能量KwH","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volt","fieldAlias":"额定电压V","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"rating_volumn","fieldAlias":"标称容量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"battery_type","fieldAlias":"储能装置类型","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"cell_enterprise","fieldAlias":"电池生产企业","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"package_enterprise","fieldAlias":"电池包厂商","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"is_biz","fieldAlias":"是否运营","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"speed_30_minute","fieldAlias":"30分钟最高车速","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"curb_weight","fieldAlias":"整备质量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"power_100km","fieldAlias":"标称百公里耗电量","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"drive_range","fieldAlias":"续驶里程","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"total","fieldAlias":"数量","fieldNativeType":"BIGINT","fieldType":"Num"},{"fieldName":"active_time_hour","fieldAlias":"活跃时长","fieldType":"Num","fieldNativeType":"INT"},{"fieldName":"alarm_code","fieldAlias":"报警编码","fieldNativeType":"INT","fieldType":"Num"},{"fieldName":"alarm_month","fieldAlias":"报警月","fieldNativeType":"VARCHAR","fieldType":"Str"},{"fieldName":"alarm_name","fieldAlias":"报警名称","fieldNativeType":"VARCHAR","fieldType":"Str"}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}</t>
+  </si>
+  <si>
+    <t>好车伯乐接口</t>
+  </si>
+  <si>
+    <t>/external-api/vehicle-battery/hcbl/vehicle/static?</t>
+  </si>
+  <si>
+    <t>vin=123</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>好车伯乐正常调用</t>
+  </si>
+  <si>
+    <t>vin=LGXCD4D48J0211179</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"area":"深圳市","brand":"比亚迪","bsie":18.0,"bulletinNO":"BYD6460STHEV10","joinTime":"2019-07-27 06:31:16","platform":"私人","series":"未知","seurityMonitor":true,"type":"BYD6460STHEV10","use":"02","vin":"14b8e610b61d2e7e6102144c1fa9df24"},"error":false,"code":"10000"}</t>
   </si>
 </sst>
 </file>
@@ -628,8 +791,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -662,14 +825,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -678,7 +833,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,32 +862,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,28 +876,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -767,8 +907,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +939,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,13 +955,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,13 +969,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,25 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,79 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +1101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,31 +1119,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,11 +1163,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,26 +1193,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,26 +1228,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,152 +1265,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1256,6 +1419,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1585,7 +1754,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1642,7 +1811,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1698,7 +1867,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1723,19 +1892,83 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="53.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="23.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="37.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="36.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="43.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="45.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="34.9090909090909" customWidth="1"/>
   </cols>
@@ -1761,7 +1994,7 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
@@ -1845,7 +2078,7 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
@@ -1861,16 +2094,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="29.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="42.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="26.4545454545455" customWidth="1"/>
   </cols>
@@ -1889,18 +2122,202 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1914,8 +2331,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1942,83 +2359,83 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2070,13 +2487,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2084,13 +2501,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2098,13 +2515,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2112,13 +2529,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2126,13 +2543,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2140,13 +2557,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2154,13 +2571,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2168,13 +2585,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2182,13 +2599,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2196,13 +2613,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2210,13 +2627,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -2224,13 +2641,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -2238,13 +2655,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -2252,13 +2669,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2266,13 +2683,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -2280,13 +2697,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -2294,13 +2711,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -2308,13 +2725,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -2322,13 +2739,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2336,13 +2753,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -2350,13 +2767,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -2364,13 +2781,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -2378,13 +2795,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -2392,13 +2809,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2442,13 +2859,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2456,13 +2873,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2470,13 +2887,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2484,13 +2901,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2498,13 +2915,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2512,13 +2929,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2526,13 +2943,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2540,13 +2957,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2554,13 +2971,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2568,13 +2985,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2582,13 +2999,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -2596,13 +3013,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -2610,13 +3027,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -2624,13 +3041,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2638,13 +3055,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -2652,13 +3069,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -2666,13 +3083,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -2680,13 +3097,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -2694,13 +3111,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2708,13 +3125,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -2722,13 +3139,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -2736,13 +3153,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -2750,13 +3167,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -2764,13 +3181,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2778,13 +3195,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D26">
         <v>200</v>
@@ -2792,13 +3209,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -2806,13 +3223,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="D28">
         <v>200</v>
@@ -2820,13 +3237,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -2870,13 +3287,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2884,13 +3301,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2898,13 +3315,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2912,13 +3329,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2926,13 +3343,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2940,13 +3357,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2954,13 +3371,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2968,13 +3385,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2982,13 +3399,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2996,13 +3413,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -3020,13 +3437,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="41.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="63.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="52.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3046,13 +3463,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -3060,13 +3477,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -3113,13 +3530,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3127,13 +3544,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3141,13 +3558,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3155,13 +3572,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3169,13 +3586,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3183,13 +3600,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -3197,13 +3614,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -3211,13 +3628,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -3225,13 +3642,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -3239,13 +3656,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -3253,13 +3670,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -3267,13 +3684,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -3281,13 +3698,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -3295,13 +3712,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -3309,13 +3726,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -3323,13 +3740,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -3337,13 +3754,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -3351,13 +3768,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -3365,13 +3782,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -3379,13 +3796,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -3393,13 +3810,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -3407,13 +3824,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -3421,13 +3838,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -3435,13 +3852,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="D25">
         <v>200</v>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="265">
   <si>
     <t>desc</t>
   </si>
@@ -160,6 +160,9 @@
     <t>{"status":400,"errorMsg":"VALID","data":"车牌粤C00859号无效或没有车辆充电数据","error":true}</t>
   </si>
   <si>
+    <t>/api-center/api</t>
+  </si>
+  <si>
     <t>用户已经存在</t>
   </si>
   <si>
@@ -298,7 +301,7 @@
     <t>新增数据集页面跳转</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"total":10,"list":[{"id":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","name":"yiqi","dataSourceType":"mysql","databaseName":"yiqi","createBy":"hangang@bitnei.cn","databasePort":"3306","hostname":"10.10.21.67","username":"analysis","password":"analysis","dataSets":[{"dataSetId":"DATASETf619a97a4c6844ef8554cda6aae2fe11","dataSetName":"1114"},{"dataSetId":"DATASETbfc2a1ded81a4f0c89b3442a07490ed3","dataSetName":"afdsaf"},{"dataSetId":"DATASET10e4ab9872fb42b6bfcfc0cd4ae49fb0","dataSetName":"111"},{"dataSetId":"DATASETf67b2d2ecb8e446ba53ae19b7dc1f2b5","dataSetName":"stat_alarm_1_08"},{"dataSetId":"DATASET139fd1584be44e0ebf679585069645a2","dataSetName":"stat_alarm_3_01"},{"dataSetId":"DATASETd9c69ed37ddb434bb63fd6bb9a21cb35","dataSetName":"stat_alarm_18_01"},{"dataSetId":"DATASET4894994cc6fe4b68a2ae4094115a6890","dataSetName":"hg004"},{"dataSetId":"DATASETb35bdce7238f4fddb338302ff7c50285","dataSetName":"stat_alarm_1_01"},{"dataSetId":"DATASETbf221f10b1d646e3bc6337dbf2edbde1","dataSetName":"1012t"},{"dataSetId":"DATASETe1067bf6b212495ab1edb14f27d99887","dataSetName":"stat_alarm_1_03"},{"dataSetId":"DATASET723fae6f8d454691837542032c963f36","dataSetName":"tat_alarm_4_02"},{"dataSetId":"DATASET48490ca482bc4051a5772d5df3679758","dataSetName":"stat_alarm_1_07"},{"dataSetId":"DATASETb5e4948c95164daaa065374068adb90f","dataSetName":"一汽数据集"},{"dataSetId":"DATASET287779cdc48d4282ae6aa3e59fd06fda","dataSetName":"test_123_dataset"},{"dataSetId":"DATASET371f868dcd0547a0b9544b9c35d61110","dataSetName":"stat_alarm_0_08"},{"dataSetId":"DATASETadcc11335bb84a71a5706ad6064e6ebf","dataSetName":"hgstat_alarm_0_01"},{"dataSetId":"DATASET122e60954740482aa1dc50df794156b1","dataSetName":"tat_alarm_4_05"},{"dataSetId":"DATASETcdf7338c185244b3a840afa285c5fa53","dataSetName":"11088"},{"dataSetId":"DATASET066a73a5d6f746d19a3d1e5b066f0250","dataSetName":"stat_alarm_0_05"},{"dataSetId":"DATASET047711c77a3340d085bba9b429fd1b4e","dataSetName":"总体报警级别分布"},{"dataSetId":"DATASET8e1602e2de7547268751e3e352a30239","dataSetName":"stat_alarm_0_11"},{"dataSetId":"DATASET9dd5ecb5da124f8ea5258464ce3ff897","dataSetName":"stat_alarm_0_04"},{"dataSetId":"DATASET07a36fcf18c048e1ab20b1408f0e2b69","dataSetName":"tat_alarm_4_10"},{"dataSetId":"DATASET6747d574ad8c4dd7a467b4070f5c5960","dataSetName":"stat_alarm_0_09"},{"dataSetId":"DATASET1853456a18524b4fbe99cd3899307074","dataSetName":"stat_alarm_0_01"},{"dataSetId":"DATASET47c8414ecb7c4b3b8158d3bbd7d133fe","dataSetName":"test1108"},{"dataSetId":"DATASETb04c055b3ff64fb2849511c2db9a17a2","dataSetName":"数据集ypp"},{"dataSetId":"DATASET53997b548e1a4a009251819ded9ac124","dataSetName":"test23"},{"dataSetId":"DATASET2e7eba32c07a47449478f104fadf71ed","dataSetName":"stat_alarm_1_10"},{"dataSetId":"DATASET2cdb1755ee5c41efb870499d3e61011d","dataSetName":"0929"},{"dataSetId":"DATASETcafe2d309c9643f4a0a5dc963483b9e5","dataSetName":"stat_alarm_1_05"},{"dataSetId":"DATASET0823adc34c164272a884fe57d67d22e7","dataSetName":"stat_alarm_battery_power"},{"dataSetId":"DATASETcb5ba7069db14224810e92675a099c0a","dataSetName":"11111111347"},{"dataSetId":"DATASET926b64610d2f4ade9aebc83051818b7d","dataSetName":"3千万"},{"dataSetId":"DATASET14bf5b7b30604f5d98e5c1e5715b08bb","dataSetName":"1210test"},{"dataSetId":"DATASETdd9d363975324d50b816244ecc1c00b3","dataSetName":"stat_alarm_2_01"},{"dataSetId":"DATASET68f1a108f04f42859b06c9a64163542f","dataSetName":"stat_alarm_0_061"},{"dataSetId":"DATASET0077e2efd2684bad8f8692ccdd3ebc5c","dataSetName":"10_03"},{"dataSetId":"DATASET0a04215dd05d4fcba41944141dcf90be","dataSetName":"stat_alarm_1_09"},{"dataSetId":"DATASET00ec5c34bb3048edb4fb06d575166b62","dataSetName":"测试_性能"},{"dataSetId":"DATASETf2f288d68aba4c37bec9ac62ef73f44a","dataSetName":"1011测试"},{"dataSetId":"DATASETb054c04f07e34842ad240ec553c2f64e","dataSetName":"stat_alarm_1_02"},{"dataSetId":"DATASET5e4d84b814f548aea83d943715b42468","dataSetName":"37911"},{"dataSetId":"DATASET29e66b9191bb4a1da94f7be790a163f5","dataSetName":"tat_alarm_4_09"},{"dataSetId":"DATASET29dab496c4214393969b32f146c731a5","dataSetName":"hg401"},{"dataSetId":"DATASET7a75eba21dc447a38932363209a50f84","dataSetName":"108数据集"},{"dataSetId":"DATASETe32d1c3b3dd84d668f4809c45f7147ab","dataSetName":"tat_alarm_4_11"},{"dataSetId":"DATASET3a2c50ed8fcd465daba35967cb850742","dataSetName":"stat_alarm_1_04"},{"dataSetId":"DATASET986cc59fbec946d2a16c17dc9a09807d","dataSetName":"tat_alarm_4_08"},{"dataSetId":"DATASETc1aa8dea87a74542bac93b86be0b22ad","dataSetName":"stat_alarm_1_11"},{"dataSetId":"DATASET667c5d05fbc84f13ad34c5ccfb30f08b","dataSetName":"大量数据性能"},{"dataSetId":"DATASET022e8b005315466aadc6c19e6d134187","dataSetName":"tat_alarm_4_01"},{"dataSetId":"DATASETb7236c943d9b45ffbfe558361e5e8696","dataSetName":"t-1106-t"},{"dataSetId":"DATASET5aedbca678ac49e891462e5abf11d05d","dataSetName":"tat_alarm_4_06"},{"dataSetId":"DATASETf4e88430837b47d3abad8fe5222ae8bb","dataSetName":"test1206003"},{"dataSetId":"DATASET56e00884da3e447e858f10c82dfea30a","dataSetName":"数据集模型单位"},{"dataSetId":"DATASETfd5bc11ec9e442ae894135376c0a7536","dataSetName":"tat_alarm_4_07"},{"dataSetId":"DATASET3990cde974ed4b8caaadf31b89a374b8","dataSetName":"tat_alarm_4_04"},{"dataSetId":"DATASETbe09dbfc62b84820bd40e4bc7c3ddc2c","dataSetName":"stat_alarm_0_10"},{"dataSetId":"DATASETa8beb0bc8cfb45c5a10a54241dbbd5f7","dataSetName":"yiqi_test_0925"},{"dataSetId":"DATASET03a52a045c674530867164a4ecb06f1d","dataSetName":"stat_alarm_0_02"}],"updateTime":"2019-10-31 16:35:09","createTime":"2019-09-23 17:48:53","action":"write"},{"id":"DATASOURCE48933d543e4943bbbf7fec0f922ebfa9","name":"yiqi_self_test","dataSourceType":"mysql","databaseName":"bit_test_liu","createBy":"liutianao@bitnei.cn","databasePort":"3306","hostname":"10.10.26.29","username":"liutianao","password":"liutianao","dataSets":[{"dataSetId":"DATASET21c22bfd99c04bcdba89075e583d34d4","dataSetName":"yiqi_self_test"}],"updateTime":"2019-09-25 10:12:17","createTime":"2019-09-25 10:12:18","action":"write"},{"id":"DATASOURCE4ecf322f6fbb4d07bcc56e8768dbca7f","name":"test1","dataSourceType":"mysql","databaseName":"bi","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.8","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASET0e812c0c5fcf4b8a9a119f099808220d","dataSetName":"1234"},{"dataSetId":"DATASETec13c5c19ac34363b8d911f161417321","dataSetName":"少时诵诗书1"},{"dataSetId":"DATASET2b6e4bda219c49bfa09e0c2101cdb0ed","dataSetName":"dataset_1112"}],"updateTime":"2019-09-23 10:50:05","createTime":"2019-09-23 10:50:06","action":"write"},{"id":"DATASOURCE5094f85a4d6e433387acab4182e1466a","name":"test_postgre","dataSourceType":"postgreSQL","databaseName":"test","createBy":"zhanghailong@bitnei.cn","databasePort":"5432","hostname":"10.10.21.8","username":"postgres","password":"bianqi123456","dataSets":[{"dataSetId":"DATASETe0eaa0dcc91744b7a9ba3b779a26061b","dataSetName":"test_postgresql"}],"updateTime":"2019-12-13 10:38:46","createTime":"2019-12-13 09:36:21","action":"write"},{"id":"DATASOURCE5fb834f13bd748d092d54d160e8b98a1","name":"1万条数据","dataSourceType":"mysql","databaseName":"bit_test_liu","createBy":"liutianao@bitnei.cn","databasePort":"3306","hostname":"10.10.26.29","username":"liutianao","password":"liutianao","dataSets":[{"dataSetId":"DATASET037982d9ef7a43e697a520b898d46330","dataSetName":"yiqibigbigbig_copy36"},{"dataSetId":"DATASETfaf2ca207c174aeb91480a3aac3b09b7","dataSetName":"yiqibigbigbig_copy39"},{"dataSetId":"DATASETefd3d6f6639e466f81aedcad7f2eceb7","dataSetName":"yiqibigbigbig_copy40"},{"dataSetId":"DATASETfdf00aa7698848948c98dec59ad5dfe9","dataSetName":"yiqibigbigbig_copy35"},{"dataSetId":"DATASET7306a6afbee944f3bb64582afd159d49","dataSetName":"yiqibigbigbig_copy03"},{"dataSetId":"DATASET61261637423048b0a3b10fa1b58f0548","dataSetName":"yiqibigbigbig_copy06"},{"dataSetId":"DATASET338eba2e400049feaafd013154e6fce2","dataSetName":"40万1"},{"dataSetId":"DATASET127f354eedf84dd6979efce58bfe32ee","dataSetName":"yiqibigbigbig_copy25"},{"dataSetId":"DATASETac6b06d0d83b453d88954f3c104daf53","dataSetName":"yiqibigbigbig_copy32"},{"dataSetId":"DATASETbe8fcfdb7c6841cb96a8521eb80813ff","dataSetName":"yiqibigbigbig_copy27"},{"dataSetId":"DATASET987bfe08eded42cc98a8a5680bdbd0f4","dataSetName":"yiqibigbigbig_copy18"},{"dataSetId":"DATASETc2524433f2b04920a4d9d3aa244d196c","dataSetName":"yiqibigbigbig_copy37"},{"dataSetId":"DATASET9b074a58d79e4720a86a2c3ef19639f0","dataSetName":"yiqibigbigbig_copy07"},{"dataSetId":"DATASETc6e4cada283f4856bae0f8a13857cd04","dataSetName":"yiqibigbigbig_copy10"},{"dataSetId":"DATASET680e1c719a974228ad2ec1e22d846015","dataSetName":"yiqibigbigbig_copy04"},{"dataSetId":"DATASETa6fbdd081d6c40a894a41398965665b5","dataSetName":"yiqibigbigbig_copy33"},{"dataSetId":"DATASETfbd6e750857c4230a27ac3cf4faa7abe","dataSetName":"yiqibigbigbig_copy26"},{"dataSetId":"DATASET22d3bc91c86f4d30ac021d6c322007a0","dataSetName":"yiqibigbigbig_copy31"},{"dataSetId":"DATASET957703dde5c0439ba7c82fd608f70d93","dataSetName":"yiqibigbigbig_copy23"},{"dataSetId":"DATASETa9ac065871d94322b0d6fa4f40f4f4d3","dataSetName":"yiqibigbigbig_copy08"},{"dataSetId":"DATASETe1d563a3916a4694a515af792957c9f2","dataSetName":"yiqibigbigbig_copy05"},{"dataSetId":"DATASET3c9cdbe056934910aee32c68481fddb6","dataSetName":"yiqibigbigbig_copy21"},{"dataSetId":"DATASET05fb0fd2849f40f8a1edece97acca459","dataSetName":"40w2"},{"dataSetId":"DATASET185d4549698d4cf0aca6ec581fee68f7","dataSetName":"yiqibigbigbig_copy54"},{"dataSetId":"DATASET7e496a58812f4c899c04b074b3be6be2","dataSetName":"yiqibigbigbig_copy53"},{"dataSetId":"DATASETc4bb820ed5cb4f40a6f2c808f598c8a1","dataSetName":"yiqibigbigbig_copy41"},{"dataSetId":"DATASET92ca0e35278742fc9a82926f0c5f0752","dataSetName":"yiqibigbigbig_copy02"},{"dataSetId":"DATASETf64a3209847347538a78bd4978d0b5ea","dataSetName":"100万数据集"},{"dataSetId":"DATASET8885e0f755d545d9ac18ff914c1fd48d","dataSetName":"yiqibigbigbig_copy30"},{"dataSetId":"DATASET67b9353ddac04d708e36655173e932ee","dataSetName":"yiqibigbigbig_copy38"},{"dataSetId":"DATASET351ace10e2f74b16aa2603875a0ec6c2","dataSetName":"yiqibigbigbig_copy45"},{"dataSetId":"DATASET54bc8199be1b4179822bdb84a27b813f","dataSetName":"yiqibigbigbig_copy15"},{"dataSetId":"DATASET95833bfab804455fafd634b5c4d9afa6","dataSetName":"yiqibigbigbig_copy17"},{"dataSetId":"DATASETfd8873c56a8f455795b810819a0d5b2a","dataSetName":"yiqibigbigbig_copy50"},{"dataSetId":"DATASETddc47467fcad45d9bda1394ceaab0557","dataSetName":"yiqibigbigbig_copy14"},{"dataSetId":"DATASETee248d39eb0d46cdaa2684ad0932bdf6","dataSetName":"yiqibigbigbig_copy20"},{"dataSetId":"DATASETf51baf0272304e159db1dd0260ccbd6e","dataSetName":"yiqibigbigbig_copy13"},{"dataSetId":"DATASET8a121a9e5d7742c8bf3f283d60e79f51","dataSetName":"yiqibigbigbig_copy12"},{"dataSetId":"DATASET697290961a364dbb91a6f8f34969d530","dataSetName":"yiqibigbigbig_copy34"},{"dataSetId":"DATASETc899cab7f4124d1ba18f74833a57b6b5","dataSetName":"yiqibigbigbig_copy52"},{"dataSetId":"DATASET274e2674b4ee4a91b970c5c761d21fc6","dataSetName":"yiqibigbigbig_copy29"},{"dataSetId":"DATASETf20354cc08a341e3815809265ac70890","dataSetName":"yiqibigbigbig_copy42"},{"dataSetId":"DATASETb52700f9d75f479dafe480b138650634","dataSetName":"yiqibigbigbig_copy43"},{"dataSetId":"DATASET9fc71a51d6ba4f5cabc245916b5f647e","dataSetName":"yiqibigbigbig_copy24"},{"dataSetId":"DATASETde02e192f48a4bff94c7ea38d814b265","dataSetName":"yiqibigbigbig_copy51"},{"dataSetId":"DATASETd2b443f070474e13ab085e328fbf8312","dataSetName":"yiqibigbigbig_copy28"},{"dataSetId":"DATASETc4695fa2ff164c8a9afdaeb2861aa9e1","dataSetName":"yiqibigbigbig_copy11"},{"dataSetId":"DATASET35bdddc292264152a8849fd1b59351ef","dataSetName":"yiqibigbigbig_copy16"},{"dataSetId":"DATASET0e8edd8a867e4f9d8a2d2e357f4266a2","dataSetName":"yiqibigbigbig_copy44"},{"dataSetId":"DATASET5e0ee03579a644d9810a4973446c2cf8","dataSetName":"yiqibigbigbig_copy19"},{"dataSetId":"DATASETa713eb64b30c47d2bc9db8667d116ee7","dataSetName":"yiqibigbigbig_copy09"},{"dataSetId":"DATASET21520ad4f39d4114ae64475e9aa3a067","dataSetName":"yiqibigbigbig_copy22"},{"dataSetId":"DATASET8e97cad2e45a4f8fb923f6e904755201","dataSetName":"yiqibigbigbig_copy01"},{"dataSetId":"DATASET3e5b1a59d3d843dc9c8093b72d181ef1","dataSetName":"这张表里目前有40万条数据"}],"updateTime":"2019-10-12 11:23:59","createTime":"2019-10-12 11:24:00","action":"write"},{"id":"DATASOURCEcac770f3d20546baa64370069139ab82","name":"heatmap","dataSourceType":"mysql","databaseName":"analysis","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.67","username":"analysis","password":"analysis","dataSets":[{"dataSetId":"DATASET620212e4b63441a2b9887bee2b585a9c","dataSetName":"热力图"}],"updateTime":"2019-09-18 13:50:46","createTime":"2019-09-18 13:50:46","action":"write"},{"id":"DATASOURCEe2670211678541f5ace007fe088e9c8b","name":"impala_test","dataSourceType":"impala","databaseName":"nei_dws","createBy":"zhanghailong@bitnei.cn","databasePort":"21050","hostname":"10.10.21.18","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASETd6f9afa52dba41489a86e1b1b0b75b7a","dataSetName":"split_fact_table"}],"updateTime":"2019-09-10 09:14:38","createTime":"2019-09-10 09:14:38","action":"write"},{"id":"DATASOURCEf3dfedf07fd5462e99f455c41bb98607","name":"test","dataSourceType":"mysql","databaseName":"changan","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.8","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASETc83dd1c55b034643ada6afe1a365b802","dataSetName":"test1"},{"dataSetId":"DATASET60410d882e1c4a18b12cf8e218427982","dataSetName":"数据集测试"},{"dataSetId":"DATASETcbfc4f2202cc440db79ad1439d9142bc","dataSetName":"123456"}],"updateTime":"2019-09-11 09:27:57","createTime":"2019-09-11 09:27:58","action":"write"},{"id":"DATASOURCEf55124074107475aa365bb378eb697a8","name":"123","dataSourceType":"mysql","databaseName":"bi_test","createBy":"zhanghailong@bitnei.cn","databasePort":"3306","hostname":"10.10.21.8","username":"remote","password":"ABCabc123...","dataSets":[{"dataSetId":"DATASET1f798639cc3842f394df6605e471218f","dataSetName":"test12"},{"dataSetId":"DATASET55cd868c8a3242019586ddccb8bd19d1","dataSetName":"test123"},{"dataSetId":"DATASET808fea24acb845c9a406553f30404216","dataSetName":"123"}],"updateTime":"2019-09-06 14:15:39","createTime":"2019-09-06 14:15:40","action":"write"},{"id":"DATASOURCEf7286c2422e9413890e7cf41fe130def","name":"yiqi报表","dataSourceType":"mysql","databaseName":"yiqi","createBy":"yaomeng@bitnei.cn","databasePort":"3306","hostname":"10.10.21.67","username":"analysis","password":"analysis","dataSets":[{"dataSetId":"DATASETe2062694afdc4e9d88dcc0758e0a0c7c","dataSetName":"stat_alarm_4_04"},{"dataSetId":"DATASET89dfea946f8b495cbd6269bcfacc5596","dataSetName":"stat_alarm_4_11"},{"dataSetId":"DATASET5b98f2c5723845389fa976199bbf5c80","dataSetName":"stat_alarm_4_06"},{"dataSetId":"DATASET3b5ff25b6f24439a84db276bacfdadca","dataSetName":"stat_alarm_4_09"},{"dataSetId":"DATASET1e0f9452db064f15a4bfee525b998c66","dataSetName":"yiqistat_alarm_18_04"},{"dataSetId":"DATASET13be67c2705f4df9b251e9c2588dcf6b","dataSetName":"yiqistat_alarm_18_02"},{"dataSetId":"DATASET1e17a68e0c294ad196ccfecfac6e4613","dataSetName":"yiqistat_alarm_0_02"},{"dataSetId":"DATASET80ac6aaa43fd40f8ade7827dd7e41192","dataSetName":"yiqistat_alarm_0_01"},{"dataSetId":"DATASET2f5ed5c245cf455e941988fdcfb822ba","dataSetName":"yiqistat_alarm_0_09"},{"dataSetId":"DATASET29855c2063684157935dcc4c0e7db236","dataSetName":"yiqistat_alarm_0_05"},{"dataSetId":"DATASET1b0015d59f5d4428bb32debdab8185d0","dataSetName":"yiqistat_alarm_18_03"},{"dataSetId":"DATASET318a9e06ca6e4cb5aab1b51a02c13f81","dataSetName":"yiqistat_alarm_18_11"},{"dataSetId":"DATASETa073e247ac6340ae9c195d1d9875a397","dataSetName":"yiqistat_alarm_0_11"},{"dataSetId":"DATASET9e6b9c45e0ba488d854846461def889b","dataSetName":"stat_alarm_4_03"},{"dataSetId":"DATASET0cc60773b226497389a014add4bfe405","dataSetName":"yiqistat_alarm_0_07"},{"dataSetId":"DATASET3952559d758d4ef29420568b0e46af69","dataSetName":"yiqistat_alarm_18_05"},{"dataSetId":"DATASET909226085d064645870dbbc0f15bb76c","dataSetName":"yiqistat_alarm_0_08"},{"dataSetId":"DATASET8ec6fca34a1a4e58b4cc3a3a0792e767","dataSetName":"yiqistat_alarm_0_06"},{"dataSetId":"DATASET599214dc7a9e4253aeaf3aa93e0813b4","dataSetName":"yiqistat_alarm_18_10"},{"dataSetId":"DATASETaef6cb52f2d940689baf9573427d4abb","dataSetName":"stat_alarm_code_charge"},{"dataSetId":"DATASET7517b7cd256e460b8ee5a686747e26e3","dataSetName":"yiqistat_alarm_18_07"},{"dataSetId":"DATASETdd968e8cc46748ba9a221705e408d1f2","dataSetName":"stat_alarm_4_05"},{"dataSetId":"DATASETd96fa16744fd4c76880282b68f7e41dd","dataSetName":"stat_alarm_4_08"},{"dataSetId":"DATASET5f584a8c06ee4d10a595b1a125121e87","dataSetName":"stat_alarm_4_10"},{"dataSetId":"DATASET69cb1f1acb6d40ffae59ae82e4c8eec4","dataSetName":"yiqistat_alarm_0_03"},{"dataSetId":"DATASETae15cb05d9694bd48b519093fc2b7faf","dataSetName":"yiqistat_alarm_18_08"},{"dataSetId":"DATASETbb04be831df648719506fb510ad833dc","dataSetName":"yiqistat_alarm_0_04"},{"dataSetId":"DATASET55a03710ee6b469f9c0cfc38c0ef5af3","dataSetName":"stat_alarm_4_07"},{"dataSetId":"DATASET8aa19d1cdc1c4b78955e61ddeccd1a48","dataSetName":"yiqistat_alarm_18_06"},{"dataSetId":"DATASETa5cc1a4f749348bd9b4f78b5f0b12d64","dataSetName":"stat_alarm_4_02"}],"updateTime":"2019-10-12 11:57:49","createTime":"2019-10-12 11:57:49","action":"write"}],"pageNum":1,"pageSize":10,"size":10,"startRow":0,"endRow":9,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"error":false}</t>
   </si>
   <si>
     <t>新增报表获取仪表盘名称</t>
@@ -307,13 +310,46 @@
     <t>/ras/dashboard/names</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"error":false}</t>
-  </si>
-  <si>
     <t>新增报表获取数据集</t>
   </si>
   <si>
     <t>/ras/dataset/abstract</t>
+  </si>
+  <si>
+    <t>导出任务列表查询</t>
+  </si>
+  <si>
+    <t>/ras/job/list</t>
+  </si>
+  <si>
+    <t>?pageSize=10&amp;pageNum=1&amp;fileName=%E5%82%A8%E8%83%BD%E8%A3%85%E7%BD%AE%E4%BF%A1%E6%81%AF%E9%A1%BA%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"total":2,"list":[{"jobId":1266,"jobName":"储能装置信息顺序_20191204143228827.csv","jobStatus":3,"functionCode":1,"fileGroup":"group1","filePath":"M00/00/03/CgoVRF3nUv-ANX5kAAAAW2mO0Ls656.csv","fileSize":"91.0B","finishTime":"2019-12-04 14:32:32","createBy":"zhanghailong@bitnei.cn","createTime":"2019-12-04 14:32:29","lastUpdateTime":"2019-12-04 14:32:31","tenant":"bitnei-cn","jobCondition":"{\"availableDimensions\":[],\"availableMeasures\":[],\"calAggregate\":false,\"calRate\":false,\"cardName\":\"储能装置信息顺序\",\"converse\":false,\"converseModel\":{\"columns\":[],\"measures\":[],\"rows\":[]},\"datasetId\":\"DATASET03a52a045c674530867164a4ecb06f1d\",\"dimensions\":[{\"dimensionAlias\":\"battery_type\",\"fieldAlias\":\"battery_type\",\"fieldName\":\"battery_type\",\"fieldNativeType\":\"VARCHAR\",\"fieldType\":\"Str\",\"sorted\":{\"fieldAlias\":\"battery_type_index\",\"fieldName\":\"battery_type_index\",\"fieldNativeType\":\"INT\",\"fieldType\":\"Num\",\"policy\":\"ASC\"}}],\"distinct\":false,\"export\":true,\"filters\":[],\"measures\":[{\"aggs\":\"SUM\",\"fieldAlias\":\"total\",\"fieldName\":\"total\",\"fieldNativeType\":\"BIGINT\",\"fieldType\":\"Num\",\"measureAlias\":\"total\"}],\"props\":{\"saiku.ui.render.mode\":\"bar\",\"saiku.ui.chart.options\":{\"xRotate\":0,\"yRotate\":0,\"unitX\":\"\",\"unitY\":\"hours\",\"titleY\":\"运行时长/天\",\"nameGapX\":0,\"nameGapY\":60,\"labelRotate\":0,\"align\":\"\",\"verticalAlign\":\"\",\"position\":\"\",\"distance\":0,\"maxZoom\":0,\"yAxisInfo\":true}},\"switchAvailable\":false}"},{"jobId":1263,"jobName":"储能装置信息顺序_20191204142413861.csv","jobStatus":4,"functionCode":1,"fileGroup":null,"filePath":null,"fileSize":null,"finishTime":null,"createBy":"zhanghailong@bitnei.cn","createTime":"2019-12-04 14:24:14","lastUpdateTime":"2019-12-04 14:24:16","tenant":"bitnei-cn","jobCondition":"{\"availableDimensions\":[],\"availableMeasures\":[],\"calAggregate\":false,\"calRate\":false,\"cardName\":\"储能装置信息顺序\",\"converse\":false,\"converseModel\":{\"columns\":[],\"measures\":[],\"rows\":[]},\"datasetId\":\"DATASET03a52a045c674530867164a4ecb06f1d\",\"dimensions\":[{\"dimensionAlias\":\"battery_type\",\"fieldAlias\":\"battery_type\",\"fieldName\":\"battery_type\",\"fieldNativeType\":\"VARCHAR\",\"fieldType\":\"Str\",\"sorted\":{\"fieldAlias\":\"battery_type_index\",\"fieldName\":\"battery_type_index\",\"fieldNativeType\":\"INT\",\"fieldType\":\"Num\",\"policy\":\"ASC\"}}],\"distinct\":false,\"export\":true,\"filters\":[],\"measures\":[{\"aggs\":\"SUM\",\"fieldAlias\":\"total\",\"fieldName\":\"total\",\"fieldNativeType\":\"BIGINT\",\"fieldType\":\"Num\",\"measureAlias\":\"total\"}],\"props\":{\"saiku.ui.render.mode\":\"bar\",\"saiku.ui.chart.options\":{\"xRotate\":0,\"yRotate\":0,\"unitX\":\"\",\"unitY\":\"hours\",\"titleY\":\"运行时长/天\",\"nameGapX\":0,\"nameGapY\":60,\"labelRotate\":0,\"align\":\"\",\"verticalAlign\":\"\",\"position\":\"\",\"distance\":0,\"maxZoom\":0,\"yAxisInfo\":true}},\"switchAvailable\":false}"}],"pageNum":1,"pageSize":10,"size":2,"startRow":1,"endRow":2,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+  </si>
+  <si>
+    <t>接口文档列表</t>
+  </si>
+  <si>
+    <t>/api-center/api/getCommonApiList</t>
+  </si>
+  <si>
+    <t>用户获取TOKEN接口获取列表</t>
+  </si>
+  <si>
+    <t>/api-center/api/1</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"apiId":"1","moduleName":"用户鉴权","moduleId":"e600b13d62d542be9edd4e6742615e29","projectName":"saas平台公共组件","projectId":"bf073f1b47594c47af8a34376b454d39","name":"用户获取TOKEN接口","url":"http://test-oauth.bitnei.cn/acquire/token","uri":"/acquire/token","method":"POST","scheme":"HTTP","description":"获取token","consume":"application/json","produce":"application/json","type":"2","logo":"iVBORw0KGgoAAAANSUhEUgAAAEYAAABGCAYAAABxLuKEAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJ\nbWFnZVJlYWR5ccllPAAAAyFpVFh0WE1MOmNvbS5hZG9iZS54bXAAAAAAADw/eHBhY2tldCBiZWdp\nbj0i77u/IiBpZD0iVzVNME1wQ2VoaUh6cmVTek5UY3prYzlkIj8+IDx4OnhtcG1ldGEgeG1sbnM6\neD0iYWRvYmU6bnM6bWV0YS8iIHg6eG1wdGs9IkFkb2JlIFhNUCBDb3JlIDUuNS1jMDE0IDc5LjE1\nMTQ4MSwgMjAxMy8wMy8xMy0xMjowOToxNSAgICAgICAgIj4gPHJkZjpSREYgeG1sbnM6cmRmPSJo\ndHRwOi8vd3d3LnczLm9yZy8xOTk5LzAyLzIyLXJkZi1zeW50YXgtbnMjIj4gPHJkZjpEZXNjcmlw\ndGlvbiByZGY6YWJvdXQ9IiIgeG1sbnM6eG1wPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAv\nIiB4bWxuczp4bXBNTT0iaHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wL21tLyIgeG1sbnM6c3RS\nZWY9Imh0dHA6Ly9ucy5hZG9iZS5jb20veGFwLzEuMC9zVHlwZS9SZXNvdXJjZVJlZiMiIHhtcDpD\ncmVhdG9yVG9vbD0iQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKSIgeG1wTU06SW5zdGFuY2VJ\nRD0ieG1wLmlpZDo3RTA4RjZGREVDM0UxMUU2QjlDQUIyNUIzMDIwN0MwRiIgeG1wTU06RG9jdW1l\nbnRJRD0ieG1wLmRpZDo3RTA4RjZGRUVDM0UxMUU2QjlDQUIyNUIzMDIwN0MwRiI+IDx4bXBNTTpE\nZXJpdmVkRnJvbSBzdFJlZjppbnN0YW5jZUlEPSJ4bXAuaWlkOjdFMDhGNkZCRUMzRTExRTZCOUNB\nQjI1QjMwMjA3QzBGIiBzdFJlZjpkb2N1bWVudElEPSJ4bXAuZGlkOjdFMDhGNkZDRUMzRTExRTZC\nOUNBQjI1QjMwMjA3QzBGIi8+IDwvcmRmOkRlc2NyaXB0aW9uPiA8L3JkZjpSREY+IDwveDp4bXBt\nZXRhPiA8P3hwYWNrZXQgZW5kPSJyIj8+YQLNsQAAAq1JREFUeNrsmT1oFEEYhnflarXQQghaaCT+\nYNQEBBtFgz+kMNqKnhxBiYWlGFBzwSb+dWoUVFSwEcSAJkbRiIVgRBEsTVALO9NELRSE9Rn4hGW9\n3Bl3j927ez94GEKWudtnXmY+bvwgCDzV3zVHCiRGYiRGYiRGYiRGYiRGYiRGJTESIzESIzESIzES\nIzES06CVq/TApWND0fsVH4JNOza48SOsgxEowCm4ALvhFSyBHzAFrTAKB+Ek3IRt8BaWwgS0wzDk\n4TSch/3wCFbDNHyHlTZXD/TCLdgOb6AZ3kMbPINdcMU+8zDch7WrNi8qlntvv9K9UlTM3neD/u01\nPYEbs7ran4/eqPgMYuIlxhIy0xcolZiLocQshp/wxRLzEA7Z6l2HnSUSM2IpOQvnYB88tpR8hW/u\nvUJzHS+RGDfXehiDPTBon+kS9sC+S3+sxETS4xLjWWKyGhg/icTMevPNbZ3O9KaJFJfwSZgLry21\nw7bnXIUu6Iu9+ZYRlNoe8+vpvBn/13TmgJOzzP5st7HTxm4bh6omxp1MaUj51HavwNpnb48Z65jy\ntjxZEOQXDqS2hyAn9iRJnEolK9/a7ffnOtPoYwpJ9DFQrEpi3DjblUZkZjbpxE+l/y2kuJ6kA+5A\nC4yD20U/WK/kTpL58ALc5nkXNsJlS+AJOGKJ+TOXe2Y5vLS5Jm2uCTuVXIKaQqfSNTuVihVXMUYf\n0/Cdr6fOV52vOt/Mdr7lutc4VdOdLw3aCtavvvaYhDrfRLrXeux8W9L+BS/tzjdT3W6iiXEyYnS7\nvV5Gf/ONnZiomFBi/H+UU5+JiZ4+SPFDL9y4nW+F65OarardEjwfHQ9qW0yXn9ip1EilK1qJkRiJ\nkRiJkRiJkRiJkRiJUUmMxEiMxEiMxEiMxEhM3ddvAQYATJSOLBcyLw8AAAAASUVORK5CYII="},"error":false}</t>
+  </si>
+  <si>
+    <t>用户获取TOKEN接口获取参数</t>
+  </si>
+  <si>
+    <t>/api-center/requestParam/list/1</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"00c4da82117647dfbff016f096186e8a","createDate":"2019-09-20 08:18:37","lastUpdateDate":null,"apiId":"1","name":"password","type":"sys_string","position":"query","required":true,"defaultValue":null,"createBy":"zhanghailong@bitnei.cn","tenant":"bitnei-cn","label":null,"description":"密码"},{"id":"960d6353f739496e874870937b731529","createDate":"2019-09-20 08:18:17","lastUpdateDate":null,"apiId":"1","name":"username","type":"sys_string","position":"query","required":true,"defaultValue":null,"createBy":"zhanghailong@bitnei.cn","tenant":"bitnei-cn","label":null,"description":"用户名"}],"error":false}</t>
   </si>
   <si>
     <t>按企业名称查询租户</t>
@@ -825,6 +861,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -833,44 +891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,21 +906,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -907,7 +921,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -922,16 +936,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,6 +961,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +1005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,37 +1035,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,19 +1095,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,43 +1131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,13 +1149,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,31 +1179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,32 +1199,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,11 +1223,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,17 +1256,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,17 +1273,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,152 +1301,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1421,6 +1457,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1811,7 +1850,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1867,7 +1906,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1924,30 +1963,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1994,7 +2033,7 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
@@ -2078,7 +2117,7 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
@@ -2094,10 +2133,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2112,8 +2151,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2124,13 +2163,13 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -2138,175 +2177,175 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2317,7 +2356,54 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2359,83 +2445,83 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2487,13 +2573,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2501,13 +2587,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2515,13 +2601,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2529,13 +2615,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2543,13 +2629,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2557,13 +2643,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2571,13 +2657,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2585,13 +2671,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2599,13 +2685,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2613,13 +2699,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2627,13 +2713,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -2641,13 +2727,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -2655,13 +2741,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -2669,13 +2755,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2683,13 +2769,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -2697,13 +2783,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -2711,13 +2797,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -2725,13 +2811,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -2739,13 +2825,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2753,13 +2839,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -2767,13 +2853,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -2781,13 +2867,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -2795,13 +2881,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -2809,13 +2895,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2859,13 +2945,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2873,13 +2959,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2887,13 +2973,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2901,13 +2987,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2915,13 +3001,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2929,13 +3015,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2943,13 +3029,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2957,13 +3043,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2971,13 +3057,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2985,13 +3071,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2999,13 +3085,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -3013,13 +3099,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -3027,13 +3113,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -3041,13 +3127,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -3055,13 +3141,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -3069,13 +3155,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -3083,13 +3169,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -3097,13 +3183,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -3111,13 +3197,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -3125,13 +3211,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -3139,13 +3225,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -3153,13 +3239,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -3167,13 +3253,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -3181,13 +3267,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -3195,13 +3281,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D26">
         <v>200</v>
@@ -3209,13 +3295,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -3223,13 +3309,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D28">
         <v>200</v>
@@ -3237,13 +3323,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -3287,13 +3373,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3301,13 +3387,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3315,13 +3401,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3329,13 +3415,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3343,13 +3429,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3357,13 +3443,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -3371,13 +3457,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -3385,13 +3471,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -3399,13 +3485,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -3413,13 +3499,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -3463,13 +3549,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -3477,13 +3563,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -3530,13 +3616,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3544,13 +3630,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3558,13 +3644,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3572,13 +3658,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3586,13 +3672,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3600,13 +3686,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -3614,13 +3700,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -3628,13 +3714,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -3642,13 +3728,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -3656,13 +3742,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -3670,13 +3756,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -3684,13 +3770,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -3698,13 +3784,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -3712,13 +3798,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -3726,13 +3812,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -3740,13 +3826,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -3754,13 +3840,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -3768,13 +3854,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -3782,13 +3868,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -3796,13 +3882,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -3810,13 +3896,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -3824,13 +3910,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -3838,13 +3924,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -3852,13 +3938,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D25">
         <v>200</v>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="188">
   <si>
     <t>desc</t>
   </si>
@@ -179,10 +179,10 @@
     <t>/user-center/group/list</t>
   </si>
   <si>
-    <t>?name=test</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"40577066f90f411c9811824d2f8edf1f","name":"test","description":"","createBy":"zhanghailong@bitnei.cn","createTime":"1970-01-01 16:39:50","lastUpdateTime":"2019-11-11 16:39:49","tenant":"bitnei-cn"}],"error":false}</t>
+    <t>?name=hg%E6%96%B0%E5%A2%9E%E5%88%86%E7%BB%84</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"a946dfe8a5504db2bdfd5f26be1a4071","name":"hg新增分组","description":"","createBy":"zhanghailong@bitnei.cn","createTime":"1970-01-01 10:50:26","tenant":"bitnei-cn"}],"error":false}</t>
   </si>
   <si>
     <t>API管理用户获取TOKEN接口查询</t>
@@ -215,7 +215,7 @@
     <t>/vehicle-info/portrait/getModelPortrait</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"modelPortrait":{"model_name":"BJ7000C5E7-BEV","avg_charge_times_month":22.0,"quick_percent_month":72,"avg_start_soc":34,"avg_end_soc":76,"avg_charge_time_length":"0h54min","half_price_times":79,"city_percent":"昆明市:31_北京市:27_其他:42","cars_nu":3430,"dict_percent":"公务乘用车:72_出租乘用车:26_其他:2","active_percent":100,"avg_run_mileage_month":4812.5,"start_soc_20_less_percent":1,"holiday_percent":32,"avg_run_days_month":21.0,"avg_run_times_month":132.0,"run_100km_more_percent":8,"run_20km_less_percent":47,"workday_percent":68,"material":"三元","produce_date":"2017","cell_enterprise":"CATL","power_amount":"","veh_level":"紧凑型车","power_type":"BEV","drive_range_ev":"300","brand":"北京","power_100km":"16.4","reduce_percent":"2.33","actual_drive_range":"230","prediction_life_time":"46.21","avg_alarm_level1_2_3_nu_month":"三级:1_二级:1_一级:1","avg_bat_fault_nu_month":null,"avg_bat_fault_nu_month_num":"3","alarm_name_percent":"制动系统报警:22_SOC低报警:67","avg_alarm_nu_month":null},"modelCapacityCurveList":[{"boxKey":"BJ7000C5E7-BEV","mil":0.0,"vol":"127.8"},{"boxKey":"BJ7000C5E7-BEV","mil":5000.0,"vol":"127.5"},{"boxKey":"BJ7000C5E7-BEV","mil":10000.0,"vol":"127.2"},{"boxKey":"BJ7000C5E7-BEV","mil":15000.0,"vol":"126.9"},{"boxKey":"BJ7000C5E7-BEV","mil":20000.0,"vol":"126.6"},{"boxKey":"BJ7000C5E7-BEV","mil":25000.0,"vol":"126.3"},{"boxKey":"BJ7000C5E7-BEV","mil":30000.0,"vol":"126.0"},{"boxKey":"BJ7000C5E7-BEV","mil":35000.0,"vol":"125.7"},{"boxKey":"BJ7000C5E7-BEV","mil":40000.0,"vol":"125.4"},{"boxKey":"BJ7000C5E7-BEV","mil":45000.0,"vol":"125.0"},{"boxKey":"BJ7000C5E7-BEV","mil":50000.0,"vol":"124.7"},{"boxKey":"BJ7000C5E7-BEV","mil":55000.0,"vol":"124.4"},{"boxKey":"BJ7000C5E7-BEV","mil":60000.0,"vol":"124.1"},{"boxKey":"BJ7000C5E7-BEV","mil":65000.0,"vol":"123.8"},{"boxKey":"BJ7000C5E7-BEV","mil":70000.0,"vol":"123.5"},{"boxKey":"BJ7000C5E7-BEV","mil":75000.0,"vol":"123.2"},{"boxKey":"BJ7000C5E7-BEV","mil":80000.0,"vol":"122.9"},{"boxKey":"BJ7000C5E7-BEV","mil":85000.0,"vol":"122.6"},{"boxKey":"BJ7000C5E7-BEV","mil":90000.0,"vol":"122.3"},{"boxKey":"BJ7000C5E7-BEV","mil":95000.0,"vol":"122.0"},{"boxKey":"BJ7000C5E7-BEV","mil":100000.0,"vol":"121.7"},{"boxKey":"BJ7000C5E7-BEV","mil":105000.0,"vol":"121.4"},{"boxKey":"BJ7000C5E7-BEV","mil":110000.0,"vol":"121.1"},{"boxKey":"BJ7000C5E7-BEV","mil":115000.0,"vol":"120.7"},{"boxKey":"BJ7000C5E7-BEV","mil":120000.0,"vol":"120.4"},{"boxKey":"BJ7000C5E7-BEV","mil":125000.0,"vol":"120.1"},{"boxKey":"BJ7000C5E7-BEV","mil":130000.0,"vol":"119.8"},{"boxKey":"BJ7000C5E7-BEV","mil":135000.0,"vol":"119.5"},{"boxKey":"BJ7000C5E7-BEV","mil":140000.0,"vol":"119.2"},{"boxKey":"BJ7000C5E7-BEV","mil":145000.0,"vol":"118.9"},{"boxKey":"BJ7000C5E7-BEV","mil":150000.0,"vol":"118.6"},{"boxKey":"BJ7000C5E7-BEV","mil":155000.0,"vol":"118.3"},{"boxKey":"BJ7000C5E7-BEV","mil":160000.0,"vol":"118.0"},{"boxKey":"BJ7000C5E7-BEV","mil":165000.0,"vol":"117.7"},{"boxKey":"BJ7000C5E7-BEV","mil":170000.0,"vol":"117.4"},{"boxKey":"BJ7000C5E7-BEV","mil":175000.0,"vol":"117.1"},{"boxKey":"BJ7000C5E7-BEV","mil":180000.0,"vol":"116.8"},{"boxKey":"BJ7000C5E7-BEV","mil":185000.0,"vol":"116.4"},{"boxKey":"BJ7000C5E7-BEV","mil":190000.0,"vol":"116.1"},{"boxKey":"BJ7000C5E7-BEV","mil":195000.0,"vol":"115.8"},{"boxKey":"BJ7000C5E7-BEV","mil":200000.0,"vol":"115.5"},{"boxKey":"BJ7000C5E7-BEV","mil":205000.0,"vol":"115.2"},{"boxKey":"BJ7000C5E7-BEV","mil":210000.0,"vol":"114.9"},{"boxKey":"BJ7000C5E7-BEV","mil":215000.0,"vol":"114.6"},{"boxKey":"BJ7000C5E7-BEV","mil":220000.0,"vol":"114.3"},{"boxKey":"BJ7000C5E7-BEV","mil":225000.0,"vol":"114.0"},{"boxKey":"BJ7000C5E7-BEV","mil":230000.0,"vol":"113.7"},{"boxKey":"BJ7000C5E7-BEV","mil":235000.0,"vol":"113.4"},{"boxKey":"BJ7000C5E7-BEV","mil":240000.0,"vol":"113.1"},{"boxKey":"BJ7000C5E7-BEV","mil":245000.0,"vol":"112.8"},{"boxKey":"BJ7000C5E7-BEV","mil":250000.0,"vol":"112.5"},{"boxKey":"BJ7000C5E7-BEV","mil":255000.0,"vol":"112.1"},{"boxKey":"BJ7000C5E7-BEV","mil":260000.0,"vol":"111.8"},{"boxKey":"BJ7000C5E7-BEV","mil":265000.0,"vol":"111.5"},{"boxKey":"BJ7000C5E7-BEV","mil":270000.0,"vol":"111.2"},{"boxKey":"BJ7000C5E7-BEV","mil":275000.0,"vol":"110.9"},{"boxKey":"BJ7000C5E7-BEV","mil":280000.0,"vol":"110.6"},{"boxKey":"BJ7000C5E7-BEV","mil":285000.0,"vol":"110.3"},{"boxKey":"BJ7000C5E7-BEV","mil":290000.0,"vol":"110.0"},{"boxKey":"BJ7000C5E7-BEV","mil":295000.0,"vol":"109.7"},{"boxKey":"BJ7000C5E7-BEV","mil":300000.0,"vol":"109.4"},{"boxKey":"BJ7000C5E7-BEV","mil":305000.0,"vol":"109.1"},{"boxKey":"BJ7000C5E7-BEV","mil":310000.0,"vol":"108.8"},{"boxKey":"BJ7000C5E7-BEV","mil":315000.0,"vol":"108.5"},{"boxKey":"BJ7000C5E7-BEV","mil":320000.0,"vol":"108.2"},{"boxKey":"BJ7000C5E7-BEV","mil":325000.0,"vol":"107.8"},{"boxKey":"BJ7000C5E7-BEV","mil":330000.0,"vol":"107.5"},{"boxKey":"BJ7000C5E7-BEV","mil":335000.0,"vol":"107.2"},{"boxKey":"BJ7000C5E7-BEV","mil":340000.0,"vol":"106.9"},{"boxKey":"BJ7000C5E7-BEV","mil":345000.0,"vol":"106.6"},{"boxKey":"BJ7000C5E7-BEV","mil":350000.0,"vol":"106.3"},{"boxKey":"BJ7000C5E7-BEV","mil":355000.0,"vol":"106.0"},{"boxKey":"BJ7000C5E7-BEV","mil":360000.0,"vol":"105.7"},{"boxKey":"BJ7000C5E7-BEV","mil":365000.0,"vol":"105.4"},{"boxKey":"BJ7000C5E7-BEV","mil":370000.0,"vol":"105.1"},{"boxKey":"BJ7000C5E7-BEV","mil":375000.0,"vol":"104.8"},{"boxKey":"BJ7000C5E7-BEV","mil":380000.0,"vol":"104.5"},{"boxKey":"BJ7000C5E7-BEV","mil":385000.0,"vol":"104.2"},{"boxKey":"BJ7000C5E7-BEV","mil":390000.0,"vol":"103.9"},{"boxKey":"BJ7000C5E7-BEV","mil":395000.0,"vol":"103.5"},{"boxKey":"BJ7000C5E7-BEV","mil":400000.0,"vol":"103.2"},{"boxKey":"BJ7000C5E7-BEV","mil":405000.0,"vol":"102.9"},{"boxKey":"BJ7000C5E7-BEV","mil":410000.0,"vol":"102.6"},{"boxKey":"BJ7000C5E7-BEV","mil":415000.0,"vol":"102.3"}]},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"modelPortrait":{"model_name":"BJ7000C5E7-BEV","avg_charge_times_month":22.0,"quick_percent_month":71,"avg_start_soc":34,"avg_end_soc":77,"avg_charge_time_length":"0h54min","half_price_times":79,"city_percent":"昆明市:31_北京市:27_其他:42","cars_nu":3517,"dict_percent":"公务乘用车:72_出租乘用车:26_其他:2","active_percent":100,"avg_run_mileage_month":4812.5,"start_soc_20_less_percent":1,"holiday_percent":32,"avg_run_days_month":21.0,"avg_run_times_month":132.0,"run_100km_more_percent":8,"run_20km_less_percent":47,"workday_percent":68,"material":"三元","produce_date":"2017","cell_enterprise":"CATL","power_amount":"","veh_level":"紧凑型车","power_type":"BEV","drive_range_ev":"300","brand":"北京","power_100km":"16.4","reduce_percent":"2.33","actual_drive_range":"230","prediction_life_time":"46.21","avg_alarm_level1_2_3_nu_month":"三级:1_二级:1_一级:1","avg_bat_fault_nu_month":null,"avg_bat_fault_nu_month_num":"3","alarm_name_percent":"制动系统报警:22_SOC低报警:67","avg_alarm_nu_month":null},"modelCapacityCurveList":[{"boxKey":"BJ7000C5E7-BEV","mil":0.0,"vol":"127.8"},{"boxKey":"BJ7000C5E7-BEV","mil":5000.0,"vol":"127.5"},{"boxKey":"BJ7000C5E7-BEV","mil":10000.0,"vol":"127.2"},{"boxKey":"BJ7000C5E7-BEV","mil":15000.0,"vol":"126.9"},{"boxKey":"BJ7000C5E7-BEV","mil":20000.0,"vol":"126.6"},{"boxKey":"BJ7000C5E7-BEV","mil":25000.0,"vol":"126.3"},{"boxKey":"BJ7000C5E7-BEV","mil":30000.0,"vol":"126.0"},{"boxKey":"BJ7000C5E7-BEV","mil":35000.0,"vol":"125.7"},{"boxKey":"BJ7000C5E7-BEV","mil":40000.0,"vol":"125.4"},{"boxKey":"BJ7000C5E7-BEV","mil":45000.0,"vol":"125.0"},{"boxKey":"BJ7000C5E7-BEV","mil":50000.0,"vol":"124.7"},{"boxKey":"BJ7000C5E7-BEV","mil":55000.0,"vol":"124.4"},{"boxKey":"BJ7000C5E7-BEV","mil":60000.0,"vol":"124.1"},{"boxKey":"BJ7000C5E7-BEV","mil":65000.0,"vol":"123.8"},{"boxKey":"BJ7000C5E7-BEV","mil":70000.0,"vol":"123.5"},{"boxKey":"BJ7000C5E7-BEV","mil":75000.0,"vol":"123.2"},{"boxKey":"BJ7000C5E7-BEV","mil":80000.0,"vol":"122.9"},{"boxKey":"BJ7000C5E7-BEV","mil":85000.0,"vol":"122.6"},{"boxKey":"BJ7000C5E7-BEV","mil":90000.0,"vol":"122.3"},{"boxKey":"BJ7000C5E7-BEV","mil":95000.0,"vol":"122.0"},{"boxKey":"BJ7000C5E7-BEV","mil":100000.0,"vol":"121.7"},{"boxKey":"BJ7000C5E7-BEV","mil":105000.0,"vol":"121.4"},{"boxKey":"BJ7000C5E7-BEV","mil":110000.0,"vol":"121.1"},{"boxKey":"BJ7000C5E7-BEV","mil":115000.0,"vol":"120.7"},{"boxKey":"BJ7000C5E7-BEV","mil":120000.0,"vol":"120.4"},{"boxKey":"BJ7000C5E7-BEV","mil":125000.0,"vol":"120.1"},{"boxKey":"BJ7000C5E7-BEV","mil":130000.0,"vol":"119.8"},{"boxKey":"BJ7000C5E7-BEV","mil":135000.0,"vol":"119.5"},{"boxKey":"BJ7000C5E7-BEV","mil":140000.0,"vol":"119.2"},{"boxKey":"BJ7000C5E7-BEV","mil":145000.0,"vol":"118.9"},{"boxKey":"BJ7000C5E7-BEV","mil":150000.0,"vol":"118.6"},{"boxKey":"BJ7000C5E7-BEV","mil":155000.0,"vol":"118.3"},{"boxKey":"BJ7000C5E7-BEV","mil":160000.0,"vol":"118.0"},{"boxKey":"BJ7000C5E7-BEV","mil":165000.0,"vol":"117.7"},{"boxKey":"BJ7000C5E7-BEV","mil":170000.0,"vol":"117.4"},{"boxKey":"BJ7000C5E7-BEV","mil":175000.0,"vol":"117.1"},{"boxKey":"BJ7000C5E7-BEV","mil":180000.0,"vol":"116.8"},{"boxKey":"BJ7000C5E7-BEV","mil":185000.0,"vol":"116.4"},{"boxKey":"BJ7000C5E7-BEV","mil":190000.0,"vol":"116.1"},{"boxKey":"BJ7000C5E7-BEV","mil":195000.0,"vol":"115.8"},{"boxKey":"BJ7000C5E7-BEV","mil":200000.0,"vol":"115.5"},{"boxKey":"BJ7000C5E7-BEV","mil":205000.0,"vol":"115.2"},{"boxKey":"BJ7000C5E7-BEV","mil":210000.0,"vol":"114.9"},{"boxKey":"BJ7000C5E7-BEV","mil":215000.0,"vol":"114.6"},{"boxKey":"BJ7000C5E7-BEV","mil":220000.0,"vol":"114.3"},{"boxKey":"BJ7000C5E7-BEV","mil":225000.0,"vol":"114.0"},{"boxKey":"BJ7000C5E7-BEV","mil":230000.0,"vol":"113.7"},{"boxKey":"BJ7000C5E7-BEV","mil":235000.0,"vol":"113.4"},{"boxKey":"BJ7000C5E7-BEV","mil":240000.0,"vol":"113.1"},{"boxKey":"BJ7000C5E7-BEV","mil":245000.0,"vol":"112.8"},{"boxKey":"BJ7000C5E7-BEV","mil":250000.0,"vol":"112.5"},{"boxKey":"BJ7000C5E7-BEV","mil":255000.0,"vol":"112.1"},{"boxKey":"BJ7000C5E7-BEV","mil":260000.0,"vol":"111.8"},{"boxKey":"BJ7000C5E7-BEV","mil":265000.0,"vol":"111.5"},{"boxKey":"BJ7000C5E7-BEV","mil":270000.0,"vol":"111.2"},{"boxKey":"BJ7000C5E7-BEV","mil":275000.0,"vol":"110.9"},{"boxKey":"BJ7000C5E7-BEV","mil":280000.0,"vol":"110.6"},{"boxKey":"BJ7000C5E7-BEV","mil":285000.0,"vol":"110.3"},{"boxKey":"BJ7000C5E7-BEV","mil":290000.0,"vol":"110.0"},{"boxKey":"BJ7000C5E7-BEV","mil":295000.0,"vol":"109.7"},{"boxKey":"BJ7000C5E7-BEV","mil":300000.0,"vol":"109.4"},{"boxKey":"BJ7000C5E7-BEV","mil":305000.0,"vol":"109.1"},{"boxKey":"BJ7000C5E7-BEV","mil":310000.0,"vol":"108.8"},{"boxKey":"BJ7000C5E7-BEV","mil":315000.0,"vol":"108.5"},{"boxKey":"BJ7000C5E7-BEV","mil":320000.0,"vol":"108.2"},{"boxKey":"BJ7000C5E7-BEV","mil":325000.0,"vol":"107.8"},{"boxKey":"BJ7000C5E7-BEV","mil":330000.0,"vol":"107.5"},{"boxKey":"BJ7000C5E7-BEV","mil":335000.0,"vol":"107.2"},{"boxKey":"BJ7000C5E7-BEV","mil":340000.0,"vol":"106.9"},{"boxKey":"BJ7000C5E7-BEV","mil":345000.0,"vol":"106.6"},{"boxKey":"BJ7000C5E7-BEV","mil":350000.0,"vol":"106.3"},{"boxKey":"BJ7000C5E7-BEV","mil":355000.0,"vol":"106.0"},{"boxKey":"BJ7000C5E7-BEV","mil":360000.0,"vol":"105.7"},{"boxKey":"BJ7000C5E7-BEV","mil":365000.0,"vol":"105.4"},{"boxKey":"BJ7000C5E7-BEV","mil":370000.0,"vol":"105.1"},{"boxKey":"BJ7000C5E7-BEV","mil":375000.0,"vol":"104.8"},{"boxKey":"BJ7000C5E7-BEV","mil":380000.0,"vol":"104.5"},{"boxKey":"BJ7000C5E7-BEV","mil":385000.0,"vol":"104.2"},{"boxKey":"BJ7000C5E7-BEV","mil":390000.0,"vol":"103.9"},{"boxKey":"BJ7000C5E7-BEV","mil":395000.0,"vol":"103.5"},{"boxKey":"BJ7000C5E7-BEV","mil":400000.0,"vol":"103.2"},{"boxKey":"BJ7000C5E7-BEV","mil":405000.0,"vol":"102.9"},{"boxKey":"BJ7000C5E7-BEV","mil":410000.0,"vol":"102.6"},{"boxKey":"BJ7000C5E7-BEV","mil":415000.0,"vol":"102.3"}]},"error":false}</t>
   </si>
   <si>
     <t>单车画像列表查询</t>
@@ -260,7 +260,7 @@
     <t>?datasourcetype=&amp;datasourceid=&amp;datasetname=stat_alarm_18_01&amp;orderby=UPDATE_TIME%20DESC&amp;pageSize=10&amp;pageNum=1</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"dataSetID":"DATASETd9c69ed37ddb434bb63fd6bb9a21cb35","dataSetName":"stat_alarm_18_01","dataSourceList":[{"dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceType":"mysql","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_18_01"],"createdBy":"zhanghailong@bitnei.cn","createdTime":"2019-10-09 11:09:56","updatedTime":"2019-12-04 10:42:54","cardNum":10,"action":"write","starSchemas":[],"fhCube":{"datasourceId":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","schema":{"catalog":"yiqi","name":"stat_alarm_18_01","fields":[{"fieldName":"diff_cell_volt","fieldAlias":"diff_cell_volt","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"v"},"sorted":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":""},"sorted":null},{"fieldName":"day_type","fieldAlias":"day_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"season","fieldAlias":"season","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"省份"},"sorted":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"市"},"sorted":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"charge_type","fieldAlias":"charge_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"mileage","fieldAlias":"mileage","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"km"},"sorted":null},{"fieldName":"speed","fieldAlias":"speed","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"Km/h"},"sorted":null},{"fieldName":"power","fieldAlias":"power","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"KW"},"sorted":null},{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"dict_name","fieldAlias":"dict_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"veh_level","fieldAlias":"veh_level","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"veh_type","fieldAlias":"veh_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"power_amount","fieldAlias":"power_amount","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"KwH"},"sorted":null},{"fieldName":"rating_volt","fieldAlias":"rating_volt","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"V"},"sorted":null},{"fieldName":"rating_volumn","fieldAlias":"rating_volumn","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"Ah"},"sorted":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"package_enterprise","fieldAlias":"package_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"is_biz","fieldAlias":"is_biz","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"run_time_hour","fieldAlias":"run_time_hour","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"小时"},"sorted":null},{"fieldName":"active_time_month","fieldAlias":"active_time_month","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"月"},"sorted":null},{"fieldName":"speed_30_minute","fieldAlias":"speed_30_minute","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"km/h"},"sorted":null},{"fieldName":"curb_weight","fieldAlias":"curb_weight","fieldType":"Str","fieldNativeType":"VARCHAR","props":{"unit":"kg"},"sorted":null},{"fieldName":"drive_range","fieldAlias":"drive_range","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"month","fieldAlias":"month","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null},{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":{"unit":"总数"},"sorted":{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"BIGINT","props":null,"sorted":null,"policy":"ASC"}}]},"dataSourceType":"mysql"},"olapEnable":true,"fhEnable":true,"dataSourceType":"mysql"}],"pageNum":1,"pageSize":10,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"dataSetID":"DATASETd9c69ed37ddb434bb63fd6bb9a21cb35","dataSetName":"stat_alarm_18_01","dataSourceList":[{"dataSourceID":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","dataSourceType":"mysql","dataSourceName":"yiqi"}],"selectedTables":["DATASOURCE205cd94207fd4afab42393a08bb3a05b.stat_alarm_18_01"],"createdBy":"zhanghailong@bitnei.cn","createdTime":"2019-10-09 11:09:56","updatedTime":"2019-12-04 10:42:54","cardNum":10,"action":"write","starSchemas":[],"fhCube":null,"olapEnable":true,"fhEnable":false,"userAction":"WRITE","groupAction":null,"dataSourceType":"mysql"}],"pageNum":1,"pageSize":10,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
   </si>
   <si>
     <t>数据源按名称查询</t>
@@ -296,7 +296,7 @@
     <t>?dataSetId=&amp;pageNum=1&amp;pageSize=10&amp;querytype=&amp;cardName=stat_alarm_0_10_3</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"cardId":"CARD78cf7593b6384dfa861730513f1570c7","dataSetId":"DATASETbe09dbfc62b84820bd40e4bc7c3ddc2c","cardName":"stat_alarm_0_10_3","displayName":null,"avatarUrl":null,"action":"write","description":"","renderMode":"bar","dataBrief":[],"queryType":"FH","updateTime":"2019-09-29 16:03:38","createTime":"2019-09-29 16:03:39","createBy":"hangang@bitnei.cn","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"measureAlias":"total","aggs":"SUM"}],"dimensions":[{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"dimensionAlias":"cell_enterprise"}],"filters":[{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"model_name","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"battery_type","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"alarm_date","fieldAlias":"alarm_date","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"alarm_date","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"category","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"province","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"city","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"env_temp_section","fieldAlias":"env_temp_section","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"env_temp_section","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"mileage_section","fieldAlias":"mileage_section","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"mileage_section","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"diff_temp_section","fieldAlias":"diff_temp_section","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"diff_temp_section","defValue":null,"operator":null,"policy":null,"cascadeFilter":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"converse":false,"converseModel":null,"cardName":null,"limit":1000,"export":false,"calRate":false,"datasetId":"DATASETbe09dbfc62b84820bd40e4bc7c3ddc2c","datasourceId":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","catalog":"yiqi","schema":"stat_alarm_0_10","distinct":false,"calAggregate":false}}],"pageNum":1,"pageSize":1,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"cardId":"CARD78cf7593b6384dfa861730513f1570c7","dataSetId":"DATASETbe09dbfc62b84820bd40e4bc7c3ddc2c","cardName":"stat_alarm_0_10_3","displayName":null,"avatarUrl":null,"action":"write","description":"","renderMode":"bar","dataBrief":[],"queryType":"FH","createTime":"2019-09-29 16:03:39","createBy":"hangang@bitnei.cn","content":{"measures":[{"fieldName":"total","fieldAlias":"total","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"measureAlias":"total","aggs":"SUM"}],"dimensions":[{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"dimensionAlias":"cell_enterprise"}],"filters":[{"fieldName":"model_name","fieldAlias":"model_name","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"model_name","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"battery_type","fieldAlias":"battery_type","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"battery_type","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"alarm_date","fieldAlias":"alarm_date","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"alarm_date","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"category","fieldAlias":"category","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"category","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"province","fieldAlias":"province","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"province","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"city","fieldAlias":"city","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"city","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"cell_enterprise","fieldAlias":"cell_enterprise","fieldType":"Str","fieldNativeType":"VARCHAR","props":null,"sorted":null,"filterAlias":"cell_enterprise","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"alarm_level","fieldAlias":"alarm_level","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"alarm_level","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"env_temp_section","fieldAlias":"env_temp_section","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"env_temp_section","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"mileage_section","fieldAlias":"mileage_section","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"mileage_section","defValue":null,"operator":null,"policy":null,"cascadeFilter":null},{"fieldName":"diff_temp_section","fieldAlias":"diff_temp_section","fieldType":"Num","fieldNativeType":"INT","props":null,"sorted":null,"filterAlias":"diff_temp_section","defValue":null,"operator":null,"policy":null,"cascadeFilter":null}],"props":{"saiku.ui.render.mode":"bar","saiku.ui.chart.options":{"xRotate":"","yRotate":""}},"switchAvailable":false,"availableMeasures":[],"availableDimensions":[],"converse":false,"converseModel":null,"cardName":null,"limit":1000,"export":false,"calRate":false,"datasetId":"DATASETbe09dbfc62b84820bd40e4bc7c3ddc2c","datasourceId":"DATASOURCE205cd94207fd4afab42393a08bb3a05b","catalog":"yiqi","schema":"stat_alarm_0_10","distinct":false,"calAggregate":false}}],"pageNum":1,"pageSize":1,"size":1,"startRow":0,"endRow":0,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
   </si>
   <si>
     <t>新增数据集页面跳转</t>
@@ -485,7 +485,7 @@
     <t>{"dataSetName":"stat_alarm_summery_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_level"],"starSchemas":[]}</t>
   </si>
   <si>
-    <t>好车伯乐接口返回这空</t>
+    <t>好车伯乐接口返回为空</t>
   </si>
   <si>
     <t>/external-api/vehicle-battery/autobole/vehicle/static?</t>
@@ -504,6 +504,75 @@
   </si>
   <si>
     <t>{"status":200,"errorMsg":null,"data":{"brand":"比亚迪","bsie":18.0,"bulletinNO":"BYD6460STHEV10","joinTime":"2019-07-27 06:31:16","platform":"私人","series":"未知","seurityMonitor":true,"type":"BYD6460STHEV10","use":"02","vin":"14b8e610b61d2e7e6102144c1fa9df24"},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>获取车辆实时位置及里程接口参数vin</t>
+  </si>
+  <si>
+    <t>/external-api/lbs/test/vehicle/realTimeData?</t>
+  </si>
+  <si>
+    <t>vin=LHWCJ95D0H1170711</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>获取车辆实时位置及里程为空</t>
+  </si>
+  <si>
+    <t>获取车辆实时位置及里程接口参数carNO</t>
+  </si>
+  <si>
+    <t>carNO=湘N0J881</t>
+  </si>
+  <si>
+    <t>获取车辆轨迹接口参数vin</t>
+  </si>
+  <si>
+    <t>/external-api/lbs/test/vehicle/locations?</t>
+  </si>
+  <si>
+    <t>vin=L1HBBDA52JS000282&amp;fromDate=2019-10-20%2007:16:20&amp;toDate=2019-10-20%2007:16:30</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"700_730}","locations":[["113.317816","22.698654"]]}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>获取车辆轨迹接口参数carNO</t>
+  </si>
+  <si>
+    <t>carNO=%E7%B2%A4T09400D&amp;fromDate=2019-10-20%2007:16:20&amp;toDate=2019-10-20%2007:16:30</t>
+  </si>
+  <si>
+    <t>获取车辆轨迹接口返回为空</t>
+  </si>
+  <si>
+    <t>vin=123&amp;fromDate=2019-10-20%2007:16:20&amp;toDate=2019-10-20%2007:16:30</t>
+  </si>
+  <si>
+    <t>获取车辆风险评分和三年内行驶里程参数vin</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/insurance/lable?</t>
+  </si>
+  <si>
+    <t>vin=L6T78Y4W1HN038079</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":25.8533,"mileage_12":5881.0,"mileage_24":6272.0,"mileage_36":4300.0},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>获取车辆风险评分和三年内行驶里程参数carNO</t>
+  </si>
+  <si>
+    <t>carNO=%E4%BA%ACN05EV5</t>
+  </si>
+  <si>
+    <t>获取车辆风险评分和三年内行驶里程参数返回为空</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":null,"mileage_12":null,"mileage_24":null,"mileage_36":null},"error":false,"code":"10000"}</t>
   </si>
   <si>
     <t>API接口EC动力接收充电数据</t>
@@ -523,10 +592,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -567,7 +636,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,22 +657,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -611,6 +682,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,62 +757,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,49 +772,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,133 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,11 +966,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,45 +1046,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -980,17 +1055,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,10 +1071,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,16 +1083,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,112 +1104,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1766,8 +1835,8 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2546,17 +2615,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="63.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="52.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="45.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="31.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2599,6 +2668,132 @@
       </c>
       <c r="D3" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2844,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2676,16 +2871,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="apicode" sheetId="11" r:id="rId6"/>
     <sheet name="apipost" sheetId="13" r:id="rId7"/>
     <sheet name="apipostparas" sheetId="14" r:id="rId8"/>
+    <sheet name="geodedata" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
   <si>
     <t>desc</t>
   </si>
@@ -536,9 +537,6 @@
     <t>vin=L1HBBDA52JS000282&amp;fromDate=2019-10-20%2007:16:20&amp;toDate=2019-10-20%2007:16:30</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"700_730}","locations":[["113.317816","22.698654"]]}],"error":false,"code":"10000"}</t>
-  </si>
-  <si>
     <t>获取车辆轨迹接口参数carNO</t>
   </si>
   <si>
@@ -560,9 +558,6 @@
     <t>vin=L6T78Y4W1HN038079</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"risk_score":25.8533,"mileage_12":5881.0,"mileage_24":6272.0,"mileage_36":4300.0},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
     <t>获取车辆风险评分和三年内行驶里程参数carNO</t>
   </si>
   <si>
@@ -585,6 +580,54 @@
   </si>
   <si>
     <t>{"status":200,"errorMsg":null,"data":null,"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>车辆总数</t>
+  </si>
+  <si>
+    <t>/pulse/dataBrowserQuery</t>
+  </si>
+  <si>
+    <t>?query=select+count(1)+from+%2Fveh_realinfo+limit++1%3B&amp;members=&amp;limit=0&amp;_=1578559299715</t>
+  </si>
+  <si>
+    <t>{"result":[["java.lang.Integer",2255219]]}</t>
+  </si>
+  <si>
+    <t>车速度大于220</t>
+  </si>
+  <si>
+    <t>?query=select+count(1)+from+%2Fveh_realinfo+where+speed+%3E+220+limit+1&amp;members=&amp;limit=0&amp;_=1578563123416</t>
+  </si>
+  <si>
+    <t>{"result":[["java.lang.Integer",86]]}</t>
+  </si>
+  <si>
+    <t>里程表大于200000</t>
+  </si>
+  <si>
+    <t>?query=select+count(1)+from+%2Fveh_realinfo+where+mileage%3E200000+limit+1&amp;members=&amp;limit=0&amp;_=1578563187896</t>
+  </si>
+  <si>
+    <t>{"result":[["java.lang.Integer",15507]]}</t>
+  </si>
+  <si>
+    <t>位置坐标异常</t>
+  </si>
+  <si>
+    <t>?query=select+count(1)+from+%2Fveh_realinfo+where+lng+%3C73.66+or+lng+%3E135.05+or+lat+%3C+3.86+or+lat+%3E53.55+limit+1&amp;members=&amp;limit=0&amp;_=1578563382007</t>
+  </si>
+  <si>
+    <t>{"result":[["java.lang.Integer",374583]]}</t>
+  </si>
+  <si>
+    <t>位置坐标为0,0</t>
+  </si>
+  <si>
+    <t>?query=select+count(1)+from+%2Fveh_realinfo+where+lng%3D0+and+lat%3D0+limit+1&amp;members=&amp;limit=0&amp;_=1578563056235</t>
+  </si>
+  <si>
+    <t>{"result":[["java.lang.Integer",369622]]}</t>
   </si>
 </sst>
 </file>
@@ -606,14 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
@@ -628,10 +663,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,16 +685,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,8 +753,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,6 +770,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,66 +799,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -772,7 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +839,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +887,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +959,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,73 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,37 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,6 +1006,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -977,6 +1038,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,11 +1077,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,95 +1106,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,100 +1162,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,20 +1260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1614,7 +1657,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1670,7 +1713,7 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -1701,7 +1744,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1836,7 +1879,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1861,17 +1904,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2617,8 +2660,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2723,32 +2766,32 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
         <v>157</v>
@@ -2756,44 +2799,44 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
         <v>176</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>177</v>
       </c>
-      <c r="C10" t="s">
-        <v>178</v>
-      </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2871,16 +2914,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2890,4 +2933,110 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="26.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="52.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="204">
   <si>
     <t>desc</t>
   </si>
@@ -45,7 +45,7 @@
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"hangang","origin":"","status":"","userRole":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"c2da7bb67b354e32b140fa4676310de1","username":"hangang@bitnei.cn","nickName":"hangang","email":"hangang@bitnei.cn","password":"N/A","status":"ACTIVE","createBy":"hangang@bitnei.cn","createTime":"2019-09-16 13:50:38","tenant":"bitnei-cn","origin":"APPLY","admin":false,"super":false}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"c2da7bb67b354e32b140fa4676310de1","username":"hangang@bitnei.cn","nickName":"hangang","email":"hangang@bitnei.cn","mobile":"189****6589","password":"N/A","title":"","status":"ACTIVE","createBy":"hangang@bitnei.cn","createTime":"2019-09-16 13:50:38","tenant":"bitnei-cn","origin":"APPLY","super":false,"admin":false}]},"error":false}</t>
   </si>
   <si>
     <t>按手机号码查询用户</t>
@@ -54,7 +54,7 @@
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"18110024813","nickName":"","origin":"","status":"","userRole":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"系统管理员","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createBy":"zhanghailong@bitnei.cn","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","admin":true,"super":true}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"张海龙","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createBy":"zhanghailong@bitnei.cn","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
   </si>
   <si>
     <t>按创建时间查询用户</t>
@@ -69,9 +69,6 @@
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"","origin":"REGISTER","status":"","userRole":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"系统管理员","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createBy":"zhanghailong@bitnei.cn","createTime":"2019-07-12 15:18:48","lastUpdateTime":"2019-12-23 10:27:48","tenant":"bitnei-cn","origin":"REGISTER","admin":true,"super":true}],"error":false}</t>
-  </si>
-  <si>
     <t>按邮箱查询用户</t>
   </si>
   <si>
@@ -81,7 +78,7 @@
     <t>按用户角色（超管）查询用户</t>
   </si>
   <si>
-    <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"","origin":"","status":"","userRole":"USER_SUPER_ADMIN"}</t>
+    <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"","origin":"REGISTER","status":"","userRole":"USER_SUPER_ADMIN"}</t>
   </si>
   <si>
     <t>邀请用户hangang@bitnei.cn已经存在</t>
@@ -165,15 +162,6 @@
     <t>/api-center/api</t>
   </si>
   <si>
-    <t>用户已经存在</t>
-  </si>
-  <si>
-    <t>/user-center/user/register</t>
-  </si>
-  <si>
-    <t>?email=hangang@bitnei.cn&amp;force=false</t>
-  </si>
-  <si>
     <t>分组列表搜索</t>
   </si>
   <si>
@@ -183,7 +171,7 @@
     <t>?name=hg%E6%96%B0%E5%A2%9E%E5%88%86%E7%BB%84</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"a946dfe8a5504db2bdfd5f26be1a4071","name":"hg新增分组","description":"","createBy":"zhanghailong@bitnei.cn","createTime":"1970-01-01 10:50:26","tenant":"bitnei-cn"}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"a946dfe8a5504db2bdfd5f26be1a4071","name":"hg新增分组","description":"","createBy":"zhanghailong@bitnei.cn","tenant":"bitnei-cn"}],"error":false}</t>
   </si>
   <si>
     <t>API管理用户获取TOKEN接口查询</t>
@@ -333,7 +321,7 @@
     <t>接口文档列表</t>
   </si>
   <si>
-    <t>/api-center/api/getCommonApiList</t>
+    <t>/api-center/open/api/getCommonApiList</t>
   </si>
   <si>
     <t>用户获取TOKEN接口获取列表</t>
@@ -360,16 +348,16 @@
     <t>/user-center/tenant/list</t>
   </si>
   <si>
-    <t>{"email":"","endTime":"","mobile":"","origin":"","startTime":"","status":"","tenant":"新源科技"}</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"9c178ab462874ed28e92d245310e719f","organization":"新源科技","tenant":"bitnei-cn","contactName":"张海龙","contactEmail":"zhanghailong@bitnei.cn","connectMobile":"18110024813","origin":"REGISTER_FREE","createTime":"2019-07-12 15:18:48","status":"ACTIVE","title":null,"superId":"782783112a42461298fbea5e0b5942c3"}],"error":false}</t>
+    <t>{"startTime":"","endTime":"","email":"","mobile":"","origin":"REGISTER_FREE","status":"","tenant":"新源科技"}</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"id":"9c178ab462874ed28e92d245310e719f","organization":"新源科技","tenant":"bitnei-cn","contactName":"张海龙","contactEmail":"zhanghailong@bitnei.cn","connectMobile":"18110024813","origin":"REGISTER_FREE","createTime":"2019-07-12 15:18:48","status":"ACTIVE","title":"test","superId":"782783112a42461298fbea5e0b5942c3","createBy":"SaaS@bitnei.cn","projectName":"新能源汽车大数据平台","logo":null}]},"error":false}</t>
   </si>
   <si>
     <t>按手机号码查询租户</t>
   </si>
   <si>
-    <t>{"startTime":"","endTime":"","email":"","mobile":"18110024813","origin":"","status":"","tenant":""}</t>
+    <t>{"startTime":"","endTime":"","email":"","mobile":"18110024813","origin":"REGISTER_FREE","status":"","tenant":""}</t>
   </si>
   <si>
     <t>按创建时间查询租户</t>
@@ -378,7 +366,7 @@
     <t>{"startTime":"2019-07-13 04:55:07","endTime":"2019-07-14 04:55:07","email":"","mobile":"","origin":"","status":"","tenant":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"39246a3068db4b9f898e09930f1c1b1e","organization":"lgxy","tenant":"bitnei-cn241053","contactName":"tzy","contactEmail":"tangzhiyuan@bitnei.cn","connectMobile":"13333333333","origin":"REGISTER_FREE","createTime":"2019-07-13 09:42:08","status":"ACTIVE","title":null,"superId":"161722287b0647e9bc3660f03431cc57","createBy":"tangzhiyuan@bitnei.cn"}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"id":"39246a3068db4b9f898e09930f1c1b1e","organization":"lgxy","tenant":"bitnei-cn241053","contactName":"tzy","contactEmail":"tangzhiyuan@bitnei.cn","connectMobile":"13333333333","origin":"REGISTER_FREE","createTime":"2019-07-13 09:42:08","status":"ACTIVE","title":"","superId":"161722287b0647e9bc3660f03431cc57","createBy":"tangzhiyuan@bitnei.cn","projectName":"新能源汽车大数据平台","userQuantity":0,"logo":null}]},"error":false}</t>
   </si>
   <si>
     <t>按用户类型和邮箱查询租户</t>
@@ -405,7 +393,16 @@
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"","origin":"","status":"","userRole":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"9a5703ed2e9e46a7b31c82b0105b7c41","username":"zhanghr@yuanian.com","nickName":"xdf","email":"zhanghr@yuanian.com","mobile":"13234454556","password":"N/A","title":null,"status":"ACTIVE","createBy":"zhanghr@yuanian.com","createTime":"2019-08-05 16:10:42","lastUpdateTime":"2019-08-05 16:10:42","tenant":"yuanian-com","origin":"REGISTER","admin":true,"super":true}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"9a5703ed2e9e46a7b31c82b0105b7c41","username":"zhanghr@yuanian.com","nickName":"xdf","email":"zhanghr@yuanian.com","mobile":"13234454556","password":"N/A","title":null,"status":"ACTIVE","createBy":"zhanghr@yuanian.com","createTime":"2019-08-05 16:10:42","lastUpdateTime":"2019-08-05 16:10:42","tenant":"yuanian-com","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
+  </si>
+  <si>
+    <t>后台租户邀请用户已存在</t>
+  </si>
+  <si>
+    <t>/user-center/user/bitnei-cn/invite</t>
+  </si>
+  <si>
+    <t>{"admin":false,"email":"hangang@bitnei.cn","mobile":"13411112222","nickName":"hangang","title":""}</t>
   </si>
   <si>
     <t>stat_alarm</t>
@@ -628,6 +625,15 @@
   </si>
   <si>
     <t>{"result":[["java.lang.Integer",369622]]}</t>
+  </si>
+  <si>
+    <t>位置坐标正常</t>
+  </si>
+  <si>
+    <t>?query=select+count(1)+from+%2Fveh_realinfo+where+lng+%3E73.66+and+lng+%3C135.05+and+lat+%3E+3.86+and+lat+%3C53.55++limit+1&amp;members=&amp;limit=0&amp;_=1578621101331</t>
+  </si>
+  <si>
+    <t>{"result":[["java.lang.Integer",1876945]]}</t>
   </si>
 </sst>
 </file>
@@ -671,8 +677,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,31 +731,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,27 +744,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,36 +761,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,13 +783,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -812,6 +818,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -821,7 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +875,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,157 +989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,15 +1012,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1038,26 +1035,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,6 +1069,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1106,153 +1092,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,7 +1606,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1678,18 +1684,18 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1697,13 +1703,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1711,16 +1717,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1771,100 +1777,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1876,10 +1882,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1895,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1904,25 +1910,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
       <c r="C3" t="s">
@@ -1954,31 +1960,31 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
@@ -2060,46 +2066,46 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2109,44 +2115,30 @@
       <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" t="s">
         <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2158,16 +2150,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="33.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="38.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="57.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="38.8181818181818" customWidth="1"/>
   </cols>
@@ -2188,86 +2180,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>124</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>126</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2315,13 +2321,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2329,13 +2335,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2343,13 +2349,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2357,13 +2363,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2371,13 +2377,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2385,13 +2391,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2399,13 +2405,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2413,13 +2419,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2427,13 +2433,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2441,13 +2447,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2455,13 +2461,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -2469,13 +2475,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -2483,13 +2489,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -2497,13 +2503,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2511,13 +2517,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -2525,13 +2531,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -2539,13 +2545,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -2553,13 +2559,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -2567,13 +2573,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2581,13 +2587,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -2595,13 +2601,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -2609,13 +2615,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -2623,13 +2629,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -2637,13 +2643,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2660,8 +2666,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2687,156 +2693,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
         <v>161</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>162</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>163</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
         <v>166</v>
       </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
         <v>168</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>169</v>
       </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>172</v>
-      </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
         <v>173</v>
       </c>
-      <c r="B9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" t="s">
-        <v>174</v>
-      </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
         <v>175</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>176</v>
       </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
         <v>178</v>
       </c>
-      <c r="B11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
         <v>180</v>
-      </c>
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2914,16 +2920,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>184</v>
-      </c>
-      <c r="D2" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2938,13 +2944,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="26.4545454545455" customWidth="1"/>
@@ -2956,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2967,72 +2973,86 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="apipost" sheetId="13" r:id="rId7"/>
     <sheet name="apipostparas" sheetId="14" r:id="rId8"/>
     <sheet name="geodedata" sheetId="15" r:id="rId9"/>
+    <sheet name="平安保险" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="226">
   <si>
     <t>desc</t>
   </si>
@@ -634,6 +635,72 @@
   </si>
   <si>
     <t>{"result":[["java.lang.Integer",1876945]]}</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>平安标签调用正常</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/insurance/lable</t>
+  </si>
+  <si>
+    <t>?vin=AFljhq9A/QehWzuUTaWTAcCRvWkBaukB42u0UZV6MKhfebcXZmO/DvmOI6y8SQgCSPbcQ7SbWtaT6SCIwtgPP48SLkTvWMnFeZOtAgmewiTNUeswSZK8v3xoyloYqAz0UxhtJTfDnCdNfEdxEgYP9R9Su0ns8wpwYqMJG7EVzHo=</t>
+  </si>
+  <si>
+    <t>XyiZs5p41ACCwp8OM0J1GaAUH/RGRn1loRxbId6Vpo1iNiDntAL7X6JqskamA2CFG0avqCoLUcbJEpwHsJqoOAHg9YBIcHxXi5QaQmK5HiO6PhK5b2enayWxe+OnOO2zu2NxQ63mCE/YVVhBtKSGLXDRCXIHIrTPZQi7Gj0zdZ0=</t>
+  </si>
+  <si>
+    <t>1581407620143</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":22.0257,"mileage_12":6303.0,"mileage_24":3623.0,"mileage_36":0.0,"avg_run_time_length_monthly":1.6908846153846152E7,"avg_run_speed":319.0673120668706,"brake_acc_count_per_100km":0.0,"acc_count_per_100km":0.0,"speed_range00_rate":0.2437958755679832,"speed_range20_rate":0.18437609227542817,"speed_range40_rate":0.19608528486543167,"speed_range60_rate":0.06675987416987067,"speed_range80_rate":0.00611674239776302,"speed_range100_rate":8.738203425375742E-4,"speed_range120_rate":0.0,"speed_range140_rate":0.0,"fatigue_driving_rate":0.0,"avg_run_days_monthly":7.769230769230769,"avg_run_count_monthly":12.076923076923077,"avg_fast_charge_count_monthly":0.0,"avg_slow_charge_count_monthly":1.9090909090909092},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>平安标签vin未加密码</t>
+  </si>
+  <si>
+    <t>?vin=LGXC76C36G0156932</t>
+  </si>
+  <si>
+    <t>{"status":406,"errorMsg":"确保VIN是否已加密！","data":null,"error":true,"code":"40000"}</t>
+  </si>
+  <si>
+    <t>平安标签时间戳错误认证失败</t>
+  </si>
+  <si>
+    <t>1581407620140</t>
+  </si>
+  <si>
+    <t>{"status":406,"errorMsg":"验签失败！","data":null,"error":true,"code":"40000"}</t>
+  </si>
+  <si>
+    <t>平安标签签名长度不正确</t>
+  </si>
+  <si>
+    <t>yiZs5p41ACCwp8OM0J1GaAUH/RGRn1loRxbId6Vpo1iNiDntAL7X6JqskamA2CFG0avqCoLUcbJEpwHsJqoOAHg9YBIcHxXi5QaQmK5HiO6PhK5b2enayWxe+OnOO2zu2NxQ63mCE/YVVhBtKSGLXDRCXIHIrTPZQi7Gj0zdZ0=</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":"Signature length not correct: got 127 but was expecting 128","data":null,"error":true,"code":"40000"}</t>
+  </si>
+  <si>
+    <t>平安标签查询vin内容不存在</t>
+  </si>
+  <si>
+    <t>?vin=HbkvkJ4hp/dyFkgYd73SkY4rUgVkldvzMKLOSH9M4UZgJATl7mo97PeqhVip/WP6iwioAiSMIN4KGUGF5zG8xHZibsr2vl1oIypNDAqbUf0s5xHW2moPsezG/edhntbeDRpAqV+PIlvq0kblkVewus3A++vX32GHm70rs7xbJ6Y=</t>
+  </si>
+  <si>
+    <t>cw1EWG0f1cHwAvEfyifsToWHBy2CJkmeKu6cDwPMy9mW2K8ZgfJFZyteVatJAMpmWGAk2d17//F25cwP9phjoAlRT7IKBA1OQUMyN2IsDQJOukh12d7e9zt3Yd/cZaUp1mBTt8AZgtq1l45i0+p5cbGC7yJUn+hYZ8uXf2BOtr4=</t>
+  </si>
+  <si>
+    <t>1581408151875</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":null,"mileage_12":null,"mileage_24":null,"mileage_36":null,"avg_run_time_length_monthly":null,"avg_run_speed":null,"brake_acc_count_per_100km":null,"acc_count_per_100km":null,"speed_range00_rate":null,"speed_range20_rate":null,"speed_range40_rate":null,"speed_range60_rate":null,"speed_range80_rate":null,"speed_range100_rate":null,"speed_range120_rate":null,"speed_range140_rate":null,"fatigue_driving_rate":null,"avg_run_days_monthly":null,"avg_run_count_monthly":null,"avg_fast_charge_count_monthly":null,"avg_slow_charge_count_monthly":null},"error":false,"code":"10000"}</t>
   </si>
 </sst>
 </file>
@@ -642,9 +709,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -677,47 +744,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +759,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,31 +781,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,14 +819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,16 +827,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -821,7 +888,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,13 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +978,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,13 +1026,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,91 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,24 +1084,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,6 +1104,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,43 +1159,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,148 +1184,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,13 +1333,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1283,6 +1350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1635,7 +1705,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1649,7 +1719,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1677,7 +1747,7 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1691,7 +1761,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -1705,7 +1775,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -1740,6 +1810,151 @@
     <hyperlink ref="B5" r:id="rId1" display="/user-center/userInfo/userWithRoles"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="27.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="26.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="29.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="20.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="17.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="68.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1779,7 +1994,7 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1793,7 +2008,7 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
@@ -1885,7 +2100,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1900,7 +2115,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C1" t="s">
@@ -1914,7 +2129,7 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
@@ -2123,7 +2338,7 @@
       <c r="A18" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D18" t="s">
@@ -2152,7 +2367,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2182,7 +2397,7 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C2" t="s">
@@ -2196,7 +2411,7 @@
       <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C3" t="s">
@@ -2210,7 +2425,7 @@
       <c r="A4" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C4" t="s">
@@ -2224,7 +2439,7 @@
       <c r="A5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C5" t="s">
@@ -2323,7 +2538,7 @@
       <c r="A2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C2" t="s">
@@ -2337,7 +2552,7 @@
       <c r="A3" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C3" t="s">
@@ -2351,7 +2566,7 @@
       <c r="A4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C4" t="s">
@@ -2365,7 +2580,7 @@
       <c r="A5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C5" t="s">
@@ -2379,7 +2594,7 @@
       <c r="A6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C6" t="s">
@@ -2393,7 +2608,7 @@
       <c r="A7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C7" t="s">
@@ -2407,7 +2622,7 @@
       <c r="A8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C8" t="s">
@@ -2421,7 +2636,7 @@
       <c r="A9" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C9" t="s">
@@ -2435,7 +2650,7 @@
       <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C10" t="s">
@@ -2449,7 +2664,7 @@
       <c r="A11" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C11" t="s">
@@ -2463,7 +2678,7 @@
       <c r="A12" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C12" t="s">
@@ -2477,7 +2692,7 @@
       <c r="A13" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C13" t="s">
@@ -2491,7 +2706,7 @@
       <c r="A14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C14" t="s">
@@ -2505,7 +2720,7 @@
       <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C15" t="s">
@@ -2519,7 +2734,7 @@
       <c r="A16" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C16" t="s">
@@ -2533,7 +2748,7 @@
       <c r="A17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C17" t="s">
@@ -2547,7 +2762,7 @@
       <c r="A18" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C18" t="s">
@@ -2561,7 +2776,7 @@
       <c r="A19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C19" t="s">
@@ -2575,7 +2790,7 @@
       <c r="A20" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C20" t="s">
@@ -2589,7 +2804,7 @@
       <c r="A21" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C21" t="s">
@@ -2603,7 +2818,7 @@
       <c r="A22" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C22" t="s">
@@ -2617,7 +2832,7 @@
       <c r="A23" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C23" t="s">
@@ -2631,7 +2846,7 @@
       <c r="A24" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C24" t="s">
@@ -2645,7 +2860,7 @@
       <c r="A25" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C25" t="s">
@@ -2961,7 +3176,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C1" t="s">
@@ -2971,73 +3186,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>200</v>
       </c>
     </row>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="217">
   <si>
     <t>desc</t>
   </si>
@@ -184,7 +184,7 @@
     <t>?apiName=%E7%94%A8%E6%88%B7%E8%8E%B7%E5%8F%96TOKEN%E6%8E%A5%E5%8F%A3&amp;pageNumber=1&amp;pageSize=12</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"pageNumber":1,"pageSize":12,"start":0,"list":[{"id":"1","name":"用户获取TOKEN接口","description":"用户获取token","strategy":null,"apiThrottleStrategy":null,"type":"2"}]},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"error":false}</t>
   </si>
   <si>
     <t>单车画像查询</t>
@@ -205,9 +205,6 @@
     <t>/vehicle-info/portrait/getModelPortrait</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"modelPortrait":{"model_name":"BJ7000C5E7-BEV","avg_charge_times_month":22.0,"quick_percent_month":71,"avg_start_soc":34,"avg_end_soc":77,"avg_charge_time_length":"0h54min","half_price_times":79,"city_percent":"昆明市:31_北京市:27_其他:42","cars_nu":3517,"dict_percent":"公务乘用车:72_出租乘用车:26_其他:2","active_percent":100,"avg_run_mileage_month":4812.5,"start_soc_20_less_percent":1,"holiday_percent":32,"avg_run_days_month":21.0,"avg_run_times_month":132.0,"run_100km_more_percent":8,"run_20km_less_percent":47,"workday_percent":68,"material":"三元","produce_date":"2017","cell_enterprise":"CATL","power_amount":"","veh_level":"紧凑型车","power_type":"BEV","drive_range_ev":"300","brand":"北京","power_100km":"16.4","reduce_percent":"2.33","actual_drive_range":"230","prediction_life_time":"46.21","avg_alarm_level1_2_3_nu_month":"三级:1_二级:1_一级:1","avg_bat_fault_nu_month":null,"avg_bat_fault_nu_month_num":"3","alarm_name_percent":"制动系统报警:22_SOC低报警:67","avg_alarm_nu_month":null},"modelCapacityCurveList":[{"boxKey":"BJ7000C5E7-BEV","mil":0.0,"vol":"127.8"},{"boxKey":"BJ7000C5E7-BEV","mil":5000.0,"vol":"127.5"},{"boxKey":"BJ7000C5E7-BEV","mil":10000.0,"vol":"127.2"},{"boxKey":"BJ7000C5E7-BEV","mil":15000.0,"vol":"126.9"},{"boxKey":"BJ7000C5E7-BEV","mil":20000.0,"vol":"126.6"},{"boxKey":"BJ7000C5E7-BEV","mil":25000.0,"vol":"126.3"},{"boxKey":"BJ7000C5E7-BEV","mil":30000.0,"vol":"126.0"},{"boxKey":"BJ7000C5E7-BEV","mil":35000.0,"vol":"125.7"},{"boxKey":"BJ7000C5E7-BEV","mil":40000.0,"vol":"125.4"},{"boxKey":"BJ7000C5E7-BEV","mil":45000.0,"vol":"125.0"},{"boxKey":"BJ7000C5E7-BEV","mil":50000.0,"vol":"124.7"},{"boxKey":"BJ7000C5E7-BEV","mil":55000.0,"vol":"124.4"},{"boxKey":"BJ7000C5E7-BEV","mil":60000.0,"vol":"124.1"},{"boxKey":"BJ7000C5E7-BEV","mil":65000.0,"vol":"123.8"},{"boxKey":"BJ7000C5E7-BEV","mil":70000.0,"vol":"123.5"},{"boxKey":"BJ7000C5E7-BEV","mil":75000.0,"vol":"123.2"},{"boxKey":"BJ7000C5E7-BEV","mil":80000.0,"vol":"122.9"},{"boxKey":"BJ7000C5E7-BEV","mil":85000.0,"vol":"122.6"},{"boxKey":"BJ7000C5E7-BEV","mil":90000.0,"vol":"122.3"},{"boxKey":"BJ7000C5E7-BEV","mil":95000.0,"vol":"122.0"},{"boxKey":"BJ7000C5E7-BEV","mil":100000.0,"vol":"121.7"},{"boxKey":"BJ7000C5E7-BEV","mil":105000.0,"vol":"121.4"},{"boxKey":"BJ7000C5E7-BEV","mil":110000.0,"vol":"121.1"},{"boxKey":"BJ7000C5E7-BEV","mil":115000.0,"vol":"120.7"},{"boxKey":"BJ7000C5E7-BEV","mil":120000.0,"vol":"120.4"},{"boxKey":"BJ7000C5E7-BEV","mil":125000.0,"vol":"120.1"},{"boxKey":"BJ7000C5E7-BEV","mil":130000.0,"vol":"119.8"},{"boxKey":"BJ7000C5E7-BEV","mil":135000.0,"vol":"119.5"},{"boxKey":"BJ7000C5E7-BEV","mil":140000.0,"vol":"119.2"},{"boxKey":"BJ7000C5E7-BEV","mil":145000.0,"vol":"118.9"},{"boxKey":"BJ7000C5E7-BEV","mil":150000.0,"vol":"118.6"},{"boxKey":"BJ7000C5E7-BEV","mil":155000.0,"vol":"118.3"},{"boxKey":"BJ7000C5E7-BEV","mil":160000.0,"vol":"118.0"},{"boxKey":"BJ7000C5E7-BEV","mil":165000.0,"vol":"117.7"},{"boxKey":"BJ7000C5E7-BEV","mil":170000.0,"vol":"117.4"},{"boxKey":"BJ7000C5E7-BEV","mil":175000.0,"vol":"117.1"},{"boxKey":"BJ7000C5E7-BEV","mil":180000.0,"vol":"116.8"},{"boxKey":"BJ7000C5E7-BEV","mil":185000.0,"vol":"116.4"},{"boxKey":"BJ7000C5E7-BEV","mil":190000.0,"vol":"116.1"},{"boxKey":"BJ7000C5E7-BEV","mil":195000.0,"vol":"115.8"},{"boxKey":"BJ7000C5E7-BEV","mil":200000.0,"vol":"115.5"},{"boxKey":"BJ7000C5E7-BEV","mil":205000.0,"vol":"115.2"},{"boxKey":"BJ7000C5E7-BEV","mil":210000.0,"vol":"114.9"},{"boxKey":"BJ7000C5E7-BEV","mil":215000.0,"vol":"114.6"},{"boxKey":"BJ7000C5E7-BEV","mil":220000.0,"vol":"114.3"},{"boxKey":"BJ7000C5E7-BEV","mil":225000.0,"vol":"114.0"},{"boxKey":"BJ7000C5E7-BEV","mil":230000.0,"vol":"113.7"},{"boxKey":"BJ7000C5E7-BEV","mil":235000.0,"vol":"113.4"},{"boxKey":"BJ7000C5E7-BEV","mil":240000.0,"vol":"113.1"},{"boxKey":"BJ7000C5E7-BEV","mil":245000.0,"vol":"112.8"},{"boxKey":"BJ7000C5E7-BEV","mil":250000.0,"vol":"112.5"},{"boxKey":"BJ7000C5E7-BEV","mil":255000.0,"vol":"112.1"},{"boxKey":"BJ7000C5E7-BEV","mil":260000.0,"vol":"111.8"},{"boxKey":"BJ7000C5E7-BEV","mil":265000.0,"vol":"111.5"},{"boxKey":"BJ7000C5E7-BEV","mil":270000.0,"vol":"111.2"},{"boxKey":"BJ7000C5E7-BEV","mil":275000.0,"vol":"110.9"},{"boxKey":"BJ7000C5E7-BEV","mil":280000.0,"vol":"110.6"},{"boxKey":"BJ7000C5E7-BEV","mil":285000.0,"vol":"110.3"},{"boxKey":"BJ7000C5E7-BEV","mil":290000.0,"vol":"110.0"},{"boxKey":"BJ7000C5E7-BEV","mil":295000.0,"vol":"109.7"},{"boxKey":"BJ7000C5E7-BEV","mil":300000.0,"vol":"109.4"},{"boxKey":"BJ7000C5E7-BEV","mil":305000.0,"vol":"109.1"},{"boxKey":"BJ7000C5E7-BEV","mil":310000.0,"vol":"108.8"},{"boxKey":"BJ7000C5E7-BEV","mil":315000.0,"vol":"108.5"},{"boxKey":"BJ7000C5E7-BEV","mil":320000.0,"vol":"108.2"},{"boxKey":"BJ7000C5E7-BEV","mil":325000.0,"vol":"107.8"},{"boxKey":"BJ7000C5E7-BEV","mil":330000.0,"vol":"107.5"},{"boxKey":"BJ7000C5E7-BEV","mil":335000.0,"vol":"107.2"},{"boxKey":"BJ7000C5E7-BEV","mil":340000.0,"vol":"106.9"},{"boxKey":"BJ7000C5E7-BEV","mil":345000.0,"vol":"106.6"},{"boxKey":"BJ7000C5E7-BEV","mil":350000.0,"vol":"106.3"},{"boxKey":"BJ7000C5E7-BEV","mil":355000.0,"vol":"106.0"},{"boxKey":"BJ7000C5E7-BEV","mil":360000.0,"vol":"105.7"},{"boxKey":"BJ7000C5E7-BEV","mil":365000.0,"vol":"105.4"},{"boxKey":"BJ7000C5E7-BEV","mil":370000.0,"vol":"105.1"},{"boxKey":"BJ7000C5E7-BEV","mil":375000.0,"vol":"104.8"},{"boxKey":"BJ7000C5E7-BEV","mil":380000.0,"vol":"104.5"},{"boxKey":"BJ7000C5E7-BEV","mil":385000.0,"vol":"104.2"},{"boxKey":"BJ7000C5E7-BEV","mil":390000.0,"vol":"103.9"},{"boxKey":"BJ7000C5E7-BEV","mil":395000.0,"vol":"103.5"},{"boxKey":"BJ7000C5E7-BEV","mil":400000.0,"vol":"103.2"},{"boxKey":"BJ7000C5E7-BEV","mil":405000.0,"vol":"102.9"},{"boxKey":"BJ7000C5E7-BEV","mil":410000.0,"vol":"102.6"},{"boxKey":"BJ7000C5E7-BEV","mil":415000.0,"vol":"102.3"}]},"error":false}</t>
-  </si>
-  <si>
     <t>单车画像列表查询</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>新增数据集页面跳转</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"error":false}</t>
-  </si>
-  <si>
     <t>新增报表获取仪表盘名称</t>
   </si>
   <si>
@@ -532,40 +526,19 @@
     <t>/external-api/lbs/test/vehicle/locations?</t>
   </si>
   <si>
-    <t>vin=L1HBBDA52JS000282&amp;fromDate=2019-10-20%2007:16:20&amp;toDate=2019-10-20%2007:16:30</t>
+    <t>vin=L1HBBDA52JS000282&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
   </si>
   <si>
     <t>获取车辆轨迹接口参数carNO</t>
   </si>
   <si>
-    <t>carNO=%E7%B2%A4T09400D&amp;fromDate=2019-10-20%2007:16:20&amp;toDate=2019-10-20%2007:16:30</t>
+    <t>carNO=%E7%B2%A4T09400D&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
   </si>
   <si>
     <t>获取车辆轨迹接口返回为空</t>
   </si>
   <si>
-    <t>vin=123&amp;fromDate=2019-10-20%2007:16:20&amp;toDate=2019-10-20%2007:16:30</t>
-  </si>
-  <si>
-    <t>获取车辆风险评分和三年内行驶里程参数vin</t>
-  </si>
-  <si>
-    <t>/external-api/vrm/insurance/lable?</t>
-  </si>
-  <si>
-    <t>vin=L6T78Y4W1HN038079</t>
-  </si>
-  <si>
-    <t>获取车辆风险评分和三年内行驶里程参数carNO</t>
-  </si>
-  <si>
-    <t>carNO=%E4%BA%ACN05EV5</t>
-  </si>
-  <si>
-    <t>获取车辆风险评分和三年内行驶里程参数返回为空</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"risk_score":null,"mileage_12":null,"mileage_24":null,"mileage_36":null},"error":false,"code":"10000"}</t>
+    <t>vin=123&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
   </si>
   <si>
     <t>API接口EC动力接收充电数据</t>
@@ -691,7 +664,7 @@
     <t>平安标签查询vin内容不存在</t>
   </si>
   <si>
-    <t>?vin=HbkvkJ4hp/dyFkgYd73SkY4rUgVkldvzMKLOSH9M4UZgJATl7mo97PeqhVip/WP6iwioAiSMIN4KGUGF5zG8xHZibsr2vl1oIypNDAqbUf0s5xHW2moPsezG/edhntbeDRpAqV+PIlvq0kblkVewus3A++vX32GHm70rs7xbJ6Y=</t>
+    <t>?vin=HbkvkJ4hp%2FdyFkgYd73SkY4rUgVkldvzMKLOSH9M4UZgJATl7mo97PeqhVip%2FWP6iwioAiSMIN4KGUGF5zG8xHZibsr2vl1oIypNDAqbUf0s5xHW2moPsezG%2FedhntbeDRpAqV%2BPIlvq0kblkVewus3A%2B%2BvX32GHm70rs7xbJ6Y%3D</t>
   </si>
   <si>
     <t>cw1EWG0f1cHwAvEfyifsToWHBy2CJkmeKu6cDwPMy9mW2K8ZgfJFZyteVatJAMpmWGAk2d17//F25cwP9phjoAlRT7IKBA1OQUMyN2IsDQJOukh12d7e9zt3Yd/cZaUp1mBTt8AZgtq1l45i0+p5cbGC7yJUn+hYZ8uXf2BOtr4=</t>
@@ -708,9 +681,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -758,18 +731,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,6 +755,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,51 +836,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -868,14 +849,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -894,7 +867,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +921,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,19 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,13 +999,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,103 +1041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,26 +1057,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,32 +1082,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,24 +1105,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,145 +1157,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1676,7 +1649,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1819,8 +1792,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1844,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1855,102 +1828,102 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>208</v>
-      </c>
-      <c r="D4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2099,8 +2072,8 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2178,182 +2151,182 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
         <v>100</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2395,69 +2368,69 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
         <v>112</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -2465,27 +2438,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
         <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>126</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -2536,13 +2509,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2550,13 +2523,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2564,13 +2537,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2578,13 +2551,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2592,13 +2565,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2606,13 +2579,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -2620,13 +2593,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -2634,13 +2607,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2648,13 +2621,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2662,13 +2635,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -2676,13 +2649,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -2690,13 +2663,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -2704,13 +2677,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -2718,13 +2691,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2732,13 +2705,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -2746,13 +2719,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -2760,13 +2733,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -2774,13 +2747,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -2788,13 +2761,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2802,13 +2775,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -2816,13 +2789,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -2830,13 +2803,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -2844,13 +2817,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -2858,13 +2831,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2879,10 +2852,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2908,156 +2881,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
         <v>160</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
         <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
         <v>167</v>
       </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3135,16 +3066,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3188,86 +3119,86 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,26 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="saasget" sheetId="3" r:id="rId3"/>
     <sheet name="backsaas" sheetId="4" r:id="rId4"/>
-    <sheet name="yiqidata" sheetId="5" r:id="rId5"/>
-    <sheet name="apicode" sheetId="11" r:id="rId6"/>
-    <sheet name="apipost" sheetId="13" r:id="rId7"/>
-    <sheet name="apipostparas" sheetId="14" r:id="rId8"/>
-    <sheet name="geodedata" sheetId="15" r:id="rId9"/>
-    <sheet name="平安保险" sheetId="16" r:id="rId10"/>
+    <sheet name="apicode" sheetId="11" r:id="rId5"/>
+    <sheet name="apipost" sheetId="13" r:id="rId6"/>
+    <sheet name="apipostparas" sheetId="14" r:id="rId7"/>
+    <sheet name="geodedata" sheetId="15" r:id="rId8"/>
+    <sheet name="平安保险" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="191">
   <si>
     <t>desc</t>
   </si>
@@ -398,84 +397,6 @@
   </si>
   <si>
     <t>{"admin":false,"email":"hangang@bitnei.cn","mobile":"13411112222","nickName":"hangang","title":""}</t>
-  </si>
-  <si>
-    <t>stat_alarm</t>
-  </si>
-  <si>
-    <t>/ras/dataset/create</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_active_time","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_active_time_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_active_time_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_active_time_level"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_env_temp","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_env_temp_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_env_temp_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_env_temp_level"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_mileage","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_mileage_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_mileage_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_mileage_level"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_power","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_power_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_power_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_power_level"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_run_time","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_run_time_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_run_time_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_run_time_level"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_soc","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_soc_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_soc_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_soc_level"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_speed","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_speed_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_speed_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_speed_level"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_summery","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_summery_code","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_code"],"starSchemas":[]}</t>
-  </si>
-  <si>
-    <t>{"dataSetName":"stat_alarm_summery_level","dataSourceList":[{"dataSourceType":"mysql","dataSourceID":"DATASOURCEcf953f60e7184f0cbacecc72bae129e6","dataSourceName":"一汽"}],"selectedTables":["DATASOURCEcf953f60e7184f0cbacecc72bae129e6.stat_alarm_summery_level"],"starSchemas":[]}</t>
   </si>
   <si>
     <t>好车伯乐接口返回为空</t>
@@ -681,9 +602,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -718,43 +639,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,24 +653,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,6 +682,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -813,9 +728,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,19 +758,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -861,187 +782,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,8 +979,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,8 +1003,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,11 +1035,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,17 +1065,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,10 +1081,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,133 +1093,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1787,151 +1708,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="27.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="26.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="29.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="20.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="17.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="68.4545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2072,7 +1848,7 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2479,379 +2255,6 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="73.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2881,114 +2284,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2997,7 +2400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>
@@ -3033,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -3066,16 +2469,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3087,13 +2490,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -3119,86 +2522,231 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="27.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="26.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="29.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="20.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="17.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="68.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>177</v>
       </c>
-      <c r="C7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" t="s">
-        <v>194</v>
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
     <t>vin=LGXCD4D48J0211179</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"brand":"比亚迪","bsie":18.0,"bulletinNO":"BYD6460STHEV10","joinTime":"2019-07-27 06:31:16","platform":"私人","series":"未知","seurityMonitor":true,"type":"BYD6460STHEV10","use":"02","vin":"14b8e610b61d2e7e6102144c1fa9df24"},"error":false,"code":"10000"}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"brand":"比亚迪","bsie":18.0,"bulletinNO":"BYD6460STHEV10","platform":"私人","series":"未知","seurityMonitor":true,"type":"BYD6460STHEV10","use":"02","vin":"14b8e610b61d2e7e6102144c1fa9df24"},"error":false,"code":"10000"}</t>
   </si>
   <si>
     <t>获取车辆实时位置及里程接口参数vin</t>
@@ -602,10 +602,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -638,15 +638,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,15 +694,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,15 +735,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,53 +753,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,11 +766,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -782,31 +782,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,25 +932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,121 +956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +973,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1002,50 +1050,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,162 +1073,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2257,8 +2257,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2441,8 +2441,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2495,7 +2495,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
   <si>
     <t>desc</t>
   </si>
@@ -54,7 +54,7 @@
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"18110024813","nickName":"","origin":"","status":"","userRole":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"张海龙","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createBy":"zhanghailong@bitnei.cn","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"张海龙","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
   </si>
   <si>
     <t>按创建时间查询用户</t>
@@ -69,6 +69,9 @@
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"","origin":"REGISTER","status":"","userRole":""}</t>
   </si>
   <si>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"张海龙","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createBy":"SaaS@bitnei.cn","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
+  </si>
+  <si>
     <t>按邮箱查询用户</t>
   </si>
   <si>
@@ -333,7 +336,7 @@
     <t>/api-center/requestParam/list/1</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"id":"960d6353f739496e874870937b731529","createDate":"2019-09-20 08:18:17","lastUpdateDate":null,"apiId":"1","name":"username","type":"sys_string","position":"query","required":true,"defaultValue":null,"createBy":"zhanghailong@bitnei.cn","tenant":"bitnei-cn","label":null,"description":"用户名"},{"id":"00c4da82117647dfbff016f096186e8a","createDate":"2019-09-20 08:18:37","lastUpdateDate":null,"apiId":"1","name":"password","type":"sys_string","position":"query","required":true,"defaultValue":null,"createBy":"zhanghailong@bitnei.cn","tenant":"bitnei-cn","label":null,"description":"密码"}],"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":[{"id":"960d6353f739496e874870937b731529","createDate":"2019-09-20 08:18:17","lastUpdateDate":null,"apiId":"1","name":"username","position":"query","required":true,"defaultValue":null,"createBy":"zhanghailong@bitnei.cn","tenant":"bitnei-cn","label":null,"description":"用户名"},{"id":"00c4da82117647dfbff016f096186e8a","createDate":"2019-09-20 08:18:37","lastUpdateDate":null,"apiId":"1","name":"password","position":"query","required":true,"defaultValue":null,"createBy":"zhanghailong@bitnei.cn","tenant":"bitnei-cn","label":null,"description":"密码"}],"error":false}</t>
   </si>
   <si>
     <t>按企业名称查询租户</t>
@@ -387,7 +390,7 @@
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"","origin":"","status":"","userRole":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"9a5703ed2e9e46a7b31c82b0105b7c41","username":"zhanghr@yuanian.com","nickName":"xdf","email":"zhanghr@yuanian.com","mobile":"13234454556","password":"N/A","title":null,"status":"ACTIVE","createBy":"zhanghr@yuanian.com","createTime":"2019-08-05 16:10:42","lastUpdateTime":"2019-08-05 16:10:42","tenant":"yuanian-com","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"9a5703ed2e9e46a7b31c82b0105b7c41","username":"zhanghr@yuanian.com","nickName":"xdf","email":"zhanghr@yuanian.com","mobile":"13234454556","password":"N/A","title":null,"status":"ACTIVE","createBy":"zhanghr@yuanian.com","createTime":"2019-08-05 16:10:42","tenant":"yuanian-com","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
   </si>
   <si>
     <t>后台租户邀请用户已存在</t>
@@ -594,7 +597,55 @@
     <t>1581408151875</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"risk_score":null,"mileage_12":null,"mileage_24":null,"mileage_36":null,"avg_run_time_length_monthly":null,"avg_run_speed":null,"brake_acc_count_per_100km":null,"acc_count_per_100km":null,"speed_range00_rate":null,"speed_range20_rate":null,"speed_range40_rate":null,"speed_range60_rate":null,"speed_range80_rate":null,"speed_range100_rate":null,"speed_range120_rate":null,"speed_range140_rate":null,"fatigue_driving_rate":null,"avg_run_days_monthly":null,"avg_run_count_monthly":null,"avg_fast_charge_count_monthly":null,"avg_slow_charge_count_monthly":null},"error":false,"code":"10000"}</t>
+    <t>精励联讯保险调用正常--LGXC76C3XJ0108468</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/genilex/insurance/lable</t>
+  </si>
+  <si>
+    <t>?vin=CEICmUK8TYpnFfkToJCvfC%2FGI%2FHxHhgNewUaf%2B2xJmtH4LpUD3HEvCfs8Vh9yEnjWViYEcRQUtnoUhdo3Cm95%2BrSd%2BBh5dhyqrXywGx7NHJfGuUWer4xkCF78e7qwwNoqzkv1DidMPpA45quVI0L8PMw%2BSMbYNiu70hVS5adN84%3D&amp;customerId=123</t>
+  </si>
+  <si>
+    <t>djKx876kY0HGWS4UKNCwasskI3j5vh92Y40L6eEmY7TzysROyIcPccFnFlE76BUUXfWz1YGDjUTa5rLx4HJzty3XQhQKZK23O76P6HfJJsg0slkBufD6J6aVgdIIfLo7Evny7PyJPDpHqRK3PvnTFxoge3AO+PHJe2HlGO29q1s=</t>
+  </si>
+  <si>
+    <t>1584338303978</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":24.41971292259522,"mileage_12":3.0,"mileage_24":1.0,"mileage_36":0.0},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>精励联讯保险调用正常--津AF05690</t>
+  </si>
+  <si>
+    <t>?licensePlate=FkgzYFyc2oOym3KJnuxGEABKA2p0p1c3PY4EVlCM9P13DvBK%2BO9loMrTduQA3wruxKdqKV9aqonahmuoocjdCa91amdP36DMya4zrePl9DQeW6XjT61GXmY5QqPIEXR1A7qKt8NSt5ck0dEUeqQT%2F%2FEOXXdvEnoWpnOeZ%2F6LG8A%3D&amp;customerId=123</t>
+  </si>
+  <si>
+    <t>UvgSk2dsQjj4A5nsVlvEUuJSMveTKY2Zx67HuWCDkGAmInoi2pjnVMHZm3cLA7OHlpQSMy2/X+OiFyN0RkMKPP1LlHaJvNAQV24zf102/eAj4I3QbL39yFbtEVs0mhS30zgduraATJ0uYrPzim0mzc8PhbX+RV4cm/1V49w7ycc=</t>
+  </si>
+  <si>
+    <t>1584339230681</t>
+  </si>
+  <si>
+    <t>精励联讯保险车架号与车牌号至少传一个</t>
+  </si>
+  <si>
+    <t>?customerId=123</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":"车架号与车牌号至少传一个","data":null,"error":true,"code":"40000"}</t>
+  </si>
+  <si>
+    <t>精励联讯保险查询vin无数据</t>
+  </si>
+  <si>
+    <t>?vin=KaXkK8k5Y3zhSSW1acBVm%2B%2BWOr5Kp8s1t5EWLAcftir1564%2BhsEdTemSjtk18KasjykZDWNshvLFIiQH1jazsVUVlojvthvy6fXe34g1Gsdx6a3hFB6XYxLFjAL%2Fq2wG5LU0yvZrToV8mXOnUOKRTFJTfV1WoQF0B%2F4E6Or4tXk%3D&amp;customerId=123</t>
+  </si>
+  <si>
+    <t>oa1rG573rgsTa5xbgSfniR5kCjHxZZeuzAXJjZP5AdXwg5Kd4sjzMXipeLojJpa6vwY8d0Xpui2JdwBBeawWogi6XSCCyMJBiWr+fkrcac7r7ctU+cu357bpam4ARq16POBxApw3H/WaKTeWOfF+siVsIcFbMxIn6EkVahCtw5w=</t>
+  </si>
+  <si>
+    <t>1584343514140</t>
   </si>
 </sst>
 </file>
@@ -602,10 +653,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -639,7 +690,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -657,42 +723,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,14 +742,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,22 +751,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +766,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -760,7 +811,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,187 +833,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,15 +1024,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1005,30 +1047,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1077,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1073,153 +1115,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,7 +1621,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1648,18 +1699,18 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1667,30 +1718,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1741,100 +1792,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1900,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1865,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1876,233 +1927,233 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2168,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2144,100 +2195,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2308,7 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2284,114 +2335,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2492,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2469,16 +2520,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2522,86 +2573,86 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2613,17 +2664,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="26.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="29.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="28.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="42.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="37.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="20.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="17.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="68.4545454545455" customWidth="1"/>
@@ -2640,10 +2691,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2651,102 +2702,182 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="213">
   <si>
     <t>desc</t>
   </si>
@@ -51,10 +51,10 @@
     <t>按手机号码查询用户</t>
   </si>
   <si>
-    <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"18110024813","nickName":"","origin":"","status":"","userRole":""}</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"张海龙","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
+    <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"18945696589","nickName":"","origin":"","status":"","userRole":""}</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"c2da7bb67b354e32b140fa4676310de1","username":"hangang@bitnei.cn","nickName":"hangang","email":"hangang@bitnei.cn","mobile":"189****6589","password":"N/A","title":"","status":"ACTIVE","createBy":"hangang@bitnei.cn","createTime":"2019-09-16 13:50:38","tenant":"bitnei-cn","origin":"APPLY","admin":false,"super":false}]},"error":false}</t>
   </si>
   <si>
     <t>按创建时间查询用户</t>
@@ -63,15 +63,15 @@
     <t>{"createTimeRange":{"from":"2019-07-11 04:46:00","to":"2019-07-19 04:46:00"},"email":"","mobile":"","nickName":"","origin":"","status":"","userRole":""}</t>
   </si>
   <si>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"新源科技","email":"SaaS@bitnei.cn","password":"N/A","title":"Boss","status":"ACTIVE","createBy":"SaaS@bitnei.cn","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","admin":true,"super":true}]},"error":false}</t>
+  </si>
+  <si>
     <t>按用户类型查询用户</t>
   </si>
   <si>
     <t>{"createTimeRange":{"from":"","to":""},"email":"","mobile":"","nickName":"","origin":"REGISTER","status":"","userRole":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"typeName":"UserAdmin","id":"782783112a42461298fbea5e0b5942c3","username":"SaaS@bitnei.cn","nickName":"张海龙","email":"SaaS@bitnei.cn","mobile":"181****4813","password":"N/A","title":"test","status":"ACTIVE","createBy":"SaaS@bitnei.cn","createTime":"2019-07-12 15:18:48","tenant":"bitnei-cn","origin":"REGISTER","super":true,"admin":true}]},"error":false}</t>
-  </si>
-  <si>
     <t>按邮箱查询用户</t>
   </si>
   <si>
@@ -96,6 +96,18 @@
     <t>{"status":400,"errorMsg":"str:用户hangang@bitnei.cn已经存在","data":null,"error":true}</t>
   </si>
   <si>
+    <t>操作日志按操作行为和时间查询</t>
+  </si>
+  <si>
+    <t>/web/log-info/log/userAction?page=1&amp;size=10</t>
+  </si>
+  <si>
+    <t>{"startTime":"2020-03-25 10:52:03","endTime":"2020-03-26 10:52:03","username":"","action":"DASHBOARD_EDIT"}</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"total":1,"list":[{"username":"guoxin@bitnei.cn","tenant":"bitnei-cn","tenantId":"9c178ab462874ed28e92d245310e719f","action":"编辑仪表盘","success":"&lt;font style='color:#0b7500'&gt;成功&lt;/font&gt;","record":"用户&lt;font style='color:#1890ff'&gt;guoxin@bitnei.cn&lt;/font&gt;编辑仪表盘&lt;font style='color:#1890ff'&gt;cjybp编辑&lt;/font&gt;","remoteAddr":"100.99.122.116","startTime":"2020-03-25 15:15:44","endTime":"2020-03-25 15:15:44","type":"前台","target":null,"targetId":null,"remark":null,"targetUser":null}],"pageNum":1,"pageSize":10,"size":1,"startRow":1,"endRow":1,"pages":1,"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1],"navigateFirstPage":1,"navigateLastPage":1},"error":false}</t>
+  </si>
+  <si>
     <t>查询结果正常</t>
   </si>
   <si>
@@ -348,13 +360,13 @@
     <t>{"startTime":"","endTime":"","email":"","mobile":"","origin":"REGISTER_FREE","status":"","tenant":"新源科技"}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"id":"9c178ab462874ed28e92d245310e719f","organization":"新源科技","tenant":"bitnei-cn","contactName":"张海龙","contactEmail":"zhanghailong@bitnei.cn","connectMobile":"18110024813","origin":"REGISTER_FREE","createTime":"2019-07-12 15:18:48","status":"ACTIVE","title":"test","superId":"782783112a42461298fbea5e0b5942c3","createBy":"SaaS@bitnei.cn","projectName":"新能源汽车大数据平台","logo":null}]},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"id":"9c178ab462874ed28e92d245310e719f","organization":"新源科技","tenant":"bitnei-cn","contactName":"新源科技","contactEmail":"zhanghailong@bitnei.cn","connectMobile":"18918901890","origin":"REGISTER_FREE","userNum":15,"createTime":"2019-07-12 15:18:48","status":"ACTIVE","title":"Boss","superId":"782783112a42461298fbea5e0b5942c3","createBy":"SaaS@bitnei.cn","projectName":"新能源汽车大数据平台","userQuantity":30,"logo":null}]},"error":false}</t>
   </si>
   <si>
     <t>按手机号码查询租户</t>
   </si>
   <si>
-    <t>{"startTime":"","endTime":"","email":"","mobile":"18110024813","origin":"REGISTER_FREE","status":"","tenant":""}</t>
+    <t>{"startTime":"","endTime":"","email":"","mobile":"18918901890","origin":"REGISTER_FREE","status":"","tenant":""}</t>
   </si>
   <si>
     <t>按创建时间查询租户</t>
@@ -363,13 +375,16 @@
     <t>{"startTime":"2019-07-13 04:55:07","endTime":"2019-07-14 04:55:07","email":"","mobile":"","origin":"","status":"","tenant":""}</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"id":"39246a3068db4b9f898e09930f1c1b1e","organization":"lgxy","tenant":"bitnei-cn241053","contactName":"tzy","contactEmail":"tangzhiyuan@bitnei.cn","connectMobile":"13333333333","origin":"REGISTER_FREE","createTime":"2019-07-13 09:42:08","status":"ACTIVE","title":"","superId":"161722287b0647e9bc3660f03431cc57","createBy":"tangzhiyuan@bitnei.cn","projectName":"新能源汽车大数据平台","userQuantity":0,"logo":null}]},"error":false}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"id":"39246a3068db4b9f898e09930f1c1b1e","organization":"lgxy","tenant":"bitnei-cn241053","contactName":"tzy","contactEmail":"tangzhiyuan@bitnei.cn","connectMobile":"13333333333","origin":"REGISTER_FREE","userNum":5,"createTime":"2019-07-13 09:42:08","status":"ACTIVE","title":"","superId":"161722287b0647e9bc3660f03431cc57","createBy":"tangzhiyuan@bitnei.cn","projectName":"新能源汽车大数据平台","userQuantity":10,"logo":null}]},"error":false}</t>
   </si>
   <si>
     <t>按用户类型和邮箱查询租户</t>
   </si>
   <si>
-    <t>{"startTime":"","endTime":"","email":"zhanghailong","mobile":"","origin":"REGISTER_FREE","status":"","tenant":""}</t>
+    <t>{"startTime":"","endTime":"","email":"SaaS@bitnei.cn","mobile":"","origin":"","status":"","tenant":""}</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"pages":1,"total":1,"list":[{"id":"aa2a8a54936542b48e78346cb4f0df33","organization":"新源科技","tenant":"bitnei-cn110222","contactName":"SaaS","contactEmail":"SaaS@bitnei.cn","connectMobile":"18110024813","origin":"BACKEND_ADD","userNum":1,"createTime":"2020-01-16 09:12:12","status":"ACTIVE","title":"test","superId":"47aa131dd5af48b59f51a588fb0d3a15","createBy":"SaaS@bitnei.cn","projectName":"新能源汽车大数据平台2","userQuantity":5,"logo":null}]},"error":false}</t>
   </si>
   <si>
     <t>重复添加租户</t>
@@ -653,10 +668,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -689,6 +704,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -704,31 +733,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,38 +748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +764,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,20 +838,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -833,187 +848,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,21 +1047,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,20 +1068,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,6 +1090,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1115,162 +1139,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1618,13 +1633,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="34.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="36.5454545454545" customWidth="1"/>
@@ -1685,21 +1700,21 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1713,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1727,7 +1742,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1742,6 +1757,20 @@
       </c>
       <c r="D8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1792,100 +1821,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1929,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1916,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1927,233 +1956,233 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2167,8 +2196,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2195,69 +2224,69 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -2265,27 +2294,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -2335,114 +2364,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2520,16 +2549,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2573,86 +2602,86 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2695,7 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2691,10 +2720,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2702,182 +2731,182 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
         <v>197</v>
       </c>
-      <c r="B8" t="s">
-        <v>192</v>
-      </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="639" activeTab="3"/>
+    <workbookView windowWidth="22370" windowHeight="9300" tabRatio="639" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="apipostparas" sheetId="14" r:id="rId7"/>
     <sheet name="geodedata" sheetId="15" r:id="rId8"/>
     <sheet name="平安保险" sheetId="16" r:id="rId9"/>
+    <sheet name="线上api接口get类型" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="262">
   <si>
     <t>desc</t>
   </si>
@@ -480,6 +481,159 @@
     <t>vin=123&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
   </si>
   <si>
+    <t>微信小程序获取车辆厂家及车型</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/factory/information?</t>
+  </si>
+  <si>
+    <t>type=01</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehFac":"合众汽车","vehModelInfos":[{"vehCommonName":"哪吒N01","vehModel":"THZ7000BEVS004","standardDriverMileage":301.00,"standardPower":14.00}]},{"vehFac":"比亚迪","vehModelInfos":[{"vehCommonName":"E5","vehModel":"BYD7005BEV1","standardDriverMileage":400.00,"standardPower":14.80},{"vehCommonName":"比亚迪唐","vehModel":"BYD6490SBEV1","standardDriverMileage":520.00,"standardPower":17.30}]},{"vehFac":"北汽新能源","vehModelInfos":[{"vehCommonName":"EU5","vehModel":"BJ7000C5D3-BEV","standardDriverMileage":416.00,"standardPower":13.90}]},{"vehFac":"吉利汽车","vehModelInfos":[{"vehCommonName":"帝豪GSE400","vehModel":"HQ7002BEV15","standardDriverMileage":353.00,"standardPower":14.53}]},{"vehFac":"威马汽车","vehModelInfos":[{"vehCommonName":"EX5","vehModel":"SZS6460A06BEV","standardDriverMileage":303.00,"standardPower":16.20}]},{"vehFac":"上汽集团","vehModelInfos":[{"vehCommonName":"荣威ERX5","vehModel":"CSA6456BEV2","standardDriverMileage":320.00,"standardPower":15.49},{"vehCommonName":"Marvel X","vehModel":"CSA6461FBEV1","standardDriverMileage":403.00,"standardPower":14.20}]},{"vehFac":"长安汽车","vehModelInfos":[{"vehCommonName":"EADO","vehModel":"SC7003ACBEV","standardDriverMileage":305.00,"standardPower":13.40},{"vehCommonName":"EADO","vehModel":"SC7003AEBEV","standardDriverMileage":405.00,"standardPower":13.80}]},{"vehFac":"广汽新能源","vehModelInfos":[{"vehCommonName":"传祺AION.S","vehModel":"GAM7000BEVA0C","standardDriverMileage":510.00,"standardPower":13.10}]},{"vehFac":"蔚来汽车","vehModelInfos":[{"vehCommonName":"ES6","vehModel":"HFC6483ECEV-W","standardDriverMileage":430.00,"standardPower":18.10},{"vehCommonName":"ES8","vehModel":"HFC6502ECEV2-W","standardDriverMileage":355.00,"standardPower":21.00}]}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/exponent?</t>
+  </si>
+  <si>
+    <t>vehModel=HQ7002BEV15&amp;vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"driverRange":289.59,"middleChargeStartSoc":37.53,"standardDriverMileage":353.00,"standardPower":null,"power100km":null,"fastChargeDuration":54.47,"middleAnxiety":"中","satisfactionDegree":"低","onlineHailedCarRatio":null,"onlineHailedCarNumber":null},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数北京市</t>
+  </si>
+  <si>
+    <t>city=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;vehModel=HQ7002BEV15&amp;vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"driverRange":291.55,"middleChargeStartSoc":35.42,"standardDriverMileage":353.00,"standardPower":null,"power100km":null,"fastChargeDuration":59.06,"middleAnxiety":"中","satisfactionDegree":"低","onlineHailedCarRatio":null,"onlineHailedCarNumber":null},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数车型必填</t>
+  </si>
+  <si>
+    <t>vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"请求参数vehModel不能为空！","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数厂家必填</t>
+  </si>
+  <si>
+    <t>vehModel=HQ7002BEV15</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"请求参数vehFac不能为空！","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数为空</t>
+  </si>
+  <si>
+    <t>vehModel=123&amp;vehFac=123</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询全国</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/rank?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"THZ7000BEVS004","vehCommonName":"哪吒N01","unit":"km","standardDriverRange":301.0,"standardPower":14.0,"vehFac":"合众汽车"},{"vehModel":"BYD7005BEV1","vehCommonName":"E5","unit":"km","standardDriverRange":400.0,"standardPower":14.8,"vehFac":"比亚迪"},{"vehModel":"BJ7000C5D3-BEV","vehCommonName":"EU5","unit":"km","standardDriverRange":416.0,"standardPower":13.9,"vehFac":"北汽新能源"}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询北京市</t>
+  </si>
+  <si>
+    <t>city=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;type=01</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"THZ7000BEVS004","vehCommonName":"哪吒N01","unit":"km","standardDriverRange":301.00,"standardPower":14.00,"vehFac":"合众汽车"},{"vehModel":"BYD7005BEV1","vehCommonName":"E5","unit":"km","standardDriverRange":400.00,"standardPower":14.80,"vehFac":"比亚迪"},{"vehModel":"HQ7002BEV15","vehCommonName":"帝豪GSE400","unit":"km","standardDriverRange":353.00,"standardPower":14.53,"vehFac":"吉利汽车"}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询类型必填</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"请求参数type不能为空！","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询全国返回1条</t>
+  </si>
+  <si>
+    <t>size=1&amp;type=02</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"BJ7000U3D7G-BEV","vehCommonName":"EX360","unit":"km","standardDriverRange":318.0,"standardPower":16.7,"vehFac":"北汽新能源"}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/mileage/detail?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","driverRange":289.59,"standardDriverMileage":353.0,"vehFac":"吉利汽车","unit":"km","monthType":[{"driverMileage":206.0,"month":"01"},{"driverMileage":234.76,"month":"02"},{"driverMileage":285.52,"month":"03"},{"driverMileage":298.19,"month":"04"},{"driverMileage":323.13,"month":"05"},{"driverMileage":321.67,"month":"06"},{"driverMileage":316.4,"month":"07"},{"driverMileage":320.0,"month":"08"},{"driverMileage":324.62,"month":"09"},{"driverMileage":315.65,"month":"10"},{"driverMileage":283.3,"month":"11"},{"driverMileage":245.88,"month":"12"}],"seasonType":[{"driverMileage":307.86,"season":"autumn"},{"driverMileage":302.28,"season":"spring"},{"driverMileage":319.36,"season":"summer"},{"driverMileage":228.88,"season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情北京市</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","driverRange":291.55,"standardDriverMileage":353.00,"vehFac":"吉利汽车","unit":"km","monthType":[{"driverMileage":209.00,"month":"01"},{"driverMileage":233.67,"month":"02"},{"driverMileage":289.40,"month":"03"},{"driverMileage":292.50,"month":"04"},{"driverMileage":332.49,"month":"05"},{"driverMileage":329.00,"month":"06"},{"driverMileage":321.29,"month":"07"},{"driverMileage":331.23,"month":"08"},{"driverMileage":338.00,"month":"09"},{"driverMileage":324.67,"month":"10"},{"driverMileage":274.93,"month":"11"},{"driverMileage":222.44,"month":"12"}],"seasonType":[{"driverMileage":312.53,"season":"autumn"},{"driverMileage":304.80,"season":"spring"},{"driverMileage":327.17,"season":"summer"},{"driverMileage":221.70,"season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情厂家必填</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情车型必填</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/anxiety/detail?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","middleChargeStartSoc":37.53,"middleAnxiety":"中","vehFac":"吉利汽车","unit":"%","monthType":[{"chargeStartSoc":42.50,"anxiety":"中","month":"01"},{"chargeStartSoc":31.50,"anxiety":"中","month":"02"},{"chargeStartSoc":37.00,"anxiety":"中","month":"03"},{"chargeStartSoc":39.50,"anxiety":"中","month":"04"},{"chargeStartSoc":39.00,"anxiety":"中","month":"05"},{"chargeStartSoc":37.98,"anxiety":"中","month":"06"},{"chargeStartSoc":37.00,"anxiety":"中","month":"07"},{"chargeStartSoc":37.00,"anxiety":"中","month":"08"},{"chargeStartSoc":38.00,"anxiety":"中","month":"09"},{"chargeStartSoc":38.00,"anxiety":"中","month":"10"},{"chargeStartSoc":36.92,"anxiety":"中","month":"11"},{"chargeStartSoc":36.00,"anxiety":"中","month":"12"}],"seasonType":[{"chargeStartSoc":37.64,"anxiety":"中","season":"autumn"},{"chargeStartSoc":38.50,"anxiety":"中","season":"spring"},{"chargeStartSoc":37.33,"anxiety":"中","season":"summer"},{"chargeStartSoc":36.67,"anxiety":"中","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情北京市</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","middleChargeStartSoc":35.42,"middleAnxiety":"中","vehFac":"吉利汽车","unit":"%","monthType":[{"chargeStartSoc":42.00,"anxiety":"中","month":"01"},{"chargeStartSoc":31.00,"anxiety":"中","month":"02"},{"chargeStartSoc":37.00,"anxiety":"中","month":"03"},{"chargeStartSoc":39.00,"anxiety":"中","month":"04"},{"chargeStartSoc":36.00,"anxiety":"中","month":"05"},{"chargeStartSoc":35.00,"anxiety":"中","month":"06"},{"chargeStartSoc":34.00,"anxiety":"中","month":"07"},{"chargeStartSoc":35.00,"anxiety":"中","month":"08"},{"chargeStartSoc":35.08,"anxiety":"中","month":"09"},{"chargeStartSoc":35.00,"anxiety":"中","month":"10"},{"chargeStartSoc":33.00,"anxiety":"中","month":"11"},{"chargeStartSoc":33.00,"anxiety":"中","month":"12"}],"seasonType":[{"chargeStartSoc":34.36,"anxiety":"中","season":"autumn"},{"chargeStartSoc":37.33,"anxiety":"中","season":"spring"},{"chargeStartSoc":34.67,"anxiety":"中","season":"summer"},{"chargeStartSoc":35.33,"anxiety":"中","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情厂家必填</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情车型必填</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/charge/detail?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","fastChargeDuration":54.47,"satisfactionDegree":"低","vehFac":"吉利汽车","unit":"min","monthType":[{"fastChargeTime":97.50,"satisfactionDegree":"低","month":"01"},{"fastChargeTime":41.00,"satisfactionDegree":"中","month":"02"},{"fastChargeTime":92.67,"satisfactionDegree":"低","month":"03"},{"fastChargeTime":0,"satisfactionDegree":"低","month":"04"},{"fastChargeTime":45.67,"satisfactionDegree":"低","month":"05"},{"fastChargeTime":44.50,"satisfactionDegree":"中","month":"06"},{"fastChargeTime":45.14,"satisfactionDegree":"低","month":"07"},{"fastChargeTime":44.34,"satisfactionDegree":"中","month":"08"},{"fastChargeTime":44.73,"satisfactionDegree":"中","month":"09"},{"fastChargeTime":45.18,"satisfactionDegree":"低","month":"10"},{"fastChargeTime":47.66,"satisfactionDegree":"低","month":"11"},{"fastChargeTime":50.83,"satisfactionDegree":"低","month":"12"}],"seasonType":[{"fastChargeTime":45.86,"satisfactionDegree":"低","season":"autumn"},{"fastChargeTime":69.17,"satisfactionDegree":"低","season":"spring"},{"fastChargeTime":44.66,"satisfactionDegree":"中","season":"summer"},{"fastChargeTime":63.11,"satisfactionDegree":"低","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情北京市</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","fastChargeDuration":59.06,"satisfactionDegree":"低","vehFac":"吉利汽车","unit":"min","monthType":[{"fastChargeTime":97.50,"satisfactionDegree":"低","month":"01"},{"fastChargeTime":41.00,"satisfactionDegree":"中","month":"02"},{"fastChargeTime":92.67,"satisfactionDegree":"低","month":"03"},{"fastChargeTime":0,"satisfactionDegree":"低","month":"04"},{"fastChargeTime":50.28,"satisfactionDegree":"低","month":"05"},{"fastChargeTime":49.00,"satisfactionDegree":"低","month":"06"},{"fastChargeTime":50.63,"satisfactionDegree":"低","month":"07"},{"fastChargeTime":48.96,"satisfactionDegree":"低","month":"08"},{"fastChargeTime":48.58,"satisfactionDegree":"低","month":"09"},{"fastChargeTime":50.00,"satisfactionDegree":"低","month":"10"},{"fastChargeTime":56.83,"satisfactionDegree":"低","month":"11"},{"fastChargeTime":64.19,"satisfactionDegree":"低","month":"12"}],"seasonType":[{"fastChargeTime":51.80,"satisfactionDegree":"低","season":"autumn"},{"fastChargeTime":71.48,"satisfactionDegree":"低","season":"spring"},{"fastChargeTime":49.53,"satisfactionDegree":"低","season":"summer"},{"fastChargeTime":67.56,"satisfactionDegree":"低","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情厂家必填</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情车型必填</t>
+  </si>
+  <si>
     <t>API接口EC动力接收充电数据</t>
   </si>
   <si>
@@ -591,15 +745,6 @@
     <t>{"status":406,"errorMsg":"验签失败！","data":null,"error":true,"code":"40000"}</t>
   </si>
   <si>
-    <t>平安标签签名长度不正确</t>
-  </si>
-  <si>
-    <t>yiZs5p41ACCwp8OM0J1GaAUH/RGRn1loRxbId6Vpo1iNiDntAL7X6JqskamA2CFG0avqCoLUcbJEpwHsJqoOAHg9YBIcHxXi5QaQmK5HiO6PhK5b2enayWxe+OnOO2zu2NxQ63mCE/YVVhBtKSGLXDRCXIHIrTPZQi7Gj0zdZ0=</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":"Signature length not correct: got 127 but was expecting 128","data":null,"error":true,"code":"40000"}</t>
-  </si>
-  <si>
     <t>平安标签查询vin内容不存在</t>
   </si>
   <si>
@@ -661,6 +806,9 @@
   </si>
   <si>
     <t>1584343514140</t>
+  </si>
+  <si>
+    <t>车型靠谱指数01</t>
   </si>
 </sst>
 </file>
@@ -668,10 +816,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -704,15 +852,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,10 +897,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,54 +920,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,8 +934,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,6 +957,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -833,7 +974,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,7 +996,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,25 +1086,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,97 +1158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,43 +1176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,33 +1192,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,11 +1216,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,10 +1248,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1139,153 +1269,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1636,7 +1784,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1784,6 +1932,57 @@
     <hyperlink ref="B5" r:id="rId1" display="/user-center/userInfo/userWithRoles"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="54.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="31.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="50.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2196,7 +2395,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2335,16 +2534,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="45.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="2" max="2" width="61.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="31.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2472,6 +2671,311 @@
       </c>
       <c r="D9" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2549,16 +3053,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2602,86 +3106,86 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2693,10 +3197,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2720,10 +3224,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2731,181 +3235,161 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" t="s">
         <v>134</v>
       </c>
     </row>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22370" windowHeight="9300" tabRatio="639" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="639" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="geodedata" sheetId="15" r:id="rId8"/>
     <sheet name="平安保险" sheetId="16" r:id="rId9"/>
     <sheet name="线上api接口get类型" sheetId="17" r:id="rId10"/>
+    <sheet name="saasv2查询get" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="304">
   <si>
     <t>desc</t>
   </si>
@@ -634,6 +635,108 @@
     <t>微信小程序快充满意度详情车型必填</t>
   </si>
   <si>
+    <t>鼎然科技行程查询vin正确</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/trips?</t>
+  </si>
+  <si>
+    <t>vin=LC06S64M0H1993466&amp;start_time=2019-05-01%2012%3A01%3A01&amp;end_time=2020-05-01%2012%3A01%3A01</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","trips":[{"st_time_e":1577754843000,"et_time_e":1577759972000,"start_longitude":114.027226,"start_latitude":22.620051,"start_province":"广东省","start_city":"深圳市","start_district":"南山区","end_longitude":113.99717,"end_latitude":22.54831,"end_province":"广东省","end_city":"深圳市","end_district":"福田区","time_length":5129000,"start_mileage":144357.9,"stop_mileage":144381.2,"max_speed":53.0,"avg_speed":24.85}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>鼎然科技行程查询vin无数据</t>
+  </si>
+  <si>
+    <t>vin=123&amp;start_time=2019-05-01%2012%3A01%3A01&amp;end_time=2020-05-01%2012%3A01%3A01</t>
+  </si>
+  <si>
+    <t>鼎然科技行程汇总查询vin正确</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/summary/tags?</t>
+  </si>
+  <si>
+    <t>vin=LC06S64M0H1993466</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","summary_result":"1,69100,0,0,0,0,0,96800,134200,0,114100,89300,41300,117400,0,134900,57100,56700,45000,89300,94400,18900,0,0,44800,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,66,2,13,45,6,0,6,13,46,0,0,1,0,6,0,0,0,0,0,0,32400,44700,38000,0,22300,22400,37800,0,44800,37800,0,44600,37900,0,0,0,0,35500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,22,1,3,16,2,0,2,4,15,0,1,0,0,2,1448800,0,0,0,0,0,3734700,3279800,786400,4568800,2145400,5333900,2747400,643200,2375300,4029000,836800,1741100,2420600,4135900,1100500,360000,843400,2368700,0,723700,2281200,1915100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,43300,0,0,0,0,74,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2126,101,502,1119,370,34,302,499,986,11,8,320,0,250,815800,0,0,0,0,0,1780100,1384000,1489500,1588300,694100,1933200,1404400,288300,752600,1653000,735700,710700,1365200,1165400,369000,66400,320500,1158800,0,261800,619300,727300,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,39500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,63600,0,0,0,0,67,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,941,58,237,453,189,4,138,236,404,2,4,157,0,115,440309,440304,440305,440306,440303,440307,810012,810014,440606,0,0,0,0,0,0,40825600,16559800,6216700,472900,230800,106500,23700,23200,20100,0,0,0,0,0,0,64574700,1039,606,315,258,241,157,33,16,15,13,3067,0#LC06S64M0H1993466#2020-05-18#64574700#15138908#3067#10.6#347#0#0#72.7#72.6#441#6000#2223008#2#0_0_1#0.144_0.924_0.022#64574700#3067#365#2020-05-18#167512700#69896400","charge_times":343,"fast_charge_times":1,"total_charge_time_length":1863103.0,"total_fast_charge_time_length":1219.0,"end_charge_avg_soc":92.62973760932945,"max_weight":"17950","displacement":"","max_speed":"100","length":"10690","drive_range":469.0,"motor_type":"永磁同步电机","kwh_100km":0.0,"cell_enterprise":"惠州比亚迪电池有限公司","battery_type":"磷酸铁锂","manufacturer":"比亚迪汽车工业有限公司","brand":"比亚迪牌","veh_category_2":"纯电动客车","veh_model_name":"BYD6110LLEV","veh_level":"","produce_date":"2017"},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>鼎然科技行程汇总查询vin无数据</t>
+  </si>
+  <si>
+    <t>平安租赁实时数据按vin查询</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/realTime?</t>
+  </si>
+  <si>
+    <t>vin=LC0CE4CB7J0101806</t>
+  </si>
+  <si>
+    <t>平安租赁实时数据按licensePlate查询</t>
+  </si>
+  <si>
+    <t>licensePlate=%E4%BA%ACAD98062</t>
+  </si>
+  <si>
+    <t>平安租赁实时数据按vin查询无数据</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"此车不在查询范围内！","data":null,"error":true,"code":"30004"}</t>
+  </si>
+  <si>
+    <t>中保信车辆静态信息按vin查询正确</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/static/tag?</t>
+  </si>
+  <si>
+    <t>vin=LNBSCB3F8GW022110</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LNBSCB3F8GW022110","power_type":"纯电动","license_plate":"鲁B3R20L","veh_model_name":"BJ7001BPH1-BEV","brand":"北京牌","manufacturer":"北京新能源汽车股份有限公司","veh_common_name":"EC180","curb_weight":1050.0,"max_speed":101.0,"drive_range":156.0,"positive_material":"层状三元材料","cell_manufacturer":"孚能科技（赣州）有限公司/","kwh_100km":null,"is_online":1,"first_live_date":"2018-05-04","run_city":"青岛市","run_province":"山东省","veh_category_2":"计时租赁","unit_name":"青岛新未来汽车租赁有限公司","veh_level":"A0","first_run_date":"1525422114000","first_charge_date":"1525434259000"},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>中保信车辆静态信息按vin查询无数据</t>
+  </si>
+  <si>
+    <t>中保信车辆静态信息按licensePlate查询正确</t>
+  </si>
+  <si>
+    <t>licensePlate=%E9%B2%81B3R20L</t>
+  </si>
+  <si>
+    <t>中保信车辆静态信息按licensePlate查询无数据</t>
+  </si>
+  <si>
+    <t>licensePlate=123</t>
+  </si>
+  <si>
+    <t>中保信车辆静态信息参数必传验证</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/static/tag</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"参数vin和licensePlate至少传一个！","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
+    <t>中保信整体标签查询按vin查询正确</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/whole/tag?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LNBSCB3F8GW022110","power_type":"BEV","brand":"北京","veh_model_name":"BJ7001BPH1-BEV","drive_range":156.0,"positive_material":"层状三元材料","cell_manufacturer":"孚能科技（赣州）有限公司/","kwh_100km":"","is_online":1,"run_location":"河南省鹤壁市浚县","province_dept":"山东省","city_dept":"青岛市","veh_category_2":"计时租赁","first_run_date":"2018-05-04","first_charge_date":"2018-05-04","total_run_mile":250610.0,"total_high_temp_run_mile":14150.0,"total_low_temp_run_mile":140.0,"total_low_soc_run_times":167,"avg_daily_run_mile":517.7892561983471,"avg_daily_run_time_length":6882.384297520661,"avg_charge_times_per_100km":0.1552212601252943,"avg_charge_start_soc":35.48586118251928,"avg_charge_end_soc":83.60411311053984,"last_charge_time":"2020-04-29","last_charge_location":"河南省安阳市","total_alarm_times":38,"max_alarm_name":"绝缘报警","risk_score":0.0,"total_night_run_mile":31450.0,"total_night_run_time_length":420446.0,"total_summer_run_mile":80320.0,"total_winter_run_mile":50990.0,"charge_times":389},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>中保信整体标签查询按vin查询无数据</t>
+  </si>
+  <si>
     <t>API接口EC动力接收充电数据</t>
   </si>
   <si>
@@ -809,6 +912,30 @@
   </si>
   <si>
     <t>车型靠谱指数01</t>
+  </si>
+  <si>
+    <t>系统管理下任务管理列表按名称查询(hg0422hive)</t>
+  </si>
+  <si>
+    <t>/web/hera/job/search?</t>
+  </si>
+  <si>
+    <t>script=&amp;name=hg0422hive%E4%BB%BB%E5%8A%A1&amp;description=&amp;configs=&amp;auto=&amp;st=&amp;dt=&amp;runType=&amp;status=all&amp;limit=10&amp;page=1</t>
+  </si>
+  <si>
+    <t>{"msg":null,"count":1,"data":[{"jobId":122,"startTime":null,"endTime":null,"executeHost":null,"status":"未执行","operator":null,"description":"test","jobName":"hg0422hive任务","groupName":"hg小目录","times":null,"runType":"hive","auto":0}]}</t>
+  </si>
+  <si>
+    <t>用户管理按名称查询(hangang1)</t>
+  </si>
+  <si>
+    <t>/web/ranger/service/usermanage/users?</t>
+  </si>
+  <si>
+    <t>name=hangang1&amp;userRole=&amp;status=&amp;group=&amp;emailAddress=&amp;startTime=&amp;endTime=&amp;userSource=&amp;page=0&amp;pageSize=10&amp;startIndex=0&amp;sortType=&amp;sortBy=</t>
+  </si>
+  <si>
+    <t>{"startIndex":0,"pageSize":10,"totalCount":1,"resultSize":1,"sortType":"asc","sortBy":"name","queryTimeMS":1589852243534,"vXUsers":[{"id":230,"createDate":"2020-04-20 17:23:33","owner":"Admin_new_update ","updatedBy":"Admin_new_update ","name":"hangang1","firstName":"Hg01121211","lastName":"","emailAddress":"hangang@bitnei.cn","mobileNumber":"13211112222","password":"*****","description":"hangang1","groupIdList":[38,169],"groupNameList":["dev","product_user"],"status":1,"isVisible":1,"userSource":0,"userRoleList":["ROLE_USER"]}]}</t>
   </si>
 </sst>
 </file>
@@ -817,9 +944,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -854,16 +981,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,82 +996,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,6 +1017,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -980,8 +1106,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,13 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1141,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1243,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,121 +1279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,36 +1324,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,6 +1376,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1292,148 +1419,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1787,12 +1914,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="34.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="36.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="28.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="50.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="34.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="36.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.0925925925926" customWidth="1"/>
+    <col min="4" max="4" width="50.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1942,15 +2069,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="54.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="31.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="50.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="17.0925925925926" customWidth="1"/>
+    <col min="2" max="2" width="50.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.6388888888889" customWidth="1"/>
+    <col min="4" max="4" width="50.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1969,7 +2096,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
@@ -1979,6 +2106,71 @@
       </c>
       <c r="D2" t="s">
         <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="46.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="38.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="32.8148148148148" customWidth="1"/>
+    <col min="4" max="4" width="33.0925925925926" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1996,12 +2188,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="37.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="43.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="45.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="34.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="37.7314814814815" customWidth="1"/>
+    <col min="2" max="2" width="43.1851851851852" customWidth="1"/>
+    <col min="3" max="3" width="45.1851851851852" customWidth="1"/>
+    <col min="4" max="4" width="34.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2128,15 +2320,15 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="42.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="29.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="42.3611111111111" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="26.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="26.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2399,12 +2591,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="38.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="57.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="38.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="24.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="38.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="57.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="38.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2534,17 +2726,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="45.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="61.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="31.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="45.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="61.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2976,6 +3168,199 @@
       </c>
       <c r="D31" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2993,11 +3378,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="57.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="23.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="23.0925925925926" customWidth="1"/>
+    <col min="2" max="2" width="57.0925925925926" customWidth="1"/>
+    <col min="3" max="3" width="23.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3029,12 +3414,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="35.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="72.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="31.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="27.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="35.6388888888889" customWidth="1"/>
+    <col min="4" max="4" width="72.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3053,16 +3438,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3083,11 +3468,11 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="26.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="52.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="26.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="52.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3106,86 +3491,86 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3203,14 +3588,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="42.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="37.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="20.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="17.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="68.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="28.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="42.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="37.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="20.7314814814815" customWidth="1"/>
+    <col min="5" max="5" width="17.6388888888889" customWidth="1"/>
+    <col min="6" max="6" width="68.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3224,10 +3609,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3235,79 +3620,79 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>134</v>
@@ -3315,79 +3700,79 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
         <v>134</v>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="269">
   <si>
     <t>desc</t>
   </si>
@@ -431,252 +431,195 @@
     <t>{"status":200,"errorMsg":null,"data":null,"error":false,"code":"35000"}</t>
   </si>
   <si>
-    <t>好车伯乐正常调用</t>
-  </si>
-  <si>
-    <t>vin=LGXCD4D48J0211179</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"brand":"比亚迪","bsie":18.0,"bulletinNO":"BYD6460STHEV10","platform":"私人","series":"未知","seurityMonitor":true,"type":"BYD6460STHEV10","use":"02","vin":"14b8e610b61d2e7e6102144c1fa9df24"},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>获取车辆实时位置及里程接口参数vin</t>
-  </si>
-  <si>
-    <t>/external-api/lbs/test/vehicle/realTimeData?</t>
-  </si>
-  <si>
-    <t>vin=LHWCJ95D0H1170711</t>
+    <t>车辆轨迹获取车辆轨迹接口返回为空</t>
+  </si>
+  <si>
+    <t>/external-api/lbs/test/vehicle/locations?</t>
+  </si>
+  <si>
+    <t>vin=123&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
+  </si>
+  <si>
+    <t>微信小程序获取车辆厂家及车型</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/factory/information?</t>
+  </si>
+  <si>
+    <t>type=01</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehFac":"合众汽车","vehModelInfos":[{"vehCommonName":"哪吒N01","vehModel":"THZ7000BEVS004","standardDriverMileage":301.00,"standardPower":14.00}]},{"vehFac":"比亚迪","vehModelInfos":[{"vehCommonName":"E5","vehModel":"BYD7005BEV1","standardDriverMileage":400.00,"standardPower":14.80},{"vehCommonName":"比亚迪唐","vehModel":"BYD6490SBEV1","standardDriverMileage":520.00,"standardPower":17.30}]},{"vehFac":"北汽新能源","vehModelInfos":[{"vehCommonName":"EU5","vehModel":"BJ7000C5D3-BEV","standardDriverMileage":416.00,"standardPower":13.90}]},{"vehFac":"吉利汽车","vehModelInfos":[{"vehCommonName":"帝豪GSE400","vehModel":"HQ7002BEV15","standardDriverMileage":353.00,"standardPower":14.53}]},{"vehFac":"威马汽车","vehModelInfos":[{"vehCommonName":"EX5","vehModel":"SZS6460A06BEV","standardDriverMileage":303.00,"standardPower":16.20}]},{"vehFac":"上汽集团","vehModelInfos":[{"vehCommonName":"荣威ERX5","vehModel":"CSA6456BEV2","standardDriverMileage":320.00,"standardPower":15.49},{"vehCommonName":"Marvel X","vehModel":"CSA6461FBEV1","standardDriverMileage":403.00,"standardPower":14.20}]},{"vehFac":"长安汽车","vehModelInfos":[{"vehCommonName":"EADO","vehModel":"SC7003ACBEV","standardDriverMileage":305.00,"standardPower":13.40},{"vehCommonName":"EADO","vehModel":"SC7003AEBEV","standardDriverMileage":405.00,"standardPower":13.80}]},{"vehFac":"广汽新能源","vehModelInfos":[{"vehCommonName":"传祺AION.S","vehModel":"GAM7000BEVA0C","standardDriverMileage":510.00,"standardPower":13.10}]},{"vehFac":"蔚来汽车","vehModelInfos":[{"vehCommonName":"ES6","vehModel":"HFC6483ECEV-W","standardDriverMileage":430.00,"standardPower":18.10},{"vehCommonName":"ES8","vehModel":"HFC6502ECEV2-W","standardDriverMileage":355.00,"standardPower":21.00}]}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/exponent?</t>
+  </si>
+  <si>
+    <t>vehModel=HQ7002BEV15&amp;vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"driverRange":289.59,"middleChargeStartSoc":37.53,"standardDriverMileage":353.00,"standardPower":null,"power100km":null,"fastChargeDuration":54.47,"middleAnxiety":"中","satisfactionDegree":"低","onlineHailedCarRatio":null,"onlineHailedCarNumber":null},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数北京市</t>
+  </si>
+  <si>
+    <t>city=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;vehModel=HQ7002BEV15&amp;vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"driverRange":291.55,"middleChargeStartSoc":35.42,"standardDriverMileage":353.00,"standardPower":null,"power100km":null,"fastChargeDuration":59.06,"middleAnxiety":"中","satisfactionDegree":"低","onlineHailedCarRatio":null,"onlineHailedCarNumber":null},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数车型必填</t>
+  </si>
+  <si>
+    <t>vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"请求参数vehModel不能为空！","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数厂家必填</t>
+  </si>
+  <si>
+    <t>vehModel=HQ7002BEV15</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"请求参数vehFac不能为空！","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
+    <t>微信小程序获取车型的所有靠谱指数为空</t>
+  </si>
+  <si>
+    <t>vehModel=123&amp;vehFac=123</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询全国</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/rank?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"THZ7000BEVS004","vehCommonName":"哪吒N01","unit":"km","standardDriverRange":301.0,"standardPower":14.0,"vehFac":"合众汽车"},{"vehModel":"BYD7005BEV1","vehCommonName":"E5","unit":"km","standardDriverRange":400.0,"standardPower":14.8,"vehFac":"比亚迪"},{"vehModel":"BJ7000C5D3-BEV","vehCommonName":"EU5","unit":"km","standardDriverRange":416.0,"standardPower":13.9,"vehFac":"北汽新能源"}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询北京市</t>
+  </si>
+  <si>
+    <t>city=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;type=01</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"THZ7000BEVS004","vehCommonName":"哪吒N01","unit":"km","standardDriverRange":301.00,"standardPower":14.00,"vehFac":"合众汽车"},{"vehModel":"BYD7005BEV1","vehCommonName":"E5","unit":"km","standardDriverRange":400.00,"standardPower":14.80,"vehFac":"比亚迪"},{"vehModel":"HQ7002BEV15","vehCommonName":"帝豪GSE400","unit":"km","standardDriverRange":353.00,"standardPower":14.53,"vehFac":"吉利汽车"}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询类型必填</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"请求参数type不能为空！","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
+    <t>微信小程序靠谱指数查询全国返回1条</t>
+  </si>
+  <si>
+    <t>size=1&amp;type=02</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"BJ7000U3D7G-BEV","vehCommonName":"EX360","unit":"km","standardDriverRange":318.0,"standardPower":16.7,"vehFac":"北汽新能源"}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/mileage/detail?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","driverRange":289.59,"standardDriverMileage":353.0,"vehFac":"吉利汽车","unit":"km","monthType":[{"driverMileage":206.0,"month":"01"},{"driverMileage":234.76,"month":"02"},{"driverMileage":285.52,"month":"03"},{"driverMileage":298.19,"month":"04"},{"driverMileage":323.13,"month":"05"},{"driverMileage":321.67,"month":"06"},{"driverMileage":316.4,"month":"07"},{"driverMileage":320.0,"month":"08"},{"driverMileage":324.62,"month":"09"},{"driverMileage":315.65,"month":"10"},{"driverMileage":283.3,"month":"11"},{"driverMileage":245.88,"month":"12"}],"seasonType":[{"driverMileage":307.86,"season":"autumn"},{"driverMileage":302.28,"season":"spring"},{"driverMileage":319.36,"season":"summer"},{"driverMileage":228.88,"season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情北京市</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","driverRange":291.55,"standardDriverMileage":353.00,"vehFac":"吉利汽车","unit":"km","monthType":[{"driverMileage":209.00,"month":"01"},{"driverMileage":233.67,"month":"02"},{"driverMileage":289.40,"month":"03"},{"driverMileage":292.50,"month":"04"},{"driverMileage":332.49,"month":"05"},{"driverMileage":329.00,"month":"06"},{"driverMileage":321.29,"month":"07"},{"driverMileage":331.23,"month":"08"},{"driverMileage":338.00,"month":"09"},{"driverMileage":324.67,"month":"10"},{"driverMileage":274.93,"month":"11"},{"driverMileage":222.44,"month":"12"}],"seasonType":[{"driverMileage":312.53,"season":"autumn"},{"driverMileage":304.80,"season":"spring"},{"driverMileage":327.17,"season":"summer"},{"driverMileage":221.70,"season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情厂家必填</t>
+  </si>
+  <si>
+    <t>微信小程序实际行驶总里程详情车型必填</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/anxiety/detail?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","middleChargeStartSoc":37.53,"middleAnxiety":"中","vehFac":"吉利汽车","unit":"%","monthType":[{"chargeStartSoc":42.50,"anxiety":"中","month":"01"},{"chargeStartSoc":31.50,"anxiety":"中","month":"02"},{"chargeStartSoc":37.00,"anxiety":"中","month":"03"},{"chargeStartSoc":39.50,"anxiety":"中","month":"04"},{"chargeStartSoc":39.00,"anxiety":"中","month":"05"},{"chargeStartSoc":37.98,"anxiety":"中","month":"06"},{"chargeStartSoc":37.00,"anxiety":"中","month":"07"},{"chargeStartSoc":37.00,"anxiety":"中","month":"08"},{"chargeStartSoc":38.00,"anxiety":"中","month":"09"},{"chargeStartSoc":38.00,"anxiety":"中","month":"10"},{"chargeStartSoc":36.92,"anxiety":"中","month":"11"},{"chargeStartSoc":36.00,"anxiety":"中","month":"12"}],"seasonType":[{"chargeStartSoc":37.64,"anxiety":"中","season":"autumn"},{"chargeStartSoc":38.50,"anxiety":"中","season":"spring"},{"chargeStartSoc":37.33,"anxiety":"中","season":"summer"},{"chargeStartSoc":36.67,"anxiety":"中","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情北京市</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","middleChargeStartSoc":35.42,"middleAnxiety":"中","vehFac":"吉利汽车","unit":"%","monthType":[{"chargeStartSoc":42.00,"anxiety":"中","month":"01"},{"chargeStartSoc":31.00,"anxiety":"中","month":"02"},{"chargeStartSoc":37.00,"anxiety":"中","month":"03"},{"chargeStartSoc":39.00,"anxiety":"中","month":"04"},{"chargeStartSoc":36.00,"anxiety":"中","month":"05"},{"chargeStartSoc":35.00,"anxiety":"中","month":"06"},{"chargeStartSoc":34.00,"anxiety":"中","month":"07"},{"chargeStartSoc":35.00,"anxiety":"中","month":"08"},{"chargeStartSoc":35.08,"anxiety":"中","month":"09"},{"chargeStartSoc":35.00,"anxiety":"中","month":"10"},{"chargeStartSoc":33.00,"anxiety":"中","month":"11"},{"chargeStartSoc":33.00,"anxiety":"中","month":"12"}],"seasonType":[{"chargeStartSoc":34.36,"anxiety":"中","season":"autumn"},{"chargeStartSoc":37.33,"anxiety":"中","season":"spring"},{"chargeStartSoc":34.67,"anxiety":"中","season":"summer"},{"chargeStartSoc":35.33,"anxiety":"中","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情厂家必填</t>
+  </si>
+  <si>
+    <t>微信小程序使用焦虑度详情车型必填</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情全国HQ7002BEV15吉利汽车</t>
+  </si>
+  <si>
+    <t>/external-api/laboratory/models/reliable/charge/detail?</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","fastChargeDuration":54.47,"satisfactionDegree":"低","vehFac":"吉利汽车","unit":"min","monthType":[{"fastChargeTime":97.50,"satisfactionDegree":"低","month":"01"},{"fastChargeTime":41.00,"satisfactionDegree":"中","month":"02"},{"fastChargeTime":92.67,"satisfactionDegree":"低","month":"03"},{"fastChargeTime":0,"satisfactionDegree":"低","month":"04"},{"fastChargeTime":45.67,"satisfactionDegree":"低","month":"05"},{"fastChargeTime":44.50,"satisfactionDegree":"中","month":"06"},{"fastChargeTime":45.14,"satisfactionDegree":"低","month":"07"},{"fastChargeTime":44.34,"satisfactionDegree":"中","month":"08"},{"fastChargeTime":44.73,"satisfactionDegree":"中","month":"09"},{"fastChargeTime":45.18,"satisfactionDegree":"低","month":"10"},{"fastChargeTime":47.66,"satisfactionDegree":"低","month":"11"},{"fastChargeTime":50.83,"satisfactionDegree":"低","month":"12"}],"seasonType":[{"fastChargeTime":45.86,"satisfactionDegree":"低","season":"autumn"},{"fastChargeTime":69.17,"satisfactionDegree":"低","season":"spring"},{"fastChargeTime":44.66,"satisfactionDegree":"中","season":"summer"},{"fastChargeTime":63.11,"satisfactionDegree":"低","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情北京市</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","fastChargeDuration":59.06,"satisfactionDegree":"低","vehFac":"吉利汽车","unit":"min","monthType":[{"fastChargeTime":97.50,"satisfactionDegree":"低","month":"01"},{"fastChargeTime":41.00,"satisfactionDegree":"中","month":"02"},{"fastChargeTime":92.67,"satisfactionDegree":"低","month":"03"},{"fastChargeTime":0,"satisfactionDegree":"低","month":"04"},{"fastChargeTime":50.28,"satisfactionDegree":"低","month":"05"},{"fastChargeTime":49.00,"satisfactionDegree":"低","month":"06"},{"fastChargeTime":50.63,"satisfactionDegree":"低","month":"07"},{"fastChargeTime":48.96,"satisfactionDegree":"低","month":"08"},{"fastChargeTime":48.58,"satisfactionDegree":"低","month":"09"},{"fastChargeTime":50.00,"satisfactionDegree":"低","month":"10"},{"fastChargeTime":56.83,"satisfactionDegree":"低","month":"11"},{"fastChargeTime":64.19,"satisfactionDegree":"低","month":"12"}],"seasonType":[{"fastChargeTime":51.80,"satisfactionDegree":"低","season":"autumn"},{"fastChargeTime":71.48,"satisfactionDegree":"低","season":"spring"},{"fastChargeTime":49.53,"satisfactionDegree":"低","season":"summer"},{"fastChargeTime":67.56,"satisfactionDegree":"低","season":"winter"}]},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情厂家必填</t>
+  </si>
+  <si>
+    <t>微信小程序快充满意度详情车型必填</t>
+  </si>
+  <si>
+    <t>鼎然科技行程汇总查询vin正确</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/summary/tags?</t>
+  </si>
+  <si>
+    <t>vin=LC06S64M0H1993466</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","summary_result":"1,69100,0,0,0,0,0,96800,134200,0,114100,89300,41300,117400,0,134900,57100,56700,45000,89300,94400,18900,0,0,44800,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,66,2,13,45,6,0,6,13,46,0,0,1,0,6,0,0,0,0,0,0,32400,44700,38000,0,22300,22400,37800,0,44800,37800,0,44600,37900,0,0,0,0,35500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,22,1,3,16,2,0,2,4,15,0,1,0,0,2,1448800,0,0,0,0,0,3734700,3279800,786400,4568800,2145400,5333900,2747400,643200,2375300,4029000,836800,1741100,2420600,4135900,1100500,360000,843400,2368700,0,723700,2281200,1915100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,43300,0,0,0,0,74,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2126,101,502,1119,370,34,302,499,986,11,8,320,0,250,815800,0,0,0,0,0,1780100,1384000,1489500,1588300,694100,1933200,1404400,288300,752600,1653000,735700,710700,1365200,1165400,369000,66400,320500,1158800,0,261800,619300,727300,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,39500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,63600,0,0,0,0,67,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,941,58,237,453,189,4,138,236,404,2,4,157,0,115,440309,440304,440305,440306,440303,440307,810012,810014,440606,0,0,0,0,0,0,40825600,16559800,6216700,472900,230800,106500,23700,23200,20100,0,0,0,0,0,0,64574700,1039,606,315,258,241,157,33,16,15,13,3067,0#LC06S64M0H1993466#2020-05-18#64574700#15138908#3067#10.6#347#0#0#72.7#72.6#441#6000#2223008#2#0_0_1#0.144_0.924_0.022#64574700#3067#365#2020-05-18#167512700#69896400","charge_times":343,"fast_charge_times":1,"total_charge_time_length":1863103.0,"total_fast_charge_time_length":1219.0,"end_charge_avg_soc":92.62973760932945,"max_weight":"17950","displacement":"","max_speed":"100","length":"10690","drive_range":469.0,"motor_type":"永磁同步电机","kwh_100km":0.0,"cell_enterprise":"惠州比亚迪电池有限公司","battery_type":"磷酸铁锂","manufacturer":"比亚迪汽车工业有限公司","brand":"比亚迪牌","veh_category_2":"纯电动客车","veh_model_name":"BYD6110LLEV","veh_level":"","produce_date":"2017"},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>鼎然科技行程汇总查询vin无数据</t>
+  </si>
+  <si>
+    <t>平安租赁实时数据按vin查询</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/realTime?</t>
+  </si>
+  <si>
+    <t>vin=LC0CE4CB7J0101806</t>
   </si>
   <si>
     <t>{"status":200,"errorMsg":null,"error":false,"code":"10000"}</t>
   </si>
   <si>
-    <t>获取车辆实时位置及里程为空</t>
-  </si>
-  <si>
-    <t>获取车辆实时位置及里程接口参数carNO</t>
-  </si>
-  <si>
-    <t>carNO=湘N0J881</t>
-  </si>
-  <si>
-    <t>获取车辆轨迹接口参数vin</t>
-  </si>
-  <si>
-    <t>/external-api/lbs/test/vehicle/locations?</t>
-  </si>
-  <si>
-    <t>vin=L1HBBDA52JS000282&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
-  </si>
-  <si>
-    <t>获取车辆轨迹接口参数carNO</t>
-  </si>
-  <si>
-    <t>carNO=%E7%B2%A4T09400D&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
-  </si>
-  <si>
-    <t>获取车辆轨迹接口返回为空</t>
-  </si>
-  <si>
-    <t>vin=123&amp;dateFrom=2019-10-20%2007%3A16%3A20&amp;dateTo=2019-10-21%2007%3A16%3A20</t>
-  </si>
-  <si>
-    <t>微信小程序获取车辆厂家及车型</t>
-  </si>
-  <si>
-    <t>/external-api/laboratory/models/reliable/factory/information?</t>
-  </si>
-  <si>
-    <t>type=01</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"vehFac":"合众汽车","vehModelInfos":[{"vehCommonName":"哪吒N01","vehModel":"THZ7000BEVS004","standardDriverMileage":301.00,"standardPower":14.00}]},{"vehFac":"比亚迪","vehModelInfos":[{"vehCommonName":"E5","vehModel":"BYD7005BEV1","standardDriverMileage":400.00,"standardPower":14.80},{"vehCommonName":"比亚迪唐","vehModel":"BYD6490SBEV1","standardDriverMileage":520.00,"standardPower":17.30}]},{"vehFac":"北汽新能源","vehModelInfos":[{"vehCommonName":"EU5","vehModel":"BJ7000C5D3-BEV","standardDriverMileage":416.00,"standardPower":13.90}]},{"vehFac":"吉利汽车","vehModelInfos":[{"vehCommonName":"帝豪GSE400","vehModel":"HQ7002BEV15","standardDriverMileage":353.00,"standardPower":14.53}]},{"vehFac":"威马汽车","vehModelInfos":[{"vehCommonName":"EX5","vehModel":"SZS6460A06BEV","standardDriverMileage":303.00,"standardPower":16.20}]},{"vehFac":"上汽集团","vehModelInfos":[{"vehCommonName":"荣威ERX5","vehModel":"CSA6456BEV2","standardDriverMileage":320.00,"standardPower":15.49},{"vehCommonName":"Marvel X","vehModel":"CSA6461FBEV1","standardDriverMileage":403.00,"standardPower":14.20}]},{"vehFac":"长安汽车","vehModelInfos":[{"vehCommonName":"EADO","vehModel":"SC7003ACBEV","standardDriverMileage":305.00,"standardPower":13.40},{"vehCommonName":"EADO","vehModel":"SC7003AEBEV","standardDriverMileage":405.00,"standardPower":13.80}]},{"vehFac":"广汽新能源","vehModelInfos":[{"vehCommonName":"传祺AION.S","vehModel":"GAM7000BEVA0C","standardDriverMileage":510.00,"standardPower":13.10}]},{"vehFac":"蔚来汽车","vehModelInfos":[{"vehCommonName":"ES6","vehModel":"HFC6483ECEV-W","standardDriverMileage":430.00,"standardPower":18.10},{"vehCommonName":"ES8","vehModel":"HFC6502ECEV2-W","standardDriverMileage":355.00,"standardPower":21.00}]}],"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序获取车型的所有靠谱指数全国HQ7002BEV15吉利汽车</t>
-  </si>
-  <si>
-    <t>/external-api/laboratory/models/reliable/exponent?</t>
-  </si>
-  <si>
-    <t>vehModel=HQ7002BEV15&amp;vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"driverRange":289.59,"middleChargeStartSoc":37.53,"standardDriverMileage":353.00,"standardPower":null,"power100km":null,"fastChargeDuration":54.47,"middleAnxiety":"中","satisfactionDegree":"低","onlineHailedCarRatio":null,"onlineHailedCarNumber":null},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序获取车型的所有靠谱指数北京市</t>
-  </si>
-  <si>
-    <t>city=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;vehModel=HQ7002BEV15&amp;vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"driverRange":291.55,"middleChargeStartSoc":35.42,"standardDriverMileage":353.00,"standardPower":null,"power100km":null,"fastChargeDuration":59.06,"middleAnxiety":"中","satisfactionDegree":"低","onlineHailedCarRatio":null,"onlineHailedCarNumber":null},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序获取车型的所有靠谱指数车型必填</t>
-  </si>
-  <si>
-    <t>vehFac=%E5%90%89%E5%88%A9%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>{"status":400,"errorMsg":"请求参数vehModel不能为空！","data":null,"error":true,"code":"30001"}</t>
-  </si>
-  <si>
-    <t>微信小程序获取车型的所有靠谱指数厂家必填</t>
-  </si>
-  <si>
-    <t>vehModel=HQ7002BEV15</t>
-  </si>
-  <si>
-    <t>{"status":400,"errorMsg":"请求参数vehFac不能为空！","data":null,"error":true,"code":"30001"}</t>
-  </si>
-  <si>
-    <t>微信小程序获取车型的所有靠谱指数为空</t>
-  </si>
-  <si>
-    <t>vehModel=123&amp;vehFac=123</t>
-  </si>
-  <si>
-    <t>微信小程序靠谱指数查询全国</t>
-  </si>
-  <si>
-    <t>/external-api/laboratory/models/reliable/rank?</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"THZ7000BEVS004","vehCommonName":"哪吒N01","unit":"km","standardDriverRange":301.0,"standardPower":14.0,"vehFac":"合众汽车"},{"vehModel":"BYD7005BEV1","vehCommonName":"E5","unit":"km","standardDriverRange":400.0,"standardPower":14.8,"vehFac":"比亚迪"},{"vehModel":"BJ7000C5D3-BEV","vehCommonName":"EU5","unit":"km","standardDriverRange":416.0,"standardPower":13.9,"vehFac":"北汽新能源"}],"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序靠谱指数查询北京市</t>
-  </si>
-  <si>
-    <t>city=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;type=01</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"THZ7000BEVS004","vehCommonName":"哪吒N01","unit":"km","standardDriverRange":301.00,"standardPower":14.00,"vehFac":"合众汽车"},{"vehModel":"BYD7005BEV1","vehCommonName":"E5","unit":"km","standardDriverRange":400.00,"standardPower":14.80,"vehFac":"比亚迪"},{"vehModel":"HQ7002BEV15","vehCommonName":"帝豪GSE400","unit":"km","standardDriverRange":353.00,"standardPower":14.53,"vehFac":"吉利汽车"}],"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序靠谱指数查询类型必填</t>
-  </si>
-  <si>
-    <t>{"status":400,"errorMsg":"请求参数type不能为空！","data":null,"error":true,"code":"30001"}</t>
-  </si>
-  <si>
-    <t>微信小程序靠谱指数查询全国返回1条</t>
-  </si>
-  <si>
-    <t>size=1&amp;type=02</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":[{"vehModel":"BJ7000U3D7G-BEV","vehCommonName":"EX360","unit":"km","standardDriverRange":318.0,"standardPower":16.7,"vehFac":"北汽新能源"}],"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序实际行驶总里程详情全国HQ7002BEV15吉利汽车</t>
-  </si>
-  <si>
-    <t>/external-api/laboratory/models/reliable/mileage/detail?</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","driverRange":289.59,"standardDriverMileage":353.0,"vehFac":"吉利汽车","unit":"km","monthType":[{"driverMileage":206.0,"month":"01"},{"driverMileage":234.76,"month":"02"},{"driverMileage":285.52,"month":"03"},{"driverMileage":298.19,"month":"04"},{"driverMileage":323.13,"month":"05"},{"driverMileage":321.67,"month":"06"},{"driverMileage":316.4,"month":"07"},{"driverMileage":320.0,"month":"08"},{"driverMileage":324.62,"month":"09"},{"driverMileage":315.65,"month":"10"},{"driverMileage":283.3,"month":"11"},{"driverMileage":245.88,"month":"12"}],"seasonType":[{"driverMileage":307.86,"season":"autumn"},{"driverMileage":302.28,"season":"spring"},{"driverMileage":319.36,"season":"summer"},{"driverMileage":228.88,"season":"winter"}]},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序实际行驶总里程详情北京市</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","driverRange":291.55,"standardDriverMileage":353.00,"vehFac":"吉利汽车","unit":"km","monthType":[{"driverMileage":209.00,"month":"01"},{"driverMileage":233.67,"month":"02"},{"driverMileage":289.40,"month":"03"},{"driverMileage":292.50,"month":"04"},{"driverMileage":332.49,"month":"05"},{"driverMileage":329.00,"month":"06"},{"driverMileage":321.29,"month":"07"},{"driverMileage":331.23,"month":"08"},{"driverMileage":338.00,"month":"09"},{"driverMileage":324.67,"month":"10"},{"driverMileage":274.93,"month":"11"},{"driverMileage":222.44,"month":"12"}],"seasonType":[{"driverMileage":312.53,"season":"autumn"},{"driverMileage":304.80,"season":"spring"},{"driverMileage":327.17,"season":"summer"},{"driverMileage":221.70,"season":"winter"}]},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序实际行驶总里程详情厂家必填</t>
-  </si>
-  <si>
-    <t>微信小程序实际行驶总里程详情车型必填</t>
-  </si>
-  <si>
-    <t>微信小程序使用焦虑度详情全国HQ7002BEV15吉利汽车</t>
-  </si>
-  <si>
-    <t>/external-api/laboratory/models/reliable/anxiety/detail?</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","middleChargeStartSoc":37.53,"middleAnxiety":"中","vehFac":"吉利汽车","unit":"%","monthType":[{"chargeStartSoc":42.50,"anxiety":"中","month":"01"},{"chargeStartSoc":31.50,"anxiety":"中","month":"02"},{"chargeStartSoc":37.00,"anxiety":"中","month":"03"},{"chargeStartSoc":39.50,"anxiety":"中","month":"04"},{"chargeStartSoc":39.00,"anxiety":"中","month":"05"},{"chargeStartSoc":37.98,"anxiety":"中","month":"06"},{"chargeStartSoc":37.00,"anxiety":"中","month":"07"},{"chargeStartSoc":37.00,"anxiety":"中","month":"08"},{"chargeStartSoc":38.00,"anxiety":"中","month":"09"},{"chargeStartSoc":38.00,"anxiety":"中","month":"10"},{"chargeStartSoc":36.92,"anxiety":"中","month":"11"},{"chargeStartSoc":36.00,"anxiety":"中","month":"12"}],"seasonType":[{"chargeStartSoc":37.64,"anxiety":"中","season":"autumn"},{"chargeStartSoc":38.50,"anxiety":"中","season":"spring"},{"chargeStartSoc":37.33,"anxiety":"中","season":"summer"},{"chargeStartSoc":36.67,"anxiety":"中","season":"winter"}]},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序使用焦虑度详情北京市</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","middleChargeStartSoc":35.42,"middleAnxiety":"中","vehFac":"吉利汽车","unit":"%","monthType":[{"chargeStartSoc":42.00,"anxiety":"中","month":"01"},{"chargeStartSoc":31.00,"anxiety":"中","month":"02"},{"chargeStartSoc":37.00,"anxiety":"中","month":"03"},{"chargeStartSoc":39.00,"anxiety":"中","month":"04"},{"chargeStartSoc":36.00,"anxiety":"中","month":"05"},{"chargeStartSoc":35.00,"anxiety":"中","month":"06"},{"chargeStartSoc":34.00,"anxiety":"中","month":"07"},{"chargeStartSoc":35.00,"anxiety":"中","month":"08"},{"chargeStartSoc":35.08,"anxiety":"中","month":"09"},{"chargeStartSoc":35.00,"anxiety":"中","month":"10"},{"chargeStartSoc":33.00,"anxiety":"中","month":"11"},{"chargeStartSoc":33.00,"anxiety":"中","month":"12"}],"seasonType":[{"chargeStartSoc":34.36,"anxiety":"中","season":"autumn"},{"chargeStartSoc":37.33,"anxiety":"中","season":"spring"},{"chargeStartSoc":34.67,"anxiety":"中","season":"summer"},{"chargeStartSoc":35.33,"anxiety":"中","season":"winter"}]},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序使用焦虑度详情厂家必填</t>
-  </si>
-  <si>
-    <t>微信小程序使用焦虑度详情车型必填</t>
-  </si>
-  <si>
-    <t>微信小程序快充满意度详情全国HQ7002BEV15吉利汽车</t>
-  </si>
-  <si>
-    <t>/external-api/laboratory/models/reliable/charge/detail?</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","fastChargeDuration":54.47,"satisfactionDegree":"低","vehFac":"吉利汽车","unit":"min","monthType":[{"fastChargeTime":97.50,"satisfactionDegree":"低","month":"01"},{"fastChargeTime":41.00,"satisfactionDegree":"中","month":"02"},{"fastChargeTime":92.67,"satisfactionDegree":"低","month":"03"},{"fastChargeTime":0,"satisfactionDegree":"低","month":"04"},{"fastChargeTime":45.67,"satisfactionDegree":"低","month":"05"},{"fastChargeTime":44.50,"satisfactionDegree":"中","month":"06"},{"fastChargeTime":45.14,"satisfactionDegree":"低","month":"07"},{"fastChargeTime":44.34,"satisfactionDegree":"中","month":"08"},{"fastChargeTime":44.73,"satisfactionDegree":"中","month":"09"},{"fastChargeTime":45.18,"satisfactionDegree":"低","month":"10"},{"fastChargeTime":47.66,"satisfactionDegree":"低","month":"11"},{"fastChargeTime":50.83,"satisfactionDegree":"低","month":"12"}],"seasonType":[{"fastChargeTime":45.86,"satisfactionDegree":"低","season":"autumn"},{"fastChargeTime":69.17,"satisfactionDegree":"低","season":"spring"},{"fastChargeTime":44.66,"satisfactionDegree":"中","season":"summer"},{"fastChargeTime":63.11,"satisfactionDegree":"低","season":"winter"}]},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序快充满意度详情北京市</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vehModel":"帝豪GSE400","fastChargeDuration":59.06,"satisfactionDegree":"低","vehFac":"吉利汽车","unit":"min","monthType":[{"fastChargeTime":97.50,"satisfactionDegree":"低","month":"01"},{"fastChargeTime":41.00,"satisfactionDegree":"中","month":"02"},{"fastChargeTime":92.67,"satisfactionDegree":"低","month":"03"},{"fastChargeTime":0,"satisfactionDegree":"低","month":"04"},{"fastChargeTime":50.28,"satisfactionDegree":"低","month":"05"},{"fastChargeTime":49.00,"satisfactionDegree":"低","month":"06"},{"fastChargeTime":50.63,"satisfactionDegree":"低","month":"07"},{"fastChargeTime":48.96,"satisfactionDegree":"低","month":"08"},{"fastChargeTime":48.58,"satisfactionDegree":"低","month":"09"},{"fastChargeTime":50.00,"satisfactionDegree":"低","month":"10"},{"fastChargeTime":56.83,"satisfactionDegree":"低","month":"11"},{"fastChargeTime":64.19,"satisfactionDegree":"低","month":"12"}],"seasonType":[{"fastChargeTime":51.80,"satisfactionDegree":"低","season":"autumn"},{"fastChargeTime":71.48,"satisfactionDegree":"低","season":"spring"},{"fastChargeTime":49.53,"satisfactionDegree":"低","season":"summer"},{"fastChargeTime":67.56,"satisfactionDegree":"低","season":"winter"}]},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>微信小程序快充满意度详情厂家必填</t>
-  </si>
-  <si>
-    <t>微信小程序快充满意度详情车型必填</t>
-  </si>
-  <si>
-    <t>鼎然科技行程查询vin正确</t>
-  </si>
-  <si>
-    <t>/external-api/vrm/vehicle/trips?</t>
-  </si>
-  <si>
-    <t>vin=LC06S64M0H1993466&amp;start_time=2019-05-01%2012%3A01%3A01&amp;end_time=2020-05-01%2012%3A01%3A01</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","trips":[{"st_time_e":1577754843000,"et_time_e":1577759972000,"start_longitude":114.027226,"start_latitude":22.620051,"start_province":"广东省","start_city":"深圳市","start_district":"南山区","end_longitude":113.99717,"end_latitude":22.54831,"end_province":"广东省","end_city":"深圳市","end_district":"福田区","time_length":5129000,"start_mileage":144357.9,"stop_mileage":144381.2,"max_speed":53.0,"avg_speed":24.85}]},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>鼎然科技行程查询vin无数据</t>
-  </si>
-  <si>
-    <t>vin=123&amp;start_time=2019-05-01%2012%3A01%3A01&amp;end_time=2020-05-01%2012%3A01%3A01</t>
-  </si>
-  <si>
-    <t>鼎然科技行程汇总查询vin正确</t>
-  </si>
-  <si>
-    <t>/external-api/vrm/vehicle/summary/tags?</t>
-  </si>
-  <si>
-    <t>vin=LC06S64M0H1993466</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","summary_result":"1,69100,0,0,0,0,0,96800,134200,0,114100,89300,41300,117400,0,134900,57100,56700,45000,89300,94400,18900,0,0,44800,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,66,2,13,45,6,0,6,13,46,0,0,1,0,6,0,0,0,0,0,0,32400,44700,38000,0,22300,22400,37800,0,44800,37800,0,44600,37900,0,0,0,0,35500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,22,1,3,16,2,0,2,4,15,0,1,0,0,2,1448800,0,0,0,0,0,3734700,3279800,786400,4568800,2145400,5333900,2747400,643200,2375300,4029000,836800,1741100,2420600,4135900,1100500,360000,843400,2368700,0,723700,2281200,1915100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,43300,0,0,0,0,74,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2126,101,502,1119,370,34,302,499,986,11,8,320,0,250,815800,0,0,0,0,0,1780100,1384000,1489500,1588300,694100,1933200,1404400,288300,752600,1653000,735700,710700,1365200,1165400,369000,66400,320500,1158800,0,261800,619300,727300,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,39500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,63600,0,0,0,0,67,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,941,58,237,453,189,4,138,236,404,2,4,157,0,115,440309,440304,440305,440306,440303,440307,810012,810014,440606,0,0,0,0,0,0,40825600,16559800,6216700,472900,230800,106500,23700,23200,20100,0,0,0,0,0,0,64574700,1039,606,315,258,241,157,33,16,15,13,3067,0#LC06S64M0H1993466#2020-05-18#64574700#15138908#3067#10.6#347#0#0#72.7#72.6#441#6000#2223008#2#0_0_1#0.144_0.924_0.022#64574700#3067#365#2020-05-18#167512700#69896400","charge_times":343,"fast_charge_times":1,"total_charge_time_length":1863103.0,"total_fast_charge_time_length":1219.0,"end_charge_avg_soc":92.62973760932945,"max_weight":"17950","displacement":"","max_speed":"100","length":"10690","drive_range":469.0,"motor_type":"永磁同步电机","kwh_100km":0.0,"cell_enterprise":"惠州比亚迪电池有限公司","battery_type":"磷酸铁锂","manufacturer":"比亚迪汽车工业有限公司","brand":"比亚迪牌","veh_category_2":"纯电动客车","veh_model_name":"BYD6110LLEV","veh_level":"","produce_date":"2017"},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>鼎然科技行程汇总查询vin无数据</t>
-  </si>
-  <si>
-    <t>平安租赁实时数据按vin查询</t>
-  </si>
-  <si>
-    <t>/external-api/vrm/vehicle/realTime?</t>
-  </si>
-  <si>
-    <t>vin=LC0CE4CB7J0101806</t>
-  </si>
-  <si>
     <t>平安租赁实时数据按licensePlate查询</t>
   </si>
   <si>
@@ -731,7 +674,7 @@
     <t>/external-api/vrm/vehicle/whole/tag?</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"LNBSCB3F8GW022110","power_type":"BEV","brand":"北京","veh_model_name":"BJ7001BPH1-BEV","drive_range":156.0,"positive_material":"层状三元材料","cell_manufacturer":"孚能科技（赣州）有限公司/","kwh_100km":"","is_online":1,"run_location":"河南省鹤壁市浚县","province_dept":"山东省","city_dept":"青岛市","veh_category_2":"计时租赁","first_run_date":"2018-05-04","first_charge_date":"2018-05-04","total_run_mile":250610.0,"total_high_temp_run_mile":14150.0,"total_low_temp_run_mile":140.0,"total_low_soc_run_times":167,"avg_daily_run_mile":517.7892561983471,"avg_daily_run_time_length":6882.384297520661,"avg_charge_times_per_100km":0.1552212601252943,"avg_charge_start_soc":35.48586118251928,"avg_charge_end_soc":83.60411311053984,"last_charge_time":"2020-04-29","last_charge_location":"河南省安阳市","total_alarm_times":38,"max_alarm_name":"绝缘报警","risk_score":0.0,"total_night_run_mile":31450.0,"total_night_run_time_length":420446.0,"total_summer_run_mile":80320.0,"total_winter_run_mile":50990.0,"charge_times":389},"error":false,"code":"10000"}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LNBSCB3F8GW022110","power_type":"BEV","brand":"北京","veh_model_name":"BJ7001BPH1-BEV","drive_range":156.0,"positive_material":"层状三元材料","cell_manufacturer":"孚能科技（赣州）有限公司/","is_online":1,"run_location":"河南省鹤壁市浚县","province_dept":"山东省","city_dept":"青岛市","veh_category_2":"计时租赁","first_run_date":"2018-05-04","first_charge_date":"2018-05-04","total_run_mile":250610.0,"total_high_temp_run_mile":14150.0,"total_low_temp_run_mile":140.0,"total_low_soc_run_times":167,"avg_daily_run_mile":517.7892561983471,"avg_daily_run_time_length":6882.384297520661,"avg_charge_times_per_100km":0.1552212601252943,"avg_charge_start_soc":35.48586118251928,"avg_charge_end_soc":83.60411311053984,"last_charge_time":"2020-04-29","last_charge_location":"河南省安阳市","total_alarm_times":38,"max_alarm_name":"绝缘报警","risk_score":0.0,"total_night_run_mile":31450.0,"total_night_run_time_length":420446.0,"total_summer_run_mile":80320.0,"total_winter_run_mile":50990.0,"charge_times":389},"error":false,"code":"10000"}</t>
   </si>
   <si>
     <t>中保信整体标签查询按vin查询无数据</t>
@@ -812,54 +755,6 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>平安标签调用正常</t>
-  </si>
-  <si>
-    <t>/external-api/vrm/insurance/lable</t>
-  </si>
-  <si>
-    <t>?vin=AFljhq9A/QehWzuUTaWTAcCRvWkBaukB42u0UZV6MKhfebcXZmO/DvmOI6y8SQgCSPbcQ7SbWtaT6SCIwtgPP48SLkTvWMnFeZOtAgmewiTNUeswSZK8v3xoyloYqAz0UxhtJTfDnCdNfEdxEgYP9R9Su0ns8wpwYqMJG7EVzHo=</t>
-  </si>
-  <si>
-    <t>XyiZs5p41ACCwp8OM0J1GaAUH/RGRn1loRxbId6Vpo1iNiDntAL7X6JqskamA2CFG0avqCoLUcbJEpwHsJqoOAHg9YBIcHxXi5QaQmK5HiO6PhK5b2enayWxe+OnOO2zu2NxQ63mCE/YVVhBtKSGLXDRCXIHIrTPZQi7Gj0zdZ0=</t>
-  </si>
-  <si>
-    <t>1581407620143</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"risk_score":22.0257,"mileage_12":6303.0,"mileage_24":3623.0,"mileage_36":0.0,"avg_run_time_length_monthly":1.6908846153846152E7,"avg_run_speed":319.0673120668706,"brake_acc_count_per_100km":0.0,"acc_count_per_100km":0.0,"speed_range00_rate":0.2437958755679832,"speed_range20_rate":0.18437609227542817,"speed_range40_rate":0.19608528486543167,"speed_range60_rate":0.06675987416987067,"speed_range80_rate":0.00611674239776302,"speed_range100_rate":8.738203425375742E-4,"speed_range120_rate":0.0,"speed_range140_rate":0.0,"fatigue_driving_rate":0.0,"avg_run_days_monthly":7.769230769230769,"avg_run_count_monthly":12.076923076923077,"avg_fast_charge_count_monthly":0.0,"avg_slow_charge_count_monthly":1.9090909090909092},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>平安标签vin未加密码</t>
-  </si>
-  <si>
-    <t>?vin=LGXC76C36G0156932</t>
-  </si>
-  <si>
-    <t>{"status":406,"errorMsg":"确保VIN是否已加密！","data":null,"error":true,"code":"40000"}</t>
-  </si>
-  <si>
-    <t>平安标签时间戳错误认证失败</t>
-  </si>
-  <si>
-    <t>1581407620140</t>
-  </si>
-  <si>
-    <t>{"status":406,"errorMsg":"验签失败！","data":null,"error":true,"code":"40000"}</t>
-  </si>
-  <si>
-    <t>平安标签查询vin内容不存在</t>
-  </si>
-  <si>
-    <t>?vin=HbkvkJ4hp%2FdyFkgYd73SkY4rUgVkldvzMKLOSH9M4UZgJATl7mo97PeqhVip%2FWP6iwioAiSMIN4KGUGF5zG8xHZibsr2vl1oIypNDAqbUf0s5xHW2moPsezG%2FedhntbeDRpAqV%2BPIlvq0kblkVewus3A%2B%2BvX32GHm70rs7xbJ6Y%3D</t>
-  </si>
-  <si>
-    <t>cw1EWG0f1cHwAvEfyifsToWHBy2CJkmeKu6cDwPMy9mW2K8ZgfJFZyteVatJAMpmWGAk2d17//F25cwP9phjoAlRT7IKBA1OQUMyN2IsDQJOukh12d7e9zt3Yd/cZaUp1mBTt8AZgtq1l45i0+p5cbGC7yJUn+hYZ8uXf2BOtr4=</t>
-  </si>
-  <si>
-    <t>1581408151875</t>
-  </si>
-  <si>
     <t>精励联讯保险调用正常--LGXC76C3XJ0108468</t>
   </si>
   <si>
@@ -896,7 +791,7 @@
     <t>?customerId=123</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":"车架号与车牌号至少传一个","data":null,"error":true,"code":"40000"}</t>
+    <t>{"status":200,"errorMsg":"参数vin、licensePlate至少传一个！","data":null,"error":true,"code":"30001"}</t>
   </si>
   <si>
     <t>精励联讯保险查询vin无数据</t>
@@ -945,8 +840,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -979,11 +874,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,15 +911,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1017,45 +940,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,7 +978,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1091,8 +993,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,15 +1003,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,7 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1042,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,37 +1084,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,19 +1132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,13 +1156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,31 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,25 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,17 +1212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1348,6 +1232,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,26 +1299,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1419,148 +1314,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,10 +1466,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1940,7 +1835,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1954,7 +1849,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1982,7 +1877,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1996,7 +1891,7 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -2010,7 +1905,7 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -2096,16 +1991,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2147,30 +2042,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2109,7 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2228,7 +2123,7 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
@@ -2349,7 +2244,7 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
@@ -2617,7 +2512,7 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C2" t="s">
@@ -2631,7 +2526,7 @@
       <c r="A3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C3" t="s">
@@ -2645,7 +2540,7 @@
       <c r="A4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C4" t="s">
@@ -2659,7 +2554,7 @@
       <c r="A5" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C5" t="s">
@@ -2726,10 +2621,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2772,13 +2667,13 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2800,66 +2695,66 @@
         <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
         <v>143</v>
       </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
         <v>134</v>
@@ -2867,100 +2762,97 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
         <v>169</v>
       </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
         <v>154</v>
-      </c>
-      <c r="D16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2968,192 +2860,195 @@
         <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
         <v>177</v>
-      </c>
-      <c r="B18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
         <v>179</v>
-      </c>
-      <c r="B19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
         <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
         <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" t="s">
         <v>196</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>197</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
         <v>199</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>197</v>
-      </c>
-      <c r="C29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
         <v>201</v>
-      </c>
-      <c r="B30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3161,27 +3056,27 @@
         <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s">
         <v>203</v>
       </c>
-      <c r="B32" t="s">
-        <v>204</v>
-      </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3189,13 +3084,13 @@
         <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
         <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3203,27 +3098,24 @@
         <v>209</v>
       </c>
       <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" t="s">
         <v>210</v>
       </c>
-      <c r="C34" t="s">
-        <v>211</v>
-      </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
         <v>213</v>
-      </c>
-      <c r="B35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3234,10 +3126,10 @@
         <v>215</v>
       </c>
       <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" t="s">
         <v>216</v>
-      </c>
-      <c r="D36" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3248,118 +3140,9 @@
         <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>233</v>
-      </c>
-      <c r="B44" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" t="s">
-        <v>223</v>
-      </c>
-      <c r="D44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3438,16 +3221,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3465,7 +3248,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -3489,88 +3272,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>242</v>
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3582,13 +3365,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.6388888888889" customWidth="1"/>
     <col min="2" max="2" width="42.5462962962963" customWidth="1"/>
@@ -3609,10 +3392,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3620,161 +3403,81 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" t="s">
         <v>134</v>
       </c>
     </row>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="639" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="639" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,18 @@
     <sheet name="saasget" sheetId="3" r:id="rId3"/>
     <sheet name="backsaas" sheetId="4" r:id="rId4"/>
     <sheet name="apicode" sheetId="11" r:id="rId5"/>
-    <sheet name="apipost" sheetId="13" r:id="rId6"/>
-    <sheet name="apipostparas" sheetId="14" r:id="rId7"/>
-    <sheet name="geodedata" sheetId="15" r:id="rId8"/>
-    <sheet name="平安保险" sheetId="16" r:id="rId9"/>
-    <sheet name="线上api接口get类型" sheetId="17" r:id="rId10"/>
-    <sheet name="saasv2查询get" sheetId="18" r:id="rId11"/>
+    <sheet name="apipostparas" sheetId="14" r:id="rId6"/>
+    <sheet name="geodedata" sheetId="15" r:id="rId7"/>
+    <sheet name="平安保险" sheetId="16" r:id="rId8"/>
+    <sheet name="线上api接口get类型" sheetId="17" r:id="rId9"/>
+    <sheet name="saasv2查询get" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="269">
   <si>
     <t>desc</t>
   </si>
@@ -629,7 +628,7 @@
     <t>平安租赁实时数据按vin查询无数据</t>
   </si>
   <si>
-    <t>{"status":400,"errorMsg":"此车不在查询范围内！","data":null,"error":true,"code":"30004"}</t>
+    <t>{"status":400,"errorMsg":"此车不在查询范围内","data":null,"error":true,"code":"30004"}</t>
   </si>
   <si>
     <t>中保信车辆静态信息按vin查询正确</t>
@@ -665,7 +664,7 @@
     <t>/external-api/vrm/vehicle/static/tag</t>
   </si>
   <si>
-    <t>{"status":400,"errorMsg":"参数vin和licensePlate至少传一个！","data":null,"error":true,"code":"30001"}</t>
+    <t>{"status":400,"errorMsg":"参数vin和licensePlate至少传一个","data":null,"error":true,"code":"30001"}</t>
   </si>
   <si>
     <t>中保信整体标签查询按vin查询正确</t>
@@ -791,7 +790,7 @@
     <t>?customerId=123</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":"参数vin、licensePlate至少传一个！","data":null,"error":true,"code":"30001"}</t>
+    <t>{"status":200,"errorMsg":"参数vin、licensePlate至少传一个","data":null,"error":true,"code":"30001"}</t>
   </si>
   <si>
     <t>精励联讯保险查询vin无数据</t>
@@ -875,7 +874,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,51 +941,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,16 +978,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,39 +1002,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,6 +1014,138 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1030,37 +1161,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,127 +1185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,41 +1235,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,13 +1270,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,148 +1313,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1961,57 +1960,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.0925925925926" customWidth="1"/>
-    <col min="2" max="2" width="50.6388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.6388888888889" customWidth="1"/>
-    <col min="4" max="4" width="50.0925925925926" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,8 +2571,8 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3155,52 +3103,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="23.0925925925926" customWidth="1"/>
-    <col min="2" max="2" width="57.0925925925926" customWidth="1"/>
-    <col min="3" max="3" width="23.9074074074074" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="31.5462962962963" customWidth="1"/>
-    <col min="2" max="2" width="27.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="32.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="35.6388888888889" customWidth="1"/>
     <col min="4" max="4" width="72.9074074074074" customWidth="1"/>
   </cols>
@@ -3242,7 +3154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -3362,13 +3274,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -3485,4 +3397,55 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.0925925925926" customWidth="1"/>
+    <col min="2" max="2" width="50.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.6388888888889" customWidth="1"/>
+    <col min="4" max="4" width="50.0925925925926" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="639" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="639" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="apicode" sheetId="11" r:id="rId5"/>
     <sheet name="apipostparas" sheetId="14" r:id="rId6"/>
     <sheet name="geodedata" sheetId="15" r:id="rId7"/>
-    <sheet name="平安保险" sheetId="16" r:id="rId8"/>
+    <sheet name="加密加签接口" sheetId="16" r:id="rId8"/>
     <sheet name="线上api接口get类型" sheetId="17" r:id="rId9"/>
     <sheet name="saasv2查询get" sheetId="18" r:id="rId10"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="306">
   <si>
     <t>desc</t>
   </si>
@@ -601,30 +601,51 @@
     <t>vin=LC06S64M0H1993466</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","summary_result":"1,69100,0,0,0,0,0,96800,134200,0,114100,89300,41300,117400,0,134900,57100,56700,45000,89300,94400,18900,0,0,44800,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,66,2,13,45,6,0,6,13,46,0,0,1,0,6,0,0,0,0,0,0,32400,44700,38000,0,22300,22400,37800,0,44800,37800,0,44600,37900,0,0,0,0,35500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,22,1,3,16,2,0,2,4,15,0,1,0,0,2,1448800,0,0,0,0,0,3734700,3279800,786400,4568800,2145400,5333900,2747400,643200,2375300,4029000,836800,1741100,2420600,4135900,1100500,360000,843400,2368700,0,723700,2281200,1915100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,43300,0,0,0,0,74,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2126,101,502,1119,370,34,302,499,986,11,8,320,0,250,815800,0,0,0,0,0,1780100,1384000,1489500,1588300,694100,1933200,1404400,288300,752600,1653000,735700,710700,1365200,1165400,369000,66400,320500,1158800,0,261800,619300,727300,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,39500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,63600,0,0,0,0,67,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,941,58,237,453,189,4,138,236,404,2,4,157,0,115,440309,440304,440305,440306,440303,440307,810012,810014,440606,0,0,0,0,0,0,40825600,16559800,6216700,472900,230800,106500,23700,23200,20100,0,0,0,0,0,0,64574700,1039,606,315,258,241,157,33,16,15,13,3067,0#LC06S64M0H1993466#2020-05-18#64574700#15138908#3067#10.6#347#0#0#72.7#72.6#441#6000#2223008#2#0_0_1#0.144_0.924_0.022#64574700#3067#365#2020-05-18#167512700#69896400","charge_times":343,"fast_charge_times":1,"total_charge_time_length":1863103.0,"total_fast_charge_time_length":1219.0,"end_charge_avg_soc":92.62973760932945,"max_weight":"17950","displacement":"","max_speed":"100","length":"10690","drive_range":469.0,"motor_type":"永磁同步电机","kwh_100km":0.0,"cell_enterprise":"惠州比亚迪电池有限公司","battery_type":"磷酸铁锂","manufacturer":"比亚迪汽车工业有限公司","brand":"比亚迪牌","veh_category_2":"纯电动客车","veh_model_name":"BYD6110LLEV","veh_level":"","produce_date":"2017"},"error":false,"code":"10000"}</t>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","charge_times":343,"fast_charge_times":1,"total_charge_time_length":1863103.0,"total_fast_charge_time_length":1219.0,"end_charge_avg_soc":92.62973760932945,"max_weight":"17950","displacement":"","max_speed":"100","length":"10690","drive_range":469.0,"motor_type":"永磁同步电机","kwh_100km":0.0,"cell_enterprise":"惠州比亚迪电池有限公司","battery_type":"磷酸铁锂","manufacturer":"比亚迪汽车工业有限公司","brand":"比亚迪牌","veh_category_2":"纯电动客车","veh_model_name":"BYD6110LLEV","veh_level":"","produce_date":"2017"},"error":false,"code":"10000"}</t>
   </si>
   <si>
     <t>鼎然科技行程汇总查询vin无数据</t>
   </si>
   <si>
+    <t>鼎然科技行程信息查询vin正确HDL421BGXK1000403</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/trips?</t>
+  </si>
+  <si>
+    <t>vin=HDL421BGXK1000403&amp;statisticDate=2020-06-15</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"HDL421BGXK1000403","statisticDate":"2020-06-15","start_mileage":11560.0,"end_mileage":11570.0,"odo_mileage":10.0,"total_run_mile":10.0,"total_run_time_length":290,"total_run_times":1,"total_acc_count":0,"total_brake_acc_count":0},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>鼎然科技行程信息查询vin无数据</t>
+  </si>
+  <si>
+    <t>vin=HDL421BGXK100040&amp;statisticDate=2020-06-15</t>
+  </si>
+  <si>
+    <t>鼎然科技行程信息查询日期格式不正确</t>
+  </si>
+  <si>
+    <t>vin=HDL421BGXK100040&amp;statisticDate=2020-06-15%2000</t>
+  </si>
+  <si>
+    <t>{"status":400,"errorMsg":"statisticDate 日期格式不正确(yyyy-MM-dd)","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
     <t>平安租赁实时数据按vin查询</t>
   </si>
   <si>
     <t>/external-api/vrm/vehicle/realTime?</t>
   </si>
   <si>
-    <t>vin=LC0CE4CB7J0101806</t>
+    <t>vin=LNAA2AA14K5005789</t>
   </si>
   <si>
     <t>{"status":200,"errorMsg":null,"error":false,"code":"10000"}</t>
   </si>
   <si>
-    <t>平安租赁实时数据按licensePlate查询</t>
-  </si>
-  <si>
-    <t>licensePlate=%E4%BA%ACAD98062</t>
-  </si>
-  <si>
     <t>平安租赁实时数据按vin查询无数据</t>
   </si>
   <si>
@@ -757,10 +778,10 @@
     <t>精励联讯保险调用正常--LGXC76C3XJ0108468</t>
   </si>
   <si>
-    <t>/external-api/vrm/genilex/insurance/lable</t>
-  </si>
-  <si>
-    <t>?vin=CEICmUK8TYpnFfkToJCvfC%2FGI%2FHxHhgNewUaf%2B2xJmtH4LpUD3HEvCfs8Vh9yEnjWViYEcRQUtnoUhdo3Cm95%2BrSd%2BBh5dhyqrXywGx7NHJfGuUWer4xkCF78e7qwwNoqzkv1DidMPpA45quVI0L8PMw%2BSMbYNiu70hVS5adN84%3D&amp;customerId=123</t>
+    <t>/external-api/vrm/genilex/insurance/lable?</t>
+  </si>
+  <si>
+    <t>vin=CEICmUK8TYpnFfkToJCvfC%2FGI%2FHxHhgNewUaf%2B2xJmtH4LpUD3HEvCfs8Vh9yEnjWViYEcRQUtnoUhdo3Cm95%2BrSd%2BBh5dhyqrXywGx7NHJfGuUWer4xkCF78e7qwwNoqzkv1DidMPpA45quVI0L8PMw%2BSMbYNiu70hVS5adN84%3D&amp;customerId=123</t>
   </si>
   <si>
     <t>djKx876kY0HGWS4UKNCwasskI3j5vh92Y40L6eEmY7TzysROyIcPccFnFlE76BUUXfWz1YGDjUTa5rLx4HJzty3XQhQKZK23O76P6HfJJsg0slkBufD6J6aVgdIIfLo7Evny7PyJPDpHqRK3PvnTFxoge3AO+PHJe2HlGO29q1s=</t>
@@ -775,7 +796,7 @@
     <t>精励联讯保险调用正常--津AF05690</t>
   </si>
   <si>
-    <t>?licensePlate=FkgzYFyc2oOym3KJnuxGEABKA2p0p1c3PY4EVlCM9P13DvBK%2BO9loMrTduQA3wruxKdqKV9aqonahmuoocjdCa91amdP36DMya4zrePl9DQeW6XjT61GXmY5QqPIEXR1A7qKt8NSt5ck0dEUeqQT%2F%2FEOXXdvEnoWpnOeZ%2F6LG8A%3D&amp;customerId=123</t>
+    <t>licensePlate=FkgzYFyc2oOym3KJnuxGEABKA2p0p1c3PY4EVlCM9P13DvBK%2BO9loMrTduQA3wruxKdqKV9aqonahmuoocjdCa91amdP36DMya4zrePl9DQeW6XjT61GXmY5QqPIEXR1A7qKt8NSt5ck0dEUeqQT%2F%2FEOXXdvEnoWpnOeZ%2F6LG8A%3D&amp;customerId=123</t>
   </si>
   <si>
     <t>UvgSk2dsQjj4A5nsVlvEUuJSMveTKY2Zx67HuWCDkGAmInoi2pjnVMHZm3cLA7OHlpQSMy2/X+OiFyN0RkMKPP1LlHaJvNAQV24zf102/eAj4I3QbL39yFbtEVs0mhS30zgduraATJ0uYrPzim0mzc8PhbX+RV4cm/1V49w7ycc=</t>
@@ -787,7 +808,7 @@
     <t>精励联讯保险车架号与车牌号至少传一个</t>
   </si>
   <si>
-    <t>?customerId=123</t>
+    <t>customerId=123</t>
   </si>
   <si>
     <t>{"status":200,"errorMsg":"参数vin、licensePlate至少传一个","data":null,"error":true,"code":"30001"}</t>
@@ -796,13 +817,103 @@
     <t>精励联讯保险查询vin无数据</t>
   </si>
   <si>
-    <t>?vin=KaXkK8k5Y3zhSSW1acBVm%2B%2BWOr5Kp8s1t5EWLAcftir1564%2BhsEdTemSjtk18KasjykZDWNshvLFIiQH1jazsVUVlojvthvy6fXe34g1Gsdx6a3hFB6XYxLFjAL%2Fq2wG5LU0yvZrToV8mXOnUOKRTFJTfV1WoQF0B%2F4E6Or4tXk%3D&amp;customerId=123</t>
+    <t>vin=KaXkK8k5Y3zhSSW1acBVm%2B%2BWOr5Kp8s1t5EWLAcftir1564%2BhsEdTemSjtk18KasjykZDWNshvLFIiQH1jazsVUVlojvthvy6fXe34g1Gsdx6a3hFB6XYxLFjAL%2Fq2wG5LU0yvZrToV8mXOnUOKRTFJTfV1WoQF0B%2F4E6Or4tXk%3D&amp;customerId=123</t>
   </si>
   <si>
     <t>oa1rG573rgsTa5xbgSfniR5kCjHxZZeuzAXJjZP5AdXwg5Kd4sjzMXipeLojJpa6vwY8d0Xpui2JdwBBeawWogi6XSCCyMJBiWr+fkrcac7r7ctU+cu357bpam4ARq16POBxApw3H/WaKTeWOfF+siVsIcFbMxIn6EkVahCtw5w=</t>
   </si>
   <si>
     <t>1584343514140</t>
+  </si>
+  <si>
+    <t>平安保险核保标签查询正常vin为LGXC76C3XJ0108468</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/insurance/lable?</t>
+  </si>
+  <si>
+    <t>vin=TQV1pZtSoCYtdUgtWFvTkpW3luttCnrFKdFqEmXzyQVGTyI2AD2spx2TPTBFUeJYNWNN0XV3%2ByjnnrlxtoqWQd4rLfMjzsY4wyzdWc4MGMaWNWpnocFzoJGr%2B7xWfblNmaZ7bW8E4psARR%2FcGXGOKuPkDAyLSJW%2BZ2o5CvIGuMU%3D</t>
+  </si>
+  <si>
+    <t>PInyLiz+Vcn4MjSsiRuVXnPbuURF5cFxryqaflShqFOcAuYr3SRoSpHspgEz4Dbi1iVxocxhIOYShyZSOWZuLwWyjypq3JPVKD/80N1HU0GBhpLY/k+4EF7nQhb54ShgT/cIxQEWjMt57q/wH4tBwRiJUBNeGVD8wtRdz84YeAw=</t>
+  </si>
+  <si>
+    <t>1594892574198</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":24.954246567451747,"mileage_12":42.0,"mileage_24":12450.0,"mileage_36":0.0,"avg_run_time_length_monthly":3.1509230769230768E7,"avg_run_speed":486.27997405250613,"brake_acc_count_per_100km":0.054377379010331704,"acc_count_per_100km":0.0,"speed_range00_rate":0.21017593913456967,"speed_range20_rate":0.2051038199397686,"speed_range40_rate":0.16880646695197338,"speed_range60_rate":0.08115390711681725,"speed_range80_rate":0.058804881914724993,"speed_range100_rate":0.06134094151212553,"speed_range120_rate":0.009827230939927089,"speed_range140_rate":9.510223490252021E-4,"fatigue_driving_rate":0.011056589033738587,"avg_run_days_monthly":4.384615384615385,"avg_run_count_monthly":11.692307692307692,"avg_fast_charge_count_monthly":0.3333333333333333,"avg_slow_charge_count_monthly":2.3333333333333335},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>平安保险核保标签查询timestamp有误验签失败</t>
+  </si>
+  <si>
+    <t>159489257419</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":"验签失败","data":null,"error":true,"code":"30010"}</t>
+  </si>
+  <si>
+    <t>平安保险核保标签查询无结果vin为LGXC76C3XJ010846</t>
+  </si>
+  <si>
+    <t>vin=JJ9f5rAzm5sjS43hifEef71gr4M5Dwqq6NoSc9G%2FBuLIJo2c0z2R5%2Bqljq6APZX4aVt%2B9B0%2Bp2fpHQ029X%2BFhpZIeRE6GAgzEgL5aHVCg4gefRLXs4cMKIC%2Bl9O9Nw1ufHN5F%2BHAQYuF8jTyaSZs0LgnoFZLt%2BY%2FM8VUNGKhnnI%3D</t>
+  </si>
+  <si>
+    <t>v8gO/yvRT1f7qAurXrkXc1O8fQBvRJb8oBfS8P2OovtQkpfdfVnbrwluHr84hJxXJkGnE2me2gTNwLbYuXEPDpYAIcR28Tq0AWqsZACU9CivxSvIZXWMiRZiUN68UBObKhuM8gA1sDyciJP4AQzEM2w2koMxikzio4bX3LMuIc0=</t>
+  </si>
+  <si>
+    <t>1594893586349</t>
+  </si>
+  <si>
+    <t>平安保险核保标签查询vin未加密</t>
+  </si>
+  <si>
+    <t>vin=LGXC76C3XJ0108468</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":"确保VIN是否已加密","data":null,"error":true,"code":"30008"}</t>
+  </si>
+  <si>
+    <t>平安保险车主服务数据查询正确L6T78Y4W0FN072057</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/vehicle/battery/tag?</t>
+  </si>
+  <si>
+    <t>vin=BPyYt6SH%2FxlnZlAYCXIUF0lQulsf8GCM%2BinAbX1%2BvtwMFCwWxUyNEDCy1H8jxwE%2FFrNZqLaerifR1xH1S8YUPrDJdXoBl5SAtsLY64UoYuvOj8jBQbEEFEdtjqj30ZptdLON4nxrzKNa%2BiMEvApeHmJYhlgUtdTRgGzF0qq6IoM%3D</t>
+  </si>
+  <si>
+    <t>hPXyRB64DMZPuw/pLG2yHgAzoRVaGrhjfG0odPvEto3LyBGWZNdh0hsz87fRKXlOve+Yo8DBazGZcDHVMkuJVWC2IAD6tcztiaeKMr+AcVL1ywas7LFgdlavDDV3GBfBkP1eCzc4SzqePbqI+el1XQQRqkHg4mbTRDXIcDW4MbI=</t>
+  </si>
+  <si>
+    <t>1594892869614</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"L6T78Y4W0FN072057","reduce_percent":88.26799332666667,"soh_score":-1,"drive_range":253.0,"actual_drive_range":216.9447305123381,"battery_model":"06632060/BE02","battery_type":"三元材料"},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>平安保险车主服务数据查询验签失败</t>
+  </si>
+  <si>
+    <t>159489286961</t>
+  </si>
+  <si>
+    <t>平安保险车主服务数据查询参数未加密</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":"参数未加密","data":null,"error":true,"code":"30008"}</t>
+  </si>
+  <si>
+    <t>平安保险车主服务数据查询为空</t>
+  </si>
+  <si>
+    <t>vin=M01lSSdHdTVaAAnJQYpjTDjkCsPzcvb0BcU%2Buf3sTIBjdaBUhwLXTY56%2Bpw4fo4fvUraIMXdM3qBsljl%2FfUfQwU%2BJUIFG%2FbbKnF0WX%2BAID2j1jAo%2BX%2BJ8RgwWbROU%2B1mkA0%2FhapecQZrW95DGP6MkAP%2BmI7zsbaMHvqKdZGhpVM%3D</t>
+  </si>
+  <si>
+    <t>qp6bnSzOnQd+avywx31lcCsn8TeA7Up/NcxmCv41oJkSZ/1BdnovXKoOo2TPBE8lnMwMKt5v56UF94UFDTrSeSfDD1U3nVbyHCp4mDJrwMZEzoMY41WeBcA0pwdHH6u+4bjDFajJrWQh5H39VkrmSvndHvcUiJS9tqTzaC5bgbQ=</t>
+  </si>
+  <si>
+    <t>1594893074745</t>
   </si>
   <si>
     <t>车型靠谱指数01</t>
@@ -837,9 +948,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -874,7 +985,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,23 +1021,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,36 +1051,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,11 +1073,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -986,25 +1111,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1017,7 +1128,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +1164,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,31 +1206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,31 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,25 +1254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,13 +1278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,6 +1306,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1208,6 +1319,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1231,26 +1351,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,153 +1408,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1990,30 +2101,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2430,8 +2541,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2569,10 +2680,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2982,7 +3093,7 @@
         <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2993,63 +3104,63 @@
         <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
         <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
         <v>134</v>
@@ -3057,40 +3168,68 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
         <v>212</v>
-      </c>
-      <c r="D35" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s">
         <v>133</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3133,16 +3272,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3186,86 +3325,86 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3277,16 +3416,16 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.6388888888889" customWidth="1"/>
-    <col min="2" max="2" width="42.5462962962963" customWidth="1"/>
+    <col min="1" max="1" width="55.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="46.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="37.3611111111111" customWidth="1"/>
     <col min="4" max="4" width="20.7314814814815" customWidth="1"/>
     <col min="5" max="5" width="17.6388888888889" customWidth="1"/>
@@ -3304,10 +3443,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3315,81 +3454,241 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3432,7 +3731,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>158</v>

--- a/src/main/resources/TEST.xlsx
+++ b/src/main/resources/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="639" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="639" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="saaspost" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="346">
   <si>
     <t>desc</t>
   </si>
@@ -598,10 +598,10 @@
     <t>/external-api/vrm/vehicle/summary/tags?</t>
   </si>
   <si>
-    <t>vin=LC06S64M0H1993466</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"LC06S64M0H1993466","charge_times":343,"fast_charge_times":1,"total_charge_time_length":1863103.0,"total_fast_charge_time_length":1219.0,"end_charge_avg_soc":92.62973760932945,"max_weight":"17950","displacement":"","max_speed":"100","length":"10690","drive_range":469.0,"motor_type":"永磁同步电机","kwh_100km":0.0,"cell_enterprise":"惠州比亚迪电池有限公司","battery_type":"磷酸铁锂","manufacturer":"比亚迪汽车工业有限公司","brand":"比亚迪牌","veh_category_2":"纯电动客车","veh_model_name":"BYD6110LLEV","veh_level":"","produce_date":"2017"},"error":false,"code":"10000"}</t>
+    <t>vin=L68GCS4B3JA000157</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"L68GCS4B3JA000157","displacement":"","length":"8560","manufacturer":"东莞中汽宏远汽车有限公司","brand":"宏远牌","charge_times":128,"fast_charge_times":95,"total_charge_time_length":382642.0,"total_fast_charge_time_length":201013.0,"end_charge_avg_soc":99.078125,"max_weight":"14000","max_speed":"69","drive_range":420.0,"motor_type":"永磁同步电机","kwh_100km":0.0,"cell_enterprise":"宁德时代新能源科技股份有限公司","battery_type":"磷酸铁锂","veh_category_2":"纯电动客车","veh_model_name":"KMT6861GBEV2","veh_level":"","produce_date":"2018"},"error":false,"code":"10000"}</t>
   </si>
   <si>
     <t>鼎然科技行程汇总查询vin无数据</t>
@@ -637,7 +637,7 @@
     <t>平安租赁实时数据按vin查询</t>
   </si>
   <si>
-    <t>/external-api/vrm/vehicle/realTime?</t>
+    <t>/external-api/vrm/rent/vehicle/realTime?</t>
   </si>
   <si>
     <t>vin=LNAA2AA14K5005789</t>
@@ -658,10 +658,10 @@
     <t>/external-api/vrm/vehicle/static/tag?</t>
   </si>
   <si>
-    <t>vin=LNBSCB3F8GW022110</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"LNBSCB3F8GW022110","power_type":"纯电动","license_plate":"鲁B3R20L","veh_model_name":"BJ7001BPH1-BEV","brand":"北京牌","manufacturer":"北京新能源汽车股份有限公司","veh_common_name":"EC180","curb_weight":1050.0,"max_speed":101.0,"drive_range":156.0,"positive_material":"层状三元材料","cell_manufacturer":"孚能科技（赣州）有限公司/","kwh_100km":null,"is_online":1,"first_live_date":"2018-05-04","run_city":"青岛市","run_province":"山东省","veh_category_2":"计时租赁","unit_name":"青岛新未来汽车租赁有限公司","veh_level":"A0","first_run_date":"1525422114000","first_charge_date":"1525434259000"},"error":false,"code":"10000"}</t>
+    <t>vin=LNBSCC3H5HF323314</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LNBSCC3H5HF323314","brand":"北京牌","manufacturer":"北京汽车股份有限公司","power_type":"纯电动","license_plate":"沪AD88753","veh_model_name":"BJ7000C5E2-BEV","veh_common_name":"EU260","curb_weight":1613.0,"max_speed":100.0,"drive_range":252.0,"positive_material":"层状三元材料","cell_manufacturer":"宁德时代新能源科技股份有限公司","kwh_100km":null,"is_online":1,"first_live_date":"2020-03-22","run_city":"上海市","run_province":"上海市","veh_category_2":"网约车","unit_name":"上海强生出租汽车有限公司","veh_level":"A","first_run_date":"1584850157000","first_charge_date":"1584865537000"},"error":false,"code":"10000"}</t>
   </si>
   <si>
     <t>中保信车辆静态信息按vin查询无数据</t>
@@ -670,7 +670,7 @@
     <t>中保信车辆静态信息按licensePlate查询正确</t>
   </si>
   <si>
-    <t>licensePlate=%E9%B2%81B3R20L</t>
+    <t>licensePlate=%E6%B2%AAAD88753</t>
   </si>
   <si>
     <t>中保信车辆静态信息按licensePlate查询无数据</t>
@@ -694,12 +694,96 @@
     <t>/external-api/vrm/vehicle/whole/tag?</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"LNBSCB3F8GW022110","power_type":"BEV","brand":"北京","veh_model_name":"BJ7001BPH1-BEV","drive_range":156.0,"positive_material":"层状三元材料","cell_manufacturer":"孚能科技（赣州）有限公司/","is_online":1,"run_location":"河南省鹤壁市浚县","province_dept":"山东省","city_dept":"青岛市","veh_category_2":"计时租赁","first_run_date":"2018-05-04","first_charge_date":"2018-05-04","total_run_mile":250610.0,"total_high_temp_run_mile":14150.0,"total_low_temp_run_mile":140.0,"total_low_soc_run_times":167,"avg_daily_run_mile":517.7892561983471,"avg_daily_run_time_length":6882.384297520661,"avg_charge_times_per_100km":0.1552212601252943,"avg_charge_start_soc":35.48586118251928,"avg_charge_end_soc":83.60411311053984,"last_charge_time":"2020-04-29","last_charge_location":"河南省安阳市","total_alarm_times":38,"max_alarm_name":"绝缘报警","risk_score":0.0,"total_night_run_mile":31450.0,"total_night_run_time_length":420446.0,"total_summer_run_mile":80320.0,"total_winter_run_mile":50990.0,"charge_times":389},"error":false,"code":"10000"}</t>
+    <t>vin=LJ1EEKPP1J7410252</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LJ1EEKPP1J7410252","brand":"江淮牌","power_type":"纯电动","veh_model_name":"HFC7000W3EV","drive_range":156.0,"positive_material":"橄榄石型磷酸铁锂材料","cell_manufacturer":"合肥国轩高科动力能源有限公司","kwh_100km":13.0,"is_online":1,"run_location":"江西省九江市瑞昌市","province_dept":"安徽省","city_dept":"合肥市","veh_category_2":"私人乘用车","first_run_date":"2018-11-24","first_charge_date":"2018-12-08","total_run_mile":61981.0,"total_high_temp_run_mile":1058.0,"total_low_temp_run_mile":0.0,"total_low_soc_run_times":1,"avg_daily_run_mile":300.878640776699,"avg_daily_run_time_length":3511.223300970874,"avg_charge_times_per_100km":1.048708475177877,"avg_charge_start_soc":47.353846153846156,"avg_charge_end_soc":96.3076923076923,"last_charge_time":"2020-06-26","last_charge_location":"江西省九江市","total_alarm_times":null,"max_alarm_name":null,"risk_score":0.0,"total_night_run_mile":16516.0,"total_night_run_time_length":187797.0,"total_summer_run_mile":12907.0,"total_winter_run_mile":10454.0,"charge_times":65,"fast_charge_times":1,"avg_run_speed":385.1281183882615,"max_run_speed":1072.0,"avg_charge_time_length":14396.8,"latest_dashboard_mile":111309.0,"total_run_times":516},"error":false,"code":"10000"}</t>
   </si>
   <si>
     <t>中保信整体标签查询按vin查询无数据</t>
   </si>
   <si>
+    <t>平安租赁查询行程列表查询正确LNAA2AA14K5005789</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/rent/vehicle/trip/list?</t>
+  </si>
+  <si>
+    <t>vin=LNAA2AA14K5005789&amp;startDate=2020-02-02%2000%3A00%3A00&amp;stopDate=2020-02-02%2023%3A59%3A59</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":[{"vin":"LNAA2AA14K5005789","statistic_date":1580599875000},{"vin":"LNAA2AA14K5005789","statistic_date":1580602235000},{"vin":"LNAA2AA14K5005789","statistic_date":1580609895000},{"vin":"LNAA2AA14K5005789","statistic_date":1580611185000},{"vin":"LNAA2AA14K5005789","statistic_date":1580611315000}],"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>平安租赁查询行程列表查询为空LNAA2AA14K500578</t>
+  </si>
+  <si>
+    <t>vin=LNAA2AA14K500578&amp;startDate=2020-02-02%2000%3A00%3A00&amp;stopDate=2020-02-02%2023%3A59%3A59</t>
+  </si>
+  <si>
+    <t>平安租赁查询单个行程查询正确LNAA2AA14K5005789</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/rent/vehicle/trip?</t>
+  </si>
+  <si>
+    <t>vin=LNAA2AA14K5005789&amp;statisticDate=1580599875000</t>
+  </si>
+  <si>
+    <t>平安租赁查询单个行程查询为空LNAA2AA14K500578</t>
+  </si>
+  <si>
+    <t>vin=LNAA2AA14K500578&amp;statisticDate=1580599875000</t>
+  </si>
+  <si>
+    <t>车辆电池换电查询根据vin查询无换电只查vin</t>
+  </si>
+  <si>
+    <t>/external-api/vehicle-battery/customer/change/battery/vin?</t>
+  </si>
+  <si>
+    <t>vin=LC0CE4DC3J0100191</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"change":false,"lastPackCode":"010B200WQJ815AB520","latestPackCode":"010B200WQJ815AB520","replaceDate":null},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>车辆电池换电查询根据vin查询无换电输入电池包</t>
+  </si>
+  <si>
+    <t>vin=LC0CE4DC3J0100191&amp;packCode=010B200WQJ815AB520</t>
+  </si>
+  <si>
+    <t>车辆电池换电查询根据vin查询有换电输入电池包123</t>
+  </si>
+  <si>
+    <t>vin=LC0CE4DC3J0100191&amp;packCode=123</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"change":true,"lastPackCode":"010B200WQJ815AB520","latestPackCode":"123","replaceDate":null},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>车辆电池换电查询根据车牌号查询无换电只查车牌号</t>
+  </si>
+  <si>
+    <t>/external-api/vehicle-battery/customer/change/battery/licensePlate?</t>
+  </si>
+  <si>
+    <t>licensePlate=%E5%B7%9DQD09882</t>
+  </si>
+  <si>
+    <t>车辆电池换电查询根据车牌号查询无换电输入电池包</t>
+  </si>
+  <si>
+    <t>licensePlate=%E5%B7%9DQD09882&amp;packCode=010B200WQJ815AB520</t>
+  </si>
+  <si>
+    <t>车辆电池换电查询根据车牌号查询有换电输入电池包123</t>
+  </si>
+  <si>
+    <t>licensePlate=%E5%B7%9DQD09882&amp;packCode=123</t>
+  </si>
+  <si>
     <t>API接口EC动力接收充电数据</t>
   </si>
   <si>
@@ -712,6 +796,30 @@
     <t>{"status":200,"errorMsg":null,"data":null,"error":false,"code":"10000"}</t>
   </si>
   <si>
+    <t>鼎然科技白名单添加</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/special/dingran/white/roster/receive?vin=LC0DE6CB9H1000142&amp;actionType=1</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":1,"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>鼎然科技白名单删除</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/special/dingran/white/roster/receive?vin=LC0DE6CB9H1000142&amp;actionType=2</t>
+  </si>
+  <si>
+    <t>鼎然科技白名单操作类型输入错误3</t>
+  </si>
+  <si>
+    <t>/external-api/vrm/special/dingran/white/roster/receive?vin=LC0DE6CB9H1000142&amp;actionType=3</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":"操作类型不正确","data":null,"error":true,"code":"30001"}</t>
+  </si>
+  <si>
     <t>车辆总数</t>
   </si>
   <si>
@@ -775,28 +883,28 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>精励联讯保险调用正常--LGXC76C3XJ0108468</t>
+    <t>精励联讯保险调用正常--LGXCE6CB5J0172639</t>
   </si>
   <si>
     <t>/external-api/vrm/genilex/insurance/lable?</t>
   </si>
   <si>
-    <t>vin=CEICmUK8TYpnFfkToJCvfC%2FGI%2FHxHhgNewUaf%2B2xJmtH4LpUD3HEvCfs8Vh9yEnjWViYEcRQUtnoUhdo3Cm95%2BrSd%2BBh5dhyqrXywGx7NHJfGuUWer4xkCF78e7qwwNoqzkv1DidMPpA45quVI0L8PMw%2BSMbYNiu70hVS5adN84%3D&amp;customerId=123</t>
-  </si>
-  <si>
-    <t>djKx876kY0HGWS4UKNCwasskI3j5vh92Y40L6eEmY7TzysROyIcPccFnFlE76BUUXfWz1YGDjUTa5rLx4HJzty3XQhQKZK23O76P6HfJJsg0slkBufD6J6aVgdIIfLo7Evny7PyJPDpHqRK3PvnTFxoge3AO+PHJe2HlGO29q1s=</t>
-  </si>
-  <si>
-    <t>1584338303978</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"risk_score":24.41971292259522,"mileage_12":3.0,"mileage_24":1.0,"mileage_36":0.0},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>精励联讯保险调用正常--津AF05690</t>
-  </si>
-  <si>
-    <t>licensePlate=FkgzYFyc2oOym3KJnuxGEABKA2p0p1c3PY4EVlCM9P13DvBK%2BO9loMrTduQA3wruxKdqKV9aqonahmuoocjdCa91amdP36DMya4zrePl9DQeW6XjT61GXmY5QqPIEXR1A7qKt8NSt5ck0dEUeqQT%2F%2FEOXXdvEnoWpnOeZ%2F6LG8A%3D&amp;customerId=123</t>
+    <t>vin=XWUvbK5%2B1o33MmFTkmtbkNZXbF69N3LkTuEh3wY37Be2gWLpBDmVaQThtG2bL7KuVNK%2FroIKMYPuctqSTYG5rh4nqIcZ9Cf7A49gCDVI51xqMWofmRno1WbAQp5oHzk6pKE5eHujcxlu5WSVns37J%2FK7UyJXB4030pJPhVvkB00%3D&amp;customerId=123</t>
+  </si>
+  <si>
+    <t>wVOxnIgnXu1wZzDG+JGwr9q32wUgCNRFM32FzAa1bLHN3fxg5IH8DJiuMPZkel4fh8f5aXEpoIENwHV3vuIzn/GCAP82hXiTmb1gFM4KZ9jTcE4HeU2pW6z6mfwagUv1RpWrQ236YNtI1wdyyFQSaQgDesatiQD/eTa5f/+bj3g=</t>
+  </si>
+  <si>
+    <t>1596527919336</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":30.61,"mileage_12":4.0,"mileage_24":1.0,"mileage_36":0.0},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>精励联讯保险车架号与车牌号至少传一个</t>
+  </si>
+  <si>
+    <t>customerId=123</t>
   </si>
   <si>
     <t>UvgSk2dsQjj4A5nsVlvEUuJSMveTKY2Zx67HuWCDkGAmInoi2pjnVMHZm3cLA7OHlpQSMy2/X+OiFyN0RkMKPP1LlHaJvNAQV24zf102/eAj4I3QbL39yFbtEVs0mhS30zgduraATJ0uYrPzim0mzc8PhbX+RV4cm/1V49w7ycc=</t>
@@ -805,12 +913,6 @@
     <t>1584339230681</t>
   </si>
   <si>
-    <t>精励联讯保险车架号与车牌号至少传一个</t>
-  </si>
-  <si>
-    <t>customerId=123</t>
-  </si>
-  <si>
     <t>{"status":200,"errorMsg":"参数vin、licensePlate至少传一个","data":null,"error":true,"code":"30001"}</t>
   </si>
   <si>
@@ -832,73 +934,91 @@
     <t>/external-api/vrm/insurance/lable?</t>
   </si>
   <si>
+    <t>vin=NFe889bT7ob1s%2B5eIv7VwCw1%2F5EF8gtQxhLJJIViPD1QP5LuAdCcF6TESnrnodTQek3TvKo%2BMZBRJcZIOnj8vymUQ8jwUJFYF%2BWvoqIvNj8ZOCx5KSC2xrsdfqsZ4te6u8kxy0jNlDL2DcclY4g0gjX1D%2BUscxt%2FGaaIBtAnKwA%3D</t>
+  </si>
+  <si>
+    <t>OlBcEL5lT/sJPHWVjpW3oBVgqWq0ewrMEtruLPD1Pzofh4Awn7Xjh+S988MXfnwuxZqOu7ZIyxvtoDDXAWLMu2i5vSW9NJbuVXkyHaht/NENPezQ0fVIv+RGJSLBB2z2mc7a/wQvckMnWliUJD4CooWhwxLWMFGluLRQPl43KzY=</t>
+  </si>
+  <si>
+    <t>1596529117113</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"risk_score":24.954246567451747,"mileage_12":42.0,"mileage_24":12450.0,"mileage_36":0.0,"avg_run_time_length_monthly":3.1509230769230768E7,"avg_run_speed":486.27997405250613,"brake_acc_count_per_100km":0.054377379010331704,"acc_count_per_100km":0.0,"speed_range00_rate":0.21017593913456967,"speed_range20_rate":0.2051038199397686,"speed_range40_rate":0.16880646695197338,"speed_range60_rate":0.08115390711681725,"speed_range80_rate":0.058804881914724993,"speed_range100_rate":0.06134094151212553,"speed_range120_rate":0.009827230939927089,"speed_range140_rate":9.510223490252021E-4,"fatigue_driving_rate":0.011056589033738587,"avg_run_days_monthly":4.384615384615385,"avg_run_count_monthly":11.692307692307692,"avg_fast_charge_count_monthly":0.3333333333333333,"avg_slow_charge_count_monthly":2.3333333333333335},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>平安保险核保标签查询timestamp有误验签失败</t>
+  </si>
+  <si>
     <t>vin=TQV1pZtSoCYtdUgtWFvTkpW3luttCnrFKdFqEmXzyQVGTyI2AD2spx2TPTBFUeJYNWNN0XV3%2ByjnnrlxtoqWQd4rLfMjzsY4wyzdWc4MGMaWNWpnocFzoJGr%2B7xWfblNmaZ7bW8E4psARR%2FcGXGOKuPkDAyLSJW%2BZ2o5CvIGuMU%3D</t>
   </si>
   <si>
     <t>PInyLiz+Vcn4MjSsiRuVXnPbuURF5cFxryqaflShqFOcAuYr3SRoSpHspgEz4Dbi1iVxocxhIOYShyZSOWZuLwWyjypq3JPVKD/80N1HU0GBhpLY/k+4EF7nQhb54ShgT/cIxQEWjMt57q/wH4tBwRiJUBNeGVD8wtRdz84YeAw=</t>
   </si>
   <si>
+    <t>159489257419</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":"验签失败","data":null,"error":true,"code":"30010"}</t>
+  </si>
+  <si>
+    <t>平安保险核保标签查询无结果vin为LGXC76C3XJ010846</t>
+  </si>
+  <si>
+    <t>vin=JJ9f5rAzm5sjS43hifEef71gr4M5Dwqq6NoSc9G%2FBuLIJo2c0z2R5%2Bqljq6APZX4aVt%2B9B0%2Bp2fpHQ029X%2BFhpZIeRE6GAgzEgL5aHVCg4gefRLXs4cMKIC%2Bl9O9Nw1ufHN5F%2BHAQYuF8jTyaSZs0LgnoFZLt%2BY%2FM8VUNGKhnnI%3D</t>
+  </si>
+  <si>
+    <t>v8gO/yvRT1f7qAurXrkXc1O8fQBvRJb8oBfS8P2OovtQkpfdfVnbrwluHr84hJxXJkGnE2me2gTNwLbYuXEPDpYAIcR28Tq0AWqsZACU9CivxSvIZXWMiRZiUN68UBObKhuM8gA1sDyciJP4AQzEM2w2koMxikzio4bX3LMuIc0=</t>
+  </si>
+  <si>
+    <t>1594893586349</t>
+  </si>
+  <si>
+    <t>平安保险核保标签查询vin未加密</t>
+  </si>
+  <si>
+    <t>vin=LGXC76C3XJ0108468</t>
+  </si>
+  <si>
     <t>1594892574198</t>
   </si>
   <si>
-    <t>{"status":200,"errorMsg":null,"data":{"risk_score":24.954246567451747,"mileage_12":42.0,"mileage_24":12450.0,"mileage_36":0.0,"avg_run_time_length_monthly":3.1509230769230768E7,"avg_run_speed":486.27997405250613,"brake_acc_count_per_100km":0.054377379010331704,"acc_count_per_100km":0.0,"speed_range00_rate":0.21017593913456967,"speed_range20_rate":0.2051038199397686,"speed_range40_rate":0.16880646695197338,"speed_range60_rate":0.08115390711681725,"speed_range80_rate":0.058804881914724993,"speed_range100_rate":0.06134094151212553,"speed_range120_rate":0.009827230939927089,"speed_range140_rate":9.510223490252021E-4,"fatigue_driving_rate":0.011056589033738587,"avg_run_days_monthly":4.384615384615385,"avg_run_count_monthly":11.692307692307692,"avg_fast_charge_count_monthly":0.3333333333333333,"avg_slow_charge_count_monthly":2.3333333333333335},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>平安保险核保标签查询timestamp有误验签失败</t>
-  </si>
-  <si>
-    <t>159489257419</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":"验签失败","data":null,"error":true,"code":"30010"}</t>
-  </si>
-  <si>
-    <t>平安保险核保标签查询无结果vin为LGXC76C3XJ010846</t>
-  </si>
-  <si>
-    <t>vin=JJ9f5rAzm5sjS43hifEef71gr4M5Dwqq6NoSc9G%2FBuLIJo2c0z2R5%2Bqljq6APZX4aVt%2B9B0%2Bp2fpHQ029X%2BFhpZIeRE6GAgzEgL5aHVCg4gefRLXs4cMKIC%2Bl9O9Nw1ufHN5F%2BHAQYuF8jTyaSZs0LgnoFZLt%2BY%2FM8VUNGKhnnI%3D</t>
-  </si>
-  <si>
-    <t>v8gO/yvRT1f7qAurXrkXc1O8fQBvRJb8oBfS8P2OovtQkpfdfVnbrwluHr84hJxXJkGnE2me2gTNwLbYuXEPDpYAIcR28Tq0AWqsZACU9CivxSvIZXWMiRZiUN68UBObKhuM8gA1sDyciJP4AQzEM2w2koMxikzio4bX3LMuIc0=</t>
-  </si>
-  <si>
-    <t>1594893586349</t>
-  </si>
-  <si>
-    <t>平安保险核保标签查询vin未加密</t>
-  </si>
-  <si>
-    <t>vin=LGXC76C3XJ0108468</t>
-  </si>
-  <si>
     <t>{"status":200,"errorMsg":"确保VIN是否已加密","data":null,"error":true,"code":"30008"}</t>
   </si>
   <si>
-    <t>平安保险车主服务数据查询正确L6T78Y4W0FN072057</t>
+    <t>平安保险车主服务数据查询正确LMVAFLEXXJA000323</t>
   </si>
   <si>
     <t>/external-api/vrm/vehicle/battery/tag?</t>
   </si>
   <si>
+    <t>vin=dddU9ek%2FWXKMqbeDqq88Ey4DQzIqYXdTAFOmLWaXP2LCKtiV2Jg%2BtxVpiSJ%2FbPkg%2B%2BK2Cia9pYSu2%2FWdcG0mF%2FlrgkHcqLWDduhxIZ1fqOF7IgcLE3FGjsDsvQNQ8jPTfibJJwSqCVsQUu%2F9ou%2FfZeQ%2Fg8yVW8e%2FkJOyqstXKlQ%3D</t>
+  </si>
+  <si>
+    <t>VZALENJVTTjkR7ME6mqvCqTmRNIYZG+LxlDberB98+jBuG93YRyg+yqGAWBzu5vK3ekovELh4ZCcB5OAFiuBOaAysqsepYEMpeXt7Pn8JT2NibkTALQIHJw4EjLD0koAvxbUI0RyfbOHaL0aDLVI7/JEn3bbhJddlPLkde9UOn4=</t>
+  </si>
+  <si>
+    <t>1596529632499</t>
+  </si>
+  <si>
+    <t>{"status":200,"errorMsg":null,"data":{"vin":"LMVAFLEXXJA000323","reduce_percent":99.99454416,"soh_score":-1,"drive_range":315.0,"actual_drive_range":162.3621553884712,"battery_model":"NA01-ME10021D","battery_type":"三元材料"},"error":false,"code":"10000"}</t>
+  </si>
+  <si>
+    <t>平安保险车主服务数据查询验签失败</t>
+  </si>
+  <si>
     <t>vin=BPyYt6SH%2FxlnZlAYCXIUF0lQulsf8GCM%2BinAbX1%2BvtwMFCwWxUyNEDCy1H8jxwE%2FFrNZqLaerifR1xH1S8YUPrDJdXoBl5SAtsLY64UoYuvOj8jBQbEEFEdtjqj30ZptdLON4nxrzKNa%2BiMEvApeHmJYhlgUtdTRgGzF0qq6IoM%3D</t>
   </si>
   <si>
     <t>hPXyRB64DMZPuw/pLG2yHgAzoRVaGrhjfG0odPvEto3LyBGWZNdh0hsz87fRKXlOve+Yo8DBazGZcDHVMkuJVWC2IAD6tcztiaeKMr+AcVL1ywas7LFgdlavDDV3GBfBkP1eCzc4SzqePbqI+el1XQQRqkHg4mbTRDXIcDW4MbI=</t>
   </si>
   <si>
+    <t>159489286961</t>
+  </si>
+  <si>
+    <t>平安保险车主服务数据查询参数未加密</t>
+  </si>
+  <si>
     <t>1594892869614</t>
-  </si>
-  <si>
-    <t>{"status":200,"errorMsg":null,"data":{"vin":"L6T78Y4W0FN072057","reduce_percent":88.26799332666667,"soh_score":-1,"drive_range":253.0,"actual_drive_range":216.9447305123381,"battery_model":"06632060/BE02","battery_type":"三元材料"},"error":false,"code":"10000"}</t>
-  </si>
-  <si>
-    <t>平安保险车主服务数据查询验签失败</t>
-  </si>
-  <si>
-    <t>159489286961</t>
-  </si>
-  <si>
-    <t>平安保险车主服务数据查询参数未加密</t>
   </si>
   <si>
     <t>{"status":200,"errorMsg":"参数未加密","data":null,"error":true,"code":"30008"}</t>
@@ -950,8 +1070,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -991,23 +1111,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,8 +1141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,7 +1151,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,9 +1194,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,7 +1218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,40 +1233,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1128,7 +1248,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  